--- a/en/Sample_Project/Design_Document/B1_Client_Management_System/030_Application_Design/030_Interface_Design/External_Interface_Design_Document_B10102P_Detailed_Client_Acquisition_Respons.xlsx
+++ b/en/Sample_Project/Design_Document/B1_Client_Management_System/030_Application_Design/030_Interface_Design/External_Interface_Design_Document_B10102P_Detailed_Client_Acquisition_Respons.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{743653E2-1E59-4475-8E0F-F709A7FEBCEA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2FD1BCF-9F0D-4A28-BEC9-BE2EE2DA4F64}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="375" yWindow="360" windowWidth="27090" windowHeight="10830" tabRatio="641" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="930" windowWidth="28740" windowHeight="10125" tabRatio="641" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="59" r:id="rId1"/>
@@ -2097,644 +2097,11 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="13" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="17" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="176" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="176" fontId="17" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="19" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="19" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="19" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="19" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="19" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="13" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="17" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="17" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="17" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2752,6 +2119,129 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="13" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="17" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -2761,59 +2251,92 @@
     <xf numFmtId="14" fontId="17" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="17" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="17" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="17" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="17" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="17" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="17" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2824,8 +2347,485 @@
     <xf numFmtId="14" fontId="17" fillId="0" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="13" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="19" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="19" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="19" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="19" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="19" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -2899,7 +2899,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp20.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2911,11 +2911,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp22.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp23.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5939,12 +5939,12 @@
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
-      <c r="I25" s="219">
+      <c r="I25" s="238">
         <f ca="1">IF(INDIRECT("'Revision history'!D8")="","",MAX(INDIRECT("'Revision history'!D8"):INDIRECT("'Revision history'!F33")))</f>
         <v>43718</v>
       </c>
-      <c r="J25" s="219"/>
-      <c r="K25" s="219"/>
+      <c r="J25" s="238"/>
+      <c r="K25" s="238"/>
       <c r="L25" s="19"/>
     </row>
     <row r="26" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6568,340 +6568,340 @@
   <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16" width="4.83203125" style="91" customWidth="1"/>
-    <col min="17" max="17" width="4.83203125" style="458" customWidth="1"/>
+    <col min="17" max="17" width="4.83203125" style="237" customWidth="1"/>
     <col min="18" max="34" width="4.83203125" style="91" customWidth="1"/>
-    <col min="35" max="35" width="4.83203125" style="458" customWidth="1"/>
+    <col min="35" max="35" width="4.83203125" style="237" customWidth="1"/>
     <col min="36" max="16384" width="4.83203125" style="91"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="31" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="390" t="s">
+      <c r="A1" s="239" t="s">
         <v>90</v>
       </c>
-      <c r="B1" s="391"/>
-      <c r="C1" s="391"/>
-      <c r="D1" s="392"/>
-      <c r="E1" s="223" t="s">
+      <c r="B1" s="240"/>
+      <c r="C1" s="240"/>
+      <c r="D1" s="241"/>
+      <c r="E1" s="251" t="s">
         <v>91</v>
       </c>
-      <c r="F1" s="224"/>
-      <c r="G1" s="224"/>
-      <c r="H1" s="224"/>
-      <c r="I1" s="224"/>
-      <c r="J1" s="224"/>
-      <c r="K1" s="224"/>
-      <c r="L1" s="224"/>
-      <c r="M1" s="224"/>
-      <c r="N1" s="225"/>
-      <c r="O1" s="393" t="s">
+      <c r="F1" s="252"/>
+      <c r="G1" s="252"/>
+      <c r="H1" s="252"/>
+      <c r="I1" s="252"/>
+      <c r="J1" s="252"/>
+      <c r="K1" s="252"/>
+      <c r="L1" s="252"/>
+      <c r="M1" s="252"/>
+      <c r="N1" s="253"/>
+      <c r="O1" s="242" t="s">
         <v>92</v>
       </c>
-      <c r="P1" s="394"/>
-      <c r="Q1" s="394"/>
-      <c r="R1" s="395"/>
-      <c r="S1" s="396" t="s">
+      <c r="P1" s="243"/>
+      <c r="Q1" s="243"/>
+      <c r="R1" s="244"/>
+      <c r="S1" s="288" t="s">
         <v>93</v>
       </c>
-      <c r="T1" s="397"/>
-      <c r="U1" s="397"/>
-      <c r="V1" s="397"/>
-      <c r="W1" s="397"/>
-      <c r="X1" s="397"/>
-      <c r="Y1" s="397"/>
-      <c r="Z1" s="398"/>
-      <c r="AA1" s="390" t="s">
+      <c r="T1" s="289"/>
+      <c r="U1" s="289"/>
+      <c r="V1" s="289"/>
+      <c r="W1" s="289"/>
+      <c r="X1" s="289"/>
+      <c r="Y1" s="289"/>
+      <c r="Z1" s="290"/>
+      <c r="AA1" s="239" t="s">
         <v>94</v>
       </c>
-      <c r="AB1" s="392"/>
-      <c r="AC1" s="237" t="str">
+      <c r="AB1" s="241"/>
+      <c r="AC1" s="279" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="238"/>
-      <c r="AE1" s="238"/>
-      <c r="AF1" s="239"/>
-      <c r="AG1" s="425">
+      <c r="AD1" s="280"/>
+      <c r="AE1" s="280"/>
+      <c r="AF1" s="281"/>
+      <c r="AG1" s="282">
         <f>IF(D8="","",D8)</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="426"/>
-      <c r="AI1" s="427"/>
+      <c r="AH1" s="283"/>
+      <c r="AI1" s="284"/>
       <c r="AK1" s="170"/>
       <c r="AL1" s="170"/>
       <c r="AM1" s="170"/>
-      <c r="AN1" s="428"/>
+      <c r="AN1" s="220"/>
     </row>
     <row r="2" spans="1:40" s="31" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="390" t="s">
+      <c r="A2" s="239" t="s">
         <v>95</v>
       </c>
-      <c r="B2" s="391"/>
-      <c r="C2" s="391"/>
-      <c r="D2" s="392"/>
-      <c r="E2" s="223" t="s">
+      <c r="B2" s="240"/>
+      <c r="C2" s="240"/>
+      <c r="D2" s="241"/>
+      <c r="E2" s="251" t="s">
         <v>96</v>
       </c>
-      <c r="F2" s="224"/>
-      <c r="G2" s="224"/>
-      <c r="H2" s="224"/>
-      <c r="I2" s="224"/>
-      <c r="J2" s="224"/>
-      <c r="K2" s="224"/>
-      <c r="L2" s="224"/>
-      <c r="M2" s="224"/>
-      <c r="N2" s="225"/>
-      <c r="O2" s="399"/>
-      <c r="P2" s="400"/>
-      <c r="Q2" s="400"/>
-      <c r="R2" s="401"/>
-      <c r="S2" s="402"/>
-      <c r="T2" s="403"/>
-      <c r="U2" s="403"/>
-      <c r="V2" s="403"/>
-      <c r="W2" s="403"/>
-      <c r="X2" s="403"/>
-      <c r="Y2" s="403"/>
-      <c r="Z2" s="404"/>
-      <c r="AA2" s="390" t="s">
+      <c r="F2" s="252"/>
+      <c r="G2" s="252"/>
+      <c r="H2" s="252"/>
+      <c r="I2" s="252"/>
+      <c r="J2" s="252"/>
+      <c r="K2" s="252"/>
+      <c r="L2" s="252"/>
+      <c r="M2" s="252"/>
+      <c r="N2" s="253"/>
+      <c r="O2" s="245"/>
+      <c r="P2" s="246"/>
+      <c r="Q2" s="246"/>
+      <c r="R2" s="247"/>
+      <c r="S2" s="291"/>
+      <c r="T2" s="292"/>
+      <c r="U2" s="292"/>
+      <c r="V2" s="292"/>
+      <c r="W2" s="292"/>
+      <c r="X2" s="292"/>
+      <c r="Y2" s="292"/>
+      <c r="Z2" s="293"/>
+      <c r="AA2" s="239" t="s">
         <v>97</v>
       </c>
-      <c r="AB2" s="392"/>
-      <c r="AC2" s="429" t="str">
+      <c r="AB2" s="241"/>
+      <c r="AC2" s="285" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="430"/>
-      <c r="AE2" s="430"/>
-      <c r="AF2" s="431"/>
-      <c r="AG2" s="425" t="str">
+      <c r="AD2" s="286"/>
+      <c r="AE2" s="286"/>
+      <c r="AF2" s="287"/>
+      <c r="AG2" s="282" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="426"/>
-      <c r="AI2" s="427"/>
+      <c r="AH2" s="283"/>
+      <c r="AI2" s="284"/>
       <c r="AK2" s="170"/>
       <c r="AL2" s="170"/>
       <c r="AM2" s="170"/>
       <c r="AN2" s="170"/>
     </row>
     <row r="3" spans="1:40" s="31" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="390" t="s">
+      <c r="A3" s="239" t="s">
         <v>98</v>
       </c>
-      <c r="B3" s="391"/>
-      <c r="C3" s="391"/>
-      <c r="D3" s="392"/>
-      <c r="E3" s="223" t="s">
+      <c r="B3" s="240"/>
+      <c r="C3" s="240"/>
+      <c r="D3" s="241"/>
+      <c r="E3" s="251" t="s">
         <v>99</v>
       </c>
-      <c r="F3" s="224"/>
-      <c r="G3" s="224"/>
-      <c r="H3" s="224"/>
-      <c r="I3" s="224"/>
-      <c r="J3" s="224"/>
-      <c r="K3" s="224"/>
-      <c r="L3" s="224"/>
-      <c r="M3" s="224"/>
-      <c r="N3" s="225"/>
-      <c r="O3" s="405"/>
-      <c r="P3" s="406"/>
-      <c r="Q3" s="406"/>
-      <c r="R3" s="407"/>
-      <c r="S3" s="408"/>
-      <c r="T3" s="409"/>
-      <c r="U3" s="409"/>
-      <c r="V3" s="409"/>
-      <c r="W3" s="409"/>
-      <c r="X3" s="409"/>
-      <c r="Y3" s="409"/>
-      <c r="Z3" s="410"/>
-      <c r="AA3" s="390"/>
-      <c r="AB3" s="392"/>
-      <c r="AC3" s="237"/>
-      <c r="AD3" s="238"/>
-      <c r="AE3" s="238"/>
-      <c r="AF3" s="239"/>
-      <c r="AG3" s="425"/>
-      <c r="AH3" s="426"/>
-      <c r="AI3" s="427"/>
+      <c r="F3" s="252"/>
+      <c r="G3" s="252"/>
+      <c r="H3" s="252"/>
+      <c r="I3" s="252"/>
+      <c r="J3" s="252"/>
+      <c r="K3" s="252"/>
+      <c r="L3" s="252"/>
+      <c r="M3" s="252"/>
+      <c r="N3" s="253"/>
+      <c r="O3" s="248"/>
+      <c r="P3" s="249"/>
+      <c r="Q3" s="249"/>
+      <c r="R3" s="250"/>
+      <c r="S3" s="294"/>
+      <c r="T3" s="295"/>
+      <c r="U3" s="295"/>
+      <c r="V3" s="295"/>
+      <c r="W3" s="295"/>
+      <c r="X3" s="295"/>
+      <c r="Y3" s="295"/>
+      <c r="Z3" s="296"/>
+      <c r="AA3" s="239"/>
+      <c r="AB3" s="241"/>
+      <c r="AC3" s="279"/>
+      <c r="AD3" s="280"/>
+      <c r="AE3" s="280"/>
+      <c r="AF3" s="281"/>
+      <c r="AG3" s="282"/>
+      <c r="AH3" s="283"/>
+      <c r="AI3" s="284"/>
       <c r="AK3" s="170"/>
       <c r="AL3" s="170"/>
       <c r="AM3" s="170"/>
       <c r="AN3" s="170"/>
     </row>
     <row r="4" spans="1:40" s="66" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="AB4" s="432"/>
-      <c r="AC4" s="432"/>
-      <c r="AD4" s="433"/>
-      <c r="AE4" s="434"/>
-      <c r="AF4" s="434"/>
-      <c r="AG4" s="434"/>
-      <c r="AH4" s="432"/>
-      <c r="AI4" s="432"/>
-      <c r="AJ4" s="432"/>
+      <c r="AB4" s="221"/>
+      <c r="AC4" s="221"/>
+      <c r="AD4" s="222"/>
+      <c r="AE4" s="223"/>
+      <c r="AF4" s="223"/>
+      <c r="AG4" s="223"/>
+      <c r="AH4" s="221"/>
+      <c r="AI4" s="221"/>
+      <c r="AJ4" s="221"/>
     </row>
     <row r="5" spans="1:40" s="66" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="N5" s="435" t="s">
+      <c r="N5" s="224" t="s">
         <v>108</v>
       </c>
-      <c r="AB5" s="432"/>
-      <c r="AC5" s="432"/>
-      <c r="AD5" s="433"/>
-      <c r="AE5" s="434"/>
-      <c r="AF5" s="434"/>
-      <c r="AG5" s="434"/>
-      <c r="AH5" s="432"/>
-      <c r="AI5" s="432"/>
-      <c r="AJ5" s="432"/>
+      <c r="AB5" s="221"/>
+      <c r="AC5" s="221"/>
+      <c r="AD5" s="222"/>
+      <c r="AE5" s="223"/>
+      <c r="AF5" s="223"/>
+      <c r="AG5" s="223"/>
+      <c r="AH5" s="221"/>
+      <c r="AI5" s="221"/>
+      <c r="AJ5" s="221"/>
     </row>
     <row r="6" spans="1:40" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="N6" s="435"/>
-      <c r="AB6" s="432"/>
-      <c r="AC6" s="432"/>
-      <c r="AD6" s="433"/>
-      <c r="AE6" s="434"/>
-      <c r="AF6" s="434"/>
-      <c r="AG6" s="434"/>
-      <c r="AH6" s="432"/>
-      <c r="AI6" s="432"/>
-      <c r="AJ6" s="432"/>
+      <c r="N6" s="224"/>
+      <c r="AB6" s="221"/>
+      <c r="AC6" s="221"/>
+      <c r="AD6" s="222"/>
+      <c r="AE6" s="223"/>
+      <c r="AF6" s="223"/>
+      <c r="AG6" s="223"/>
+      <c r="AH6" s="221"/>
+      <c r="AI6" s="221"/>
+      <c r="AJ6" s="221"/>
     </row>
     <row r="7" spans="1:40" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="411" t="s">
+      <c r="A7" s="219" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="412" t="s">
+      <c r="B7" s="277" t="s">
         <v>100</v>
       </c>
-      <c r="C7" s="413"/>
-      <c r="D7" s="414" t="s">
+      <c r="C7" s="278"/>
+      <c r="D7" s="263" t="s">
         <v>101</v>
       </c>
-      <c r="E7" s="415"/>
-      <c r="F7" s="416"/>
-      <c r="G7" s="414" t="s">
+      <c r="E7" s="264"/>
+      <c r="F7" s="265"/>
+      <c r="G7" s="263" t="s">
         <v>102</v>
       </c>
-      <c r="H7" s="415"/>
-      <c r="I7" s="416"/>
-      <c r="J7" s="414" t="s">
+      <c r="H7" s="264"/>
+      <c r="I7" s="265"/>
+      <c r="J7" s="263" t="s">
         <v>103</v>
       </c>
-      <c r="K7" s="415"/>
-      <c r="L7" s="415"/>
-      <c r="M7" s="415"/>
-      <c r="N7" s="415"/>
-      <c r="O7" s="415"/>
-      <c r="P7" s="416"/>
-      <c r="Q7" s="414" t="s">
+      <c r="K7" s="264"/>
+      <c r="L7" s="264"/>
+      <c r="M7" s="264"/>
+      <c r="N7" s="264"/>
+      <c r="O7" s="264"/>
+      <c r="P7" s="265"/>
+      <c r="Q7" s="263" t="s">
         <v>104</v>
       </c>
-      <c r="R7" s="415"/>
-      <c r="S7" s="415"/>
-      <c r="T7" s="415"/>
-      <c r="U7" s="415"/>
-      <c r="V7" s="415"/>
-      <c r="W7" s="415"/>
-      <c r="X7" s="415"/>
-      <c r="Y7" s="415"/>
-      <c r="Z7" s="415"/>
-      <c r="AA7" s="415"/>
-      <c r="AB7" s="415"/>
-      <c r="AC7" s="415"/>
-      <c r="AD7" s="415"/>
-      <c r="AE7" s="416"/>
-      <c r="AF7" s="414" t="s">
+      <c r="R7" s="264"/>
+      <c r="S7" s="264"/>
+      <c r="T7" s="264"/>
+      <c r="U7" s="264"/>
+      <c r="V7" s="264"/>
+      <c r="W7" s="264"/>
+      <c r="X7" s="264"/>
+      <c r="Y7" s="264"/>
+      <c r="Z7" s="264"/>
+      <c r="AA7" s="264"/>
+      <c r="AB7" s="264"/>
+      <c r="AC7" s="264"/>
+      <c r="AD7" s="264"/>
+      <c r="AE7" s="265"/>
+      <c r="AF7" s="263" t="s">
         <v>105</v>
       </c>
-      <c r="AG7" s="415"/>
-      <c r="AH7" s="415"/>
-      <c r="AI7" s="416"/>
-      <c r="AJ7" s="436"/>
+      <c r="AG7" s="264"/>
+      <c r="AH7" s="264"/>
+      <c r="AI7" s="265"/>
+      <c r="AJ7" s="225"/>
     </row>
     <row r="8" spans="1:40" ht="22.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="437">
+      <c r="A8" s="226">
         <v>1</v>
       </c>
-      <c r="B8" s="417" t="s">
+      <c r="B8" s="266" t="s">
         <v>89</v>
       </c>
-      <c r="C8" s="418"/>
-      <c r="D8" s="438">
+      <c r="C8" s="267"/>
+      <c r="D8" s="268">
         <v>43718</v>
       </c>
-      <c r="E8" s="439"/>
-      <c r="F8" s="440"/>
-      <c r="G8" s="419" t="s">
+      <c r="E8" s="269"/>
+      <c r="F8" s="270"/>
+      <c r="G8" s="271" t="s">
         <v>106</v>
       </c>
-      <c r="H8" s="420"/>
-      <c r="I8" s="421"/>
-      <c r="J8" s="422" t="s">
+      <c r="H8" s="272"/>
+      <c r="I8" s="273"/>
+      <c r="J8" s="274" t="s">
         <v>1</v>
       </c>
-      <c r="K8" s="423"/>
-      <c r="L8" s="423"/>
-      <c r="M8" s="423"/>
-      <c r="N8" s="423"/>
-      <c r="O8" s="423"/>
-      <c r="P8" s="424"/>
-      <c r="Q8" s="422" t="s">
+      <c r="K8" s="275"/>
+      <c r="L8" s="275"/>
+      <c r="M8" s="275"/>
+      <c r="N8" s="275"/>
+      <c r="O8" s="275"/>
+      <c r="P8" s="276"/>
+      <c r="Q8" s="274" t="s">
         <v>107</v>
       </c>
-      <c r="R8" s="423"/>
-      <c r="S8" s="423"/>
-      <c r="T8" s="423"/>
-      <c r="U8" s="423"/>
-      <c r="V8" s="423"/>
-      <c r="W8" s="423"/>
-      <c r="X8" s="423"/>
-      <c r="Y8" s="423"/>
-      <c r="Z8" s="423"/>
-      <c r="AA8" s="423"/>
-      <c r="AB8" s="423"/>
-      <c r="AC8" s="423"/>
-      <c r="AD8" s="423"/>
-      <c r="AE8" s="424"/>
-      <c r="AF8" s="441" t="s">
+      <c r="R8" s="275"/>
+      <c r="S8" s="275"/>
+      <c r="T8" s="275"/>
+      <c r="U8" s="275"/>
+      <c r="V8" s="275"/>
+      <c r="W8" s="275"/>
+      <c r="X8" s="275"/>
+      <c r="Y8" s="275"/>
+      <c r="Z8" s="275"/>
+      <c r="AA8" s="275"/>
+      <c r="AB8" s="275"/>
+      <c r="AC8" s="275"/>
+      <c r="AD8" s="275"/>
+      <c r="AE8" s="276"/>
+      <c r="AF8" s="227" t="s">
         <v>2</v>
       </c>
-      <c r="AG8" s="442"/>
-      <c r="AH8" s="442"/>
-      <c r="AI8" s="443"/>
-      <c r="AJ8" s="436"/>
+      <c r="AG8" s="228"/>
+      <c r="AH8" s="228"/>
+      <c r="AI8" s="229"/>
+      <c r="AJ8" s="225"/>
     </row>
     <row r="9" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="37"/>
-      <c r="B9" s="444"/>
-      <c r="C9" s="445"/>
-      <c r="D9" s="446"/>
-      <c r="E9" s="447"/>
-      <c r="F9" s="448"/>
-      <c r="G9" s="444"/>
-      <c r="H9" s="449"/>
-      <c r="I9" s="445"/>
-      <c r="J9" s="450"/>
-      <c r="K9" s="295"/>
-      <c r="L9" s="295"/>
-      <c r="M9" s="295"/>
-      <c r="N9" s="295"/>
-      <c r="O9" s="295"/>
-      <c r="P9" s="296"/>
-      <c r="Q9" s="450"/>
-      <c r="R9" s="295"/>
-      <c r="S9" s="295"/>
-      <c r="T9" s="295"/>
-      <c r="U9" s="295"/>
-      <c r="V9" s="295"/>
-      <c r="W9" s="295"/>
-      <c r="X9" s="295"/>
-      <c r="Y9" s="295"/>
-      <c r="Z9" s="295"/>
-      <c r="AA9" s="295"/>
-      <c r="AB9" s="295"/>
-      <c r="AC9" s="295"/>
-      <c r="AD9" s="295"/>
-      <c r="AE9" s="296"/>
+      <c r="B9" s="254"/>
+      <c r="C9" s="255"/>
+      <c r="D9" s="256"/>
+      <c r="E9" s="257"/>
+      <c r="F9" s="258"/>
+      <c r="G9" s="254"/>
+      <c r="H9" s="259"/>
+      <c r="I9" s="255"/>
+      <c r="J9" s="260"/>
+      <c r="K9" s="261"/>
+      <c r="L9" s="261"/>
+      <c r="M9" s="261"/>
+      <c r="N9" s="261"/>
+      <c r="O9" s="261"/>
+      <c r="P9" s="262"/>
+      <c r="Q9" s="260"/>
+      <c r="R9" s="261"/>
+      <c r="S9" s="261"/>
+      <c r="T9" s="261"/>
+      <c r="U9" s="261"/>
+      <c r="V9" s="261"/>
+      <c r="W9" s="261"/>
+      <c r="X9" s="261"/>
+      <c r="Y9" s="261"/>
+      <c r="Z9" s="261"/>
+      <c r="AA9" s="261"/>
+      <c r="AB9" s="261"/>
+      <c r="AC9" s="261"/>
+      <c r="AD9" s="261"/>
+      <c r="AE9" s="262"/>
       <c r="AF9" s="216"/>
       <c r="AG9" s="217"/>
       <c r="AH9" s="217"/>
@@ -6910,36 +6910,36 @@
     </row>
     <row r="10" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="37"/>
-      <c r="B10" s="444"/>
-      <c r="C10" s="445"/>
-      <c r="D10" s="446"/>
-      <c r="E10" s="447"/>
-      <c r="F10" s="448"/>
-      <c r="G10" s="444"/>
-      <c r="H10" s="449"/>
-      <c r="I10" s="445"/>
-      <c r="J10" s="450"/>
-      <c r="K10" s="295"/>
-      <c r="L10" s="295"/>
-      <c r="M10" s="295"/>
-      <c r="N10" s="295"/>
-      <c r="O10" s="295"/>
-      <c r="P10" s="296"/>
-      <c r="Q10" s="450"/>
-      <c r="R10" s="295"/>
-      <c r="S10" s="295"/>
-      <c r="T10" s="295"/>
-      <c r="U10" s="295"/>
-      <c r="V10" s="295"/>
-      <c r="W10" s="295"/>
-      <c r="X10" s="295"/>
-      <c r="Y10" s="295"/>
-      <c r="Z10" s="295"/>
-      <c r="AA10" s="295"/>
-      <c r="AB10" s="295"/>
-      <c r="AC10" s="295"/>
-      <c r="AD10" s="295"/>
-      <c r="AE10" s="296"/>
+      <c r="B10" s="254"/>
+      <c r="C10" s="255"/>
+      <c r="D10" s="256"/>
+      <c r="E10" s="257"/>
+      <c r="F10" s="258"/>
+      <c r="G10" s="254"/>
+      <c r="H10" s="259"/>
+      <c r="I10" s="255"/>
+      <c r="J10" s="260"/>
+      <c r="K10" s="261"/>
+      <c r="L10" s="261"/>
+      <c r="M10" s="261"/>
+      <c r="N10" s="261"/>
+      <c r="O10" s="261"/>
+      <c r="P10" s="262"/>
+      <c r="Q10" s="260"/>
+      <c r="R10" s="261"/>
+      <c r="S10" s="261"/>
+      <c r="T10" s="261"/>
+      <c r="U10" s="261"/>
+      <c r="V10" s="261"/>
+      <c r="W10" s="261"/>
+      <c r="X10" s="261"/>
+      <c r="Y10" s="261"/>
+      <c r="Z10" s="261"/>
+      <c r="AA10" s="261"/>
+      <c r="AB10" s="261"/>
+      <c r="AC10" s="261"/>
+      <c r="AD10" s="261"/>
+      <c r="AE10" s="262"/>
       <c r="AF10" s="216"/>
       <c r="AG10" s="217"/>
       <c r="AH10" s="217"/>
@@ -6947,36 +6947,36 @@
     </row>
     <row r="11" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="37"/>
-      <c r="B11" s="444"/>
-      <c r="C11" s="445"/>
-      <c r="D11" s="446"/>
-      <c r="E11" s="447"/>
-      <c r="F11" s="448"/>
-      <c r="G11" s="444"/>
-      <c r="H11" s="449"/>
-      <c r="I11" s="445"/>
-      <c r="J11" s="450"/>
-      <c r="K11" s="295"/>
-      <c r="L11" s="295"/>
-      <c r="M11" s="295"/>
-      <c r="N11" s="295"/>
-      <c r="O11" s="295"/>
-      <c r="P11" s="296"/>
-      <c r="Q11" s="450"/>
-      <c r="R11" s="295"/>
-      <c r="S11" s="295"/>
-      <c r="T11" s="295"/>
-      <c r="U11" s="295"/>
-      <c r="V11" s="295"/>
-      <c r="W11" s="295"/>
-      <c r="X11" s="295"/>
-      <c r="Y11" s="295"/>
-      <c r="Z11" s="295"/>
-      <c r="AA11" s="295"/>
-      <c r="AB11" s="295"/>
-      <c r="AC11" s="295"/>
-      <c r="AD11" s="295"/>
-      <c r="AE11" s="296"/>
+      <c r="B11" s="254"/>
+      <c r="C11" s="255"/>
+      <c r="D11" s="256"/>
+      <c r="E11" s="257"/>
+      <c r="F11" s="258"/>
+      <c r="G11" s="254"/>
+      <c r="H11" s="259"/>
+      <c r="I11" s="255"/>
+      <c r="J11" s="260"/>
+      <c r="K11" s="261"/>
+      <c r="L11" s="261"/>
+      <c r="M11" s="261"/>
+      <c r="N11" s="261"/>
+      <c r="O11" s="261"/>
+      <c r="P11" s="262"/>
+      <c r="Q11" s="260"/>
+      <c r="R11" s="261"/>
+      <c r="S11" s="261"/>
+      <c r="T11" s="261"/>
+      <c r="U11" s="261"/>
+      <c r="V11" s="261"/>
+      <c r="W11" s="261"/>
+      <c r="X11" s="261"/>
+      <c r="Y11" s="261"/>
+      <c r="Z11" s="261"/>
+      <c r="AA11" s="261"/>
+      <c r="AB11" s="261"/>
+      <c r="AC11" s="261"/>
+      <c r="AD11" s="261"/>
+      <c r="AE11" s="262"/>
       <c r="AF11" s="216"/>
       <c r="AG11" s="217"/>
       <c r="AH11" s="217"/>
@@ -6984,36 +6984,36 @@
     </row>
     <row r="12" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="37"/>
-      <c r="B12" s="444"/>
-      <c r="C12" s="445"/>
-      <c r="D12" s="446"/>
-      <c r="E12" s="447"/>
-      <c r="F12" s="448"/>
-      <c r="G12" s="444"/>
-      <c r="H12" s="449"/>
-      <c r="I12" s="445"/>
-      <c r="J12" s="450"/>
-      <c r="K12" s="295"/>
-      <c r="L12" s="295"/>
-      <c r="M12" s="295"/>
-      <c r="N12" s="295"/>
-      <c r="O12" s="295"/>
-      <c r="P12" s="296"/>
-      <c r="Q12" s="450"/>
-      <c r="R12" s="295"/>
-      <c r="S12" s="295"/>
-      <c r="T12" s="295"/>
-      <c r="U12" s="295"/>
-      <c r="V12" s="295"/>
-      <c r="W12" s="295"/>
-      <c r="X12" s="295"/>
-      <c r="Y12" s="295"/>
-      <c r="Z12" s="295"/>
-      <c r="AA12" s="295"/>
-      <c r="AB12" s="295"/>
-      <c r="AC12" s="295"/>
-      <c r="AD12" s="295"/>
-      <c r="AE12" s="296"/>
+      <c r="B12" s="254"/>
+      <c r="C12" s="255"/>
+      <c r="D12" s="256"/>
+      <c r="E12" s="257"/>
+      <c r="F12" s="258"/>
+      <c r="G12" s="254"/>
+      <c r="H12" s="259"/>
+      <c r="I12" s="255"/>
+      <c r="J12" s="260"/>
+      <c r="K12" s="261"/>
+      <c r="L12" s="261"/>
+      <c r="M12" s="261"/>
+      <c r="N12" s="261"/>
+      <c r="O12" s="261"/>
+      <c r="P12" s="262"/>
+      <c r="Q12" s="260"/>
+      <c r="R12" s="261"/>
+      <c r="S12" s="261"/>
+      <c r="T12" s="261"/>
+      <c r="U12" s="261"/>
+      <c r="V12" s="261"/>
+      <c r="W12" s="261"/>
+      <c r="X12" s="261"/>
+      <c r="Y12" s="261"/>
+      <c r="Z12" s="261"/>
+      <c r="AA12" s="261"/>
+      <c r="AB12" s="261"/>
+      <c r="AC12" s="261"/>
+      <c r="AD12" s="261"/>
+      <c r="AE12" s="262"/>
       <c r="AF12" s="216"/>
       <c r="AG12" s="217"/>
       <c r="AH12" s="217"/>
@@ -7021,36 +7021,36 @@
     </row>
     <row r="13" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="37"/>
-      <c r="B13" s="444"/>
-      <c r="C13" s="445"/>
-      <c r="D13" s="446"/>
-      <c r="E13" s="447"/>
-      <c r="F13" s="448"/>
-      <c r="G13" s="444"/>
-      <c r="H13" s="449"/>
-      <c r="I13" s="445"/>
-      <c r="J13" s="450"/>
-      <c r="K13" s="295"/>
-      <c r="L13" s="295"/>
-      <c r="M13" s="295"/>
-      <c r="N13" s="295"/>
-      <c r="O13" s="295"/>
-      <c r="P13" s="296"/>
-      <c r="Q13" s="450"/>
-      <c r="R13" s="295"/>
-      <c r="S13" s="295"/>
-      <c r="T13" s="295"/>
-      <c r="U13" s="295"/>
-      <c r="V13" s="295"/>
-      <c r="W13" s="295"/>
-      <c r="X13" s="295"/>
-      <c r="Y13" s="295"/>
-      <c r="Z13" s="295"/>
-      <c r="AA13" s="295"/>
-      <c r="AB13" s="295"/>
-      <c r="AC13" s="295"/>
-      <c r="AD13" s="295"/>
-      <c r="AE13" s="296"/>
+      <c r="B13" s="254"/>
+      <c r="C13" s="255"/>
+      <c r="D13" s="256"/>
+      <c r="E13" s="257"/>
+      <c r="F13" s="258"/>
+      <c r="G13" s="254"/>
+      <c r="H13" s="259"/>
+      <c r="I13" s="255"/>
+      <c r="J13" s="260"/>
+      <c r="K13" s="261"/>
+      <c r="L13" s="261"/>
+      <c r="M13" s="261"/>
+      <c r="N13" s="261"/>
+      <c r="O13" s="261"/>
+      <c r="P13" s="262"/>
+      <c r="Q13" s="260"/>
+      <c r="R13" s="261"/>
+      <c r="S13" s="261"/>
+      <c r="T13" s="261"/>
+      <c r="U13" s="261"/>
+      <c r="V13" s="261"/>
+      <c r="W13" s="261"/>
+      <c r="X13" s="261"/>
+      <c r="Y13" s="261"/>
+      <c r="Z13" s="261"/>
+      <c r="AA13" s="261"/>
+      <c r="AB13" s="261"/>
+      <c r="AC13" s="261"/>
+      <c r="AD13" s="261"/>
+      <c r="AE13" s="262"/>
       <c r="AF13" s="216"/>
       <c r="AG13" s="217"/>
       <c r="AH13" s="217"/>
@@ -7058,14 +7058,14 @@
     </row>
     <row r="14" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="37"/>
-      <c r="B14" s="451"/>
-      <c r="C14" s="452"/>
-      <c r="D14" s="453"/>
-      <c r="E14" s="454"/>
-      <c r="F14" s="455"/>
-      <c r="G14" s="451"/>
-      <c r="H14" s="456"/>
-      <c r="I14" s="452"/>
+      <c r="B14" s="230"/>
+      <c r="C14" s="231"/>
+      <c r="D14" s="232"/>
+      <c r="E14" s="233"/>
+      <c r="F14" s="234"/>
+      <c r="G14" s="230"/>
+      <c r="H14" s="235"/>
+      <c r="I14" s="231"/>
       <c r="J14" s="216"/>
       <c r="K14" s="217"/>
       <c r="L14" s="217"/>
@@ -7073,7 +7073,7 @@
       <c r="N14" s="217"/>
       <c r="O14" s="217"/>
       <c r="P14" s="218"/>
-      <c r="Q14" s="457"/>
+      <c r="Q14" s="236"/>
       <c r="R14" s="214"/>
       <c r="S14" s="214"/>
       <c r="T14" s="214"/>
@@ -7095,14 +7095,14 @@
     </row>
     <row r="15" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="37"/>
-      <c r="B15" s="451"/>
-      <c r="C15" s="452"/>
-      <c r="D15" s="453"/>
-      <c r="E15" s="454"/>
-      <c r="F15" s="455"/>
-      <c r="G15" s="451"/>
-      <c r="H15" s="456"/>
-      <c r="I15" s="452"/>
+      <c r="B15" s="230"/>
+      <c r="C15" s="231"/>
+      <c r="D15" s="232"/>
+      <c r="E15" s="233"/>
+      <c r="F15" s="234"/>
+      <c r="G15" s="230"/>
+      <c r="H15" s="235"/>
+      <c r="I15" s="231"/>
       <c r="J15" s="216"/>
       <c r="K15" s="217"/>
       <c r="L15" s="217"/>
@@ -7110,7 +7110,7 @@
       <c r="N15" s="217"/>
       <c r="O15" s="217"/>
       <c r="P15" s="218"/>
-      <c r="Q15" s="457"/>
+      <c r="Q15" s="236"/>
       <c r="R15" s="214"/>
       <c r="S15" s="214"/>
       <c r="T15" s="214"/>
@@ -7132,14 +7132,14 @@
     </row>
     <row r="16" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="37"/>
-      <c r="B16" s="451"/>
-      <c r="C16" s="452"/>
-      <c r="D16" s="453"/>
-      <c r="E16" s="454"/>
-      <c r="F16" s="455"/>
-      <c r="G16" s="451"/>
-      <c r="H16" s="456"/>
-      <c r="I16" s="452"/>
+      <c r="B16" s="230"/>
+      <c r="C16" s="231"/>
+      <c r="D16" s="232"/>
+      <c r="E16" s="233"/>
+      <c r="F16" s="234"/>
+      <c r="G16" s="230"/>
+      <c r="H16" s="235"/>
+      <c r="I16" s="231"/>
       <c r="J16" s="216"/>
       <c r="K16" s="217"/>
       <c r="L16" s="217"/>
@@ -7147,7 +7147,7 @@
       <c r="N16" s="217"/>
       <c r="O16" s="217"/>
       <c r="P16" s="218"/>
-      <c r="Q16" s="457"/>
+      <c r="Q16" s="236"/>
       <c r="R16" s="214"/>
       <c r="S16" s="214"/>
       <c r="T16" s="214"/>
@@ -7169,14 +7169,14 @@
     </row>
     <row r="17" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="37"/>
-      <c r="B17" s="451"/>
-      <c r="C17" s="452"/>
-      <c r="D17" s="453"/>
-      <c r="E17" s="454"/>
-      <c r="F17" s="455"/>
-      <c r="G17" s="451"/>
-      <c r="H17" s="456"/>
-      <c r="I17" s="452"/>
+      <c r="B17" s="230"/>
+      <c r="C17" s="231"/>
+      <c r="D17" s="232"/>
+      <c r="E17" s="233"/>
+      <c r="F17" s="234"/>
+      <c r="G17" s="230"/>
+      <c r="H17" s="235"/>
+      <c r="I17" s="231"/>
       <c r="J17" s="216"/>
       <c r="K17" s="217"/>
       <c r="L17" s="217"/>
@@ -7184,7 +7184,7 @@
       <c r="N17" s="217"/>
       <c r="O17" s="217"/>
       <c r="P17" s="218"/>
-      <c r="Q17" s="457"/>
+      <c r="Q17" s="236"/>
       <c r="R17" s="214"/>
       <c r="S17" s="214"/>
       <c r="T17" s="214"/>
@@ -7206,14 +7206,14 @@
     </row>
     <row r="18" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="37"/>
-      <c r="B18" s="451"/>
-      <c r="C18" s="452"/>
-      <c r="D18" s="453"/>
-      <c r="E18" s="454"/>
-      <c r="F18" s="455"/>
-      <c r="G18" s="451"/>
-      <c r="H18" s="456"/>
-      <c r="I18" s="452"/>
+      <c r="B18" s="230"/>
+      <c r="C18" s="231"/>
+      <c r="D18" s="232"/>
+      <c r="E18" s="233"/>
+      <c r="F18" s="234"/>
+      <c r="G18" s="230"/>
+      <c r="H18" s="235"/>
+      <c r="I18" s="231"/>
       <c r="J18" s="216"/>
       <c r="K18" s="217"/>
       <c r="L18" s="217"/>
@@ -7221,7 +7221,7 @@
       <c r="N18" s="217"/>
       <c r="O18" s="217"/>
       <c r="P18" s="218"/>
-      <c r="Q18" s="457"/>
+      <c r="Q18" s="236"/>
       <c r="R18" s="214"/>
       <c r="S18" s="214"/>
       <c r="T18" s="214"/>
@@ -7243,14 +7243,14 @@
     </row>
     <row r="19" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="37"/>
-      <c r="B19" s="451"/>
-      <c r="C19" s="452"/>
-      <c r="D19" s="453"/>
-      <c r="E19" s="454"/>
-      <c r="F19" s="455"/>
-      <c r="G19" s="451"/>
-      <c r="H19" s="456"/>
-      <c r="I19" s="452"/>
+      <c r="B19" s="230"/>
+      <c r="C19" s="231"/>
+      <c r="D19" s="232"/>
+      <c r="E19" s="233"/>
+      <c r="F19" s="234"/>
+      <c r="G19" s="230"/>
+      <c r="H19" s="235"/>
+      <c r="I19" s="231"/>
       <c r="J19" s="216"/>
       <c r="K19" s="217"/>
       <c r="L19" s="217"/>
@@ -7258,7 +7258,7 @@
       <c r="N19" s="217"/>
       <c r="O19" s="217"/>
       <c r="P19" s="218"/>
-      <c r="Q19" s="457"/>
+      <c r="Q19" s="236"/>
       <c r="R19" s="214"/>
       <c r="S19" s="214"/>
       <c r="T19" s="214"/>
@@ -7280,14 +7280,14 @@
     </row>
     <row r="20" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="37"/>
-      <c r="B20" s="451"/>
-      <c r="C20" s="452"/>
-      <c r="D20" s="453"/>
-      <c r="E20" s="454"/>
-      <c r="F20" s="455"/>
-      <c r="G20" s="451"/>
-      <c r="H20" s="456"/>
-      <c r="I20" s="452"/>
+      <c r="B20" s="230"/>
+      <c r="C20" s="231"/>
+      <c r="D20" s="232"/>
+      <c r="E20" s="233"/>
+      <c r="F20" s="234"/>
+      <c r="G20" s="230"/>
+      <c r="H20" s="235"/>
+      <c r="I20" s="231"/>
       <c r="J20" s="216"/>
       <c r="K20" s="217"/>
       <c r="L20" s="217"/>
@@ -7295,7 +7295,7 @@
       <c r="N20" s="217"/>
       <c r="O20" s="217"/>
       <c r="P20" s="218"/>
-      <c r="Q20" s="457"/>
+      <c r="Q20" s="236"/>
       <c r="R20" s="214"/>
       <c r="S20" s="214"/>
       <c r="T20" s="214"/>
@@ -7317,14 +7317,14 @@
     </row>
     <row r="21" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="37"/>
-      <c r="B21" s="451"/>
-      <c r="C21" s="452"/>
-      <c r="D21" s="453"/>
-      <c r="E21" s="454"/>
-      <c r="F21" s="455"/>
-      <c r="G21" s="451"/>
-      <c r="H21" s="456"/>
-      <c r="I21" s="452"/>
+      <c r="B21" s="230"/>
+      <c r="C21" s="231"/>
+      <c r="D21" s="232"/>
+      <c r="E21" s="233"/>
+      <c r="F21" s="234"/>
+      <c r="G21" s="230"/>
+      <c r="H21" s="235"/>
+      <c r="I21" s="231"/>
       <c r="J21" s="216"/>
       <c r="K21" s="217"/>
       <c r="L21" s="217"/>
@@ -7332,7 +7332,7 @@
       <c r="N21" s="217"/>
       <c r="O21" s="217"/>
       <c r="P21" s="218"/>
-      <c r="Q21" s="457"/>
+      <c r="Q21" s="236"/>
       <c r="R21" s="214"/>
       <c r="S21" s="214"/>
       <c r="T21" s="214"/>
@@ -7354,14 +7354,14 @@
     </row>
     <row r="22" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="37"/>
-      <c r="B22" s="451"/>
-      <c r="C22" s="452"/>
-      <c r="D22" s="453"/>
-      <c r="E22" s="454"/>
-      <c r="F22" s="455"/>
-      <c r="G22" s="451"/>
-      <c r="H22" s="456"/>
-      <c r="I22" s="452"/>
+      <c r="B22" s="230"/>
+      <c r="C22" s="231"/>
+      <c r="D22" s="232"/>
+      <c r="E22" s="233"/>
+      <c r="F22" s="234"/>
+      <c r="G22" s="230"/>
+      <c r="H22" s="235"/>
+      <c r="I22" s="231"/>
       <c r="J22" s="216"/>
       <c r="K22" s="217"/>
       <c r="L22" s="217"/>
@@ -7369,7 +7369,7 @@
       <c r="N22" s="217"/>
       <c r="O22" s="217"/>
       <c r="P22" s="218"/>
-      <c r="Q22" s="457"/>
+      <c r="Q22" s="236"/>
       <c r="R22" s="214"/>
       <c r="S22" s="214"/>
       <c r="T22" s="214"/>
@@ -7391,14 +7391,14 @@
     </row>
     <row r="23" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="37"/>
-      <c r="B23" s="451"/>
-      <c r="C23" s="452"/>
-      <c r="D23" s="453"/>
-      <c r="E23" s="454"/>
-      <c r="F23" s="455"/>
-      <c r="G23" s="451"/>
-      <c r="H23" s="456"/>
-      <c r="I23" s="452"/>
+      <c r="B23" s="230"/>
+      <c r="C23" s="231"/>
+      <c r="D23" s="232"/>
+      <c r="E23" s="233"/>
+      <c r="F23" s="234"/>
+      <c r="G23" s="230"/>
+      <c r="H23" s="235"/>
+      <c r="I23" s="231"/>
       <c r="J23" s="216"/>
       <c r="K23" s="217"/>
       <c r="L23" s="217"/>
@@ -7406,7 +7406,7 @@
       <c r="N23" s="217"/>
       <c r="O23" s="217"/>
       <c r="P23" s="218"/>
-      <c r="Q23" s="457"/>
+      <c r="Q23" s="236"/>
       <c r="R23" s="214"/>
       <c r="S23" s="214"/>
       <c r="T23" s="214"/>
@@ -7428,14 +7428,14 @@
     </row>
     <row r="24" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="37"/>
-      <c r="B24" s="451"/>
-      <c r="C24" s="452"/>
-      <c r="D24" s="453"/>
-      <c r="E24" s="454"/>
-      <c r="F24" s="455"/>
-      <c r="G24" s="451"/>
-      <c r="H24" s="456"/>
-      <c r="I24" s="452"/>
+      <c r="B24" s="230"/>
+      <c r="C24" s="231"/>
+      <c r="D24" s="232"/>
+      <c r="E24" s="233"/>
+      <c r="F24" s="234"/>
+      <c r="G24" s="230"/>
+      <c r="H24" s="235"/>
+      <c r="I24" s="231"/>
       <c r="J24" s="216"/>
       <c r="K24" s="217"/>
       <c r="L24" s="217"/>
@@ -7443,7 +7443,7 @@
       <c r="N24" s="217"/>
       <c r="O24" s="217"/>
       <c r="P24" s="218"/>
-      <c r="Q24" s="457"/>
+      <c r="Q24" s="236"/>
       <c r="R24" s="214"/>
       <c r="S24" s="214"/>
       <c r="T24" s="214"/>
@@ -7465,14 +7465,14 @@
     </row>
     <row r="25" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="37"/>
-      <c r="B25" s="451"/>
-      <c r="C25" s="452"/>
-      <c r="D25" s="453"/>
-      <c r="E25" s="454"/>
-      <c r="F25" s="455"/>
-      <c r="G25" s="451"/>
-      <c r="H25" s="456"/>
-      <c r="I25" s="452"/>
+      <c r="B25" s="230"/>
+      <c r="C25" s="231"/>
+      <c r="D25" s="232"/>
+      <c r="E25" s="233"/>
+      <c r="F25" s="234"/>
+      <c r="G25" s="230"/>
+      <c r="H25" s="235"/>
+      <c r="I25" s="231"/>
       <c r="J25" s="216"/>
       <c r="K25" s="217"/>
       <c r="L25" s="217"/>
@@ -7480,7 +7480,7 @@
       <c r="N25" s="217"/>
       <c r="O25" s="217"/>
       <c r="P25" s="218"/>
-      <c r="Q25" s="457"/>
+      <c r="Q25" s="236"/>
       <c r="R25" s="214"/>
       <c r="S25" s="214"/>
       <c r="T25" s="214"/>
@@ -7502,14 +7502,14 @@
     </row>
     <row r="26" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="37"/>
-      <c r="B26" s="451"/>
-      <c r="C26" s="452"/>
-      <c r="D26" s="453"/>
-      <c r="E26" s="454"/>
-      <c r="F26" s="455"/>
-      <c r="G26" s="451"/>
-      <c r="H26" s="456"/>
-      <c r="I26" s="452"/>
+      <c r="B26" s="230"/>
+      <c r="C26" s="231"/>
+      <c r="D26" s="232"/>
+      <c r="E26" s="233"/>
+      <c r="F26" s="234"/>
+      <c r="G26" s="230"/>
+      <c r="H26" s="235"/>
+      <c r="I26" s="231"/>
       <c r="J26" s="216"/>
       <c r="K26" s="217"/>
       <c r="L26" s="217"/>
@@ -7517,7 +7517,7 @@
       <c r="N26" s="217"/>
       <c r="O26" s="217"/>
       <c r="P26" s="218"/>
-      <c r="Q26" s="457"/>
+      <c r="Q26" s="236"/>
       <c r="R26" s="214"/>
       <c r="S26" s="214"/>
       <c r="T26" s="214"/>
@@ -7539,14 +7539,14 @@
     </row>
     <row r="27" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="37"/>
-      <c r="B27" s="451"/>
-      <c r="C27" s="452"/>
-      <c r="D27" s="453"/>
-      <c r="E27" s="454"/>
-      <c r="F27" s="455"/>
-      <c r="G27" s="451"/>
-      <c r="H27" s="456"/>
-      <c r="I27" s="452"/>
+      <c r="B27" s="230"/>
+      <c r="C27" s="231"/>
+      <c r="D27" s="232"/>
+      <c r="E27" s="233"/>
+      <c r="F27" s="234"/>
+      <c r="G27" s="230"/>
+      <c r="H27" s="235"/>
+      <c r="I27" s="231"/>
       <c r="J27" s="216"/>
       <c r="K27" s="217"/>
       <c r="L27" s="217"/>
@@ -7554,7 +7554,7 @@
       <c r="N27" s="217"/>
       <c r="O27" s="217"/>
       <c r="P27" s="218"/>
-      <c r="Q27" s="457"/>
+      <c r="Q27" s="236"/>
       <c r="R27" s="214"/>
       <c r="S27" s="214"/>
       <c r="T27" s="214"/>
@@ -7576,14 +7576,14 @@
     </row>
     <row r="28" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="37"/>
-      <c r="B28" s="451"/>
-      <c r="C28" s="452"/>
-      <c r="D28" s="453"/>
-      <c r="E28" s="454"/>
-      <c r="F28" s="455"/>
-      <c r="G28" s="451"/>
-      <c r="H28" s="456"/>
-      <c r="I28" s="452"/>
+      <c r="B28" s="230"/>
+      <c r="C28" s="231"/>
+      <c r="D28" s="232"/>
+      <c r="E28" s="233"/>
+      <c r="F28" s="234"/>
+      <c r="G28" s="230"/>
+      <c r="H28" s="235"/>
+      <c r="I28" s="231"/>
       <c r="J28" s="216"/>
       <c r="K28" s="217"/>
       <c r="L28" s="217"/>
@@ -7591,7 +7591,7 @@
       <c r="N28" s="217"/>
       <c r="O28" s="217"/>
       <c r="P28" s="218"/>
-      <c r="Q28" s="457"/>
+      <c r="Q28" s="236"/>
       <c r="R28" s="214"/>
       <c r="S28" s="214"/>
       <c r="T28" s="214"/>
@@ -7613,14 +7613,14 @@
     </row>
     <row r="29" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="37"/>
-      <c r="B29" s="451"/>
-      <c r="C29" s="452"/>
-      <c r="D29" s="453"/>
-      <c r="E29" s="454"/>
-      <c r="F29" s="455"/>
-      <c r="G29" s="451"/>
-      <c r="H29" s="456"/>
-      <c r="I29" s="452"/>
+      <c r="B29" s="230"/>
+      <c r="C29" s="231"/>
+      <c r="D29" s="232"/>
+      <c r="E29" s="233"/>
+      <c r="F29" s="234"/>
+      <c r="G29" s="230"/>
+      <c r="H29" s="235"/>
+      <c r="I29" s="231"/>
       <c r="J29" s="216"/>
       <c r="K29" s="217"/>
       <c r="L29" s="217"/>
@@ -7628,7 +7628,7 @@
       <c r="N29" s="217"/>
       <c r="O29" s="217"/>
       <c r="P29" s="218"/>
-      <c r="Q29" s="457"/>
+      <c r="Q29" s="236"/>
       <c r="R29" s="214"/>
       <c r="S29" s="214"/>
       <c r="T29" s="214"/>
@@ -7650,14 +7650,14 @@
     </row>
     <row r="30" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="37"/>
-      <c r="B30" s="451"/>
-      <c r="C30" s="452"/>
-      <c r="D30" s="453"/>
-      <c r="E30" s="454"/>
-      <c r="F30" s="455"/>
-      <c r="G30" s="451"/>
-      <c r="H30" s="456"/>
-      <c r="I30" s="452"/>
+      <c r="B30" s="230"/>
+      <c r="C30" s="231"/>
+      <c r="D30" s="232"/>
+      <c r="E30" s="233"/>
+      <c r="F30" s="234"/>
+      <c r="G30" s="230"/>
+      <c r="H30" s="235"/>
+      <c r="I30" s="231"/>
       <c r="J30" s="216"/>
       <c r="K30" s="217"/>
       <c r="L30" s="217"/>
@@ -7665,7 +7665,7 @@
       <c r="N30" s="217"/>
       <c r="O30" s="217"/>
       <c r="P30" s="218"/>
-      <c r="Q30" s="457"/>
+      <c r="Q30" s="236"/>
       <c r="R30" s="214"/>
       <c r="S30" s="214"/>
       <c r="T30" s="214"/>
@@ -7687,14 +7687,14 @@
     </row>
     <row r="31" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="37"/>
-      <c r="B31" s="451"/>
-      <c r="C31" s="452"/>
-      <c r="D31" s="453"/>
-      <c r="E31" s="454"/>
-      <c r="F31" s="455"/>
-      <c r="G31" s="451"/>
-      <c r="H31" s="456"/>
-      <c r="I31" s="452"/>
+      <c r="B31" s="230"/>
+      <c r="C31" s="231"/>
+      <c r="D31" s="232"/>
+      <c r="E31" s="233"/>
+      <c r="F31" s="234"/>
+      <c r="G31" s="230"/>
+      <c r="H31" s="235"/>
+      <c r="I31" s="231"/>
       <c r="J31" s="216"/>
       <c r="K31" s="217"/>
       <c r="L31" s="217"/>
@@ -7702,7 +7702,7 @@
       <c r="N31" s="217"/>
       <c r="O31" s="217"/>
       <c r="P31" s="218"/>
-      <c r="Q31" s="457"/>
+      <c r="Q31" s="236"/>
       <c r="R31" s="214"/>
       <c r="S31" s="214"/>
       <c r="T31" s="214"/>
@@ -7724,14 +7724,14 @@
     </row>
     <row r="32" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="37"/>
-      <c r="B32" s="451"/>
-      <c r="C32" s="452"/>
-      <c r="D32" s="453"/>
-      <c r="E32" s="454"/>
-      <c r="F32" s="455"/>
-      <c r="G32" s="451"/>
-      <c r="H32" s="456"/>
-      <c r="I32" s="452"/>
+      <c r="B32" s="230"/>
+      <c r="C32" s="231"/>
+      <c r="D32" s="232"/>
+      <c r="E32" s="233"/>
+      <c r="F32" s="234"/>
+      <c r="G32" s="230"/>
+      <c r="H32" s="235"/>
+      <c r="I32" s="231"/>
       <c r="J32" s="216"/>
       <c r="K32" s="217"/>
       <c r="L32" s="217"/>
@@ -7739,7 +7739,7 @@
       <c r="N32" s="217"/>
       <c r="O32" s="217"/>
       <c r="P32" s="218"/>
-      <c r="Q32" s="457"/>
+      <c r="Q32" s="236"/>
       <c r="R32" s="214"/>
       <c r="S32" s="214"/>
       <c r="T32" s="214"/>
@@ -7761,14 +7761,14 @@
     </row>
     <row r="33" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="37"/>
-      <c r="B33" s="451"/>
-      <c r="C33" s="452"/>
-      <c r="D33" s="453"/>
-      <c r="E33" s="454"/>
-      <c r="F33" s="455"/>
-      <c r="G33" s="451"/>
-      <c r="H33" s="456"/>
-      <c r="I33" s="452"/>
+      <c r="B33" s="230"/>
+      <c r="C33" s="231"/>
+      <c r="D33" s="232"/>
+      <c r="E33" s="233"/>
+      <c r="F33" s="234"/>
+      <c r="G33" s="230"/>
+      <c r="H33" s="235"/>
+      <c r="I33" s="231"/>
       <c r="J33" s="216"/>
       <c r="K33" s="217"/>
       <c r="L33" s="217"/>
@@ -7776,7 +7776,7 @@
       <c r="N33" s="217"/>
       <c r="O33" s="217"/>
       <c r="P33" s="218"/>
-      <c r="Q33" s="457"/>
+      <c r="Q33" s="236"/>
       <c r="R33" s="214"/>
       <c r="S33" s="214"/>
       <c r="T33" s="214"/>
@@ -7798,35 +7798,14 @@
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="AF7:AI7"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="D9:F9"/>
@@ -7843,14 +7822,35 @@
     <mergeCell ref="G7:I7"/>
     <mergeCell ref="J7:P7"/>
     <mergeCell ref="Q7:AE7"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="E1:N1"/>
   </mergeCells>
   <phoneticPr fontId="12"/>
   <printOptions horizontalCentered="1"/>
@@ -8006,163 +8006,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="80" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="220" t="str">
+      <c r="A1" s="303" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!A1")&lt;&gt;"",INDIRECT("'Revision history'!A1"),"")</f>
         <v>Project name</v>
       </c>
-      <c r="B1" s="221"/>
-      <c r="C1" s="221"/>
-      <c r="D1" s="222"/>
-      <c r="E1" s="223" t="str">
+      <c r="B1" s="305"/>
+      <c r="C1" s="305"/>
+      <c r="D1" s="304"/>
+      <c r="E1" s="251" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E1")&lt;&gt;"",INDIRECT("'Revision history'!E1"),"")</f>
         <v>Sample Project</v>
       </c>
-      <c r="F1" s="224"/>
-      <c r="G1" s="224"/>
-      <c r="H1" s="224"/>
-      <c r="I1" s="224"/>
-      <c r="J1" s="224"/>
-      <c r="K1" s="224"/>
-      <c r="L1" s="224"/>
-      <c r="M1" s="224"/>
-      <c r="N1" s="225"/>
-      <c r="O1" s="226" t="str">
+      <c r="F1" s="252"/>
+      <c r="G1" s="252"/>
+      <c r="H1" s="252"/>
+      <c r="I1" s="252"/>
+      <c r="J1" s="252"/>
+      <c r="K1" s="252"/>
+      <c r="L1" s="252"/>
+      <c r="M1" s="252"/>
+      <c r="N1" s="253"/>
+      <c r="O1" s="306" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!O1")&lt;&gt;"",INDIRECT("'Revision history'!O1"),"")</f>
         <v>Deliverable name</v>
       </c>
-      <c r="P1" s="227"/>
-      <c r="Q1" s="227"/>
-      <c r="R1" s="228"/>
-      <c r="S1" s="396" t="str">
+      <c r="P1" s="307"/>
+      <c r="Q1" s="307"/>
+      <c r="R1" s="308"/>
+      <c r="S1" s="288" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!S1")&lt;&gt;"",INDIRECT("'Revision history'!S1"),"")</f>
         <v>External Interface Design Document(JSON)</v>
       </c>
-      <c r="T1" s="397"/>
-      <c r="U1" s="397"/>
-      <c r="V1" s="397"/>
-      <c r="W1" s="397"/>
-      <c r="X1" s="397"/>
-      <c r="Y1" s="397"/>
-      <c r="Z1" s="398"/>
-      <c r="AA1" s="220" t="str">
+      <c r="T1" s="289"/>
+      <c r="U1" s="289"/>
+      <c r="V1" s="289"/>
+      <c r="W1" s="289"/>
+      <c r="X1" s="289"/>
+      <c r="Y1" s="289"/>
+      <c r="Z1" s="290"/>
+      <c r="AA1" s="303" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AA1")&lt;&gt;"",INDIRECT("'Revision history'!AA1"),"")</f>
         <v>Prepared by</v>
       </c>
-      <c r="AB1" s="222"/>
-      <c r="AC1" s="459" t="str">
+      <c r="AB1" s="304"/>
+      <c r="AC1" s="300" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC1")&lt;&gt;"",INDIRECT("'Revision history'!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="460"/>
-      <c r="AE1" s="460"/>
-      <c r="AF1" s="461"/>
-      <c r="AG1" s="234">
+      <c r="AD1" s="301"/>
+      <c r="AE1" s="301"/>
+      <c r="AF1" s="302"/>
+      <c r="AG1" s="297">
         <f ca="1">IF(INDIRECT("'Revision history'!AG1")&lt;&gt;"",INDIRECT("'Revision history'!AG1"),"")</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="235"/>
-      <c r="AI1" s="236"/>
+      <c r="AH1" s="298"/>
+      <c r="AI1" s="299"/>
     </row>
     <row r="2" spans="1:35" s="80" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="220" t="str">
+      <c r="A2" s="303" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!A2")&lt;&gt;"",INDIRECT("'Revision history'!A2"),"")</f>
         <v>System name</v>
       </c>
-      <c r="B2" s="221"/>
-      <c r="C2" s="221"/>
-      <c r="D2" s="222"/>
-      <c r="E2" s="223" t="str">
+      <c r="B2" s="305"/>
+      <c r="C2" s="305"/>
+      <c r="D2" s="304"/>
+      <c r="E2" s="251" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E2")&lt;&gt;"",INDIRECT("'Revision history'!E2"),"")</f>
         <v>Sample System</v>
       </c>
-      <c r="F2" s="224"/>
-      <c r="G2" s="224"/>
-      <c r="H2" s="224"/>
-      <c r="I2" s="224"/>
-      <c r="J2" s="224"/>
-      <c r="K2" s="224"/>
-      <c r="L2" s="224"/>
-      <c r="M2" s="224"/>
-      <c r="N2" s="225"/>
-      <c r="O2" s="229"/>
-      <c r="P2" s="462"/>
-      <c r="Q2" s="462"/>
-      <c r="R2" s="230"/>
-      <c r="S2" s="402"/>
-      <c r="T2" s="403"/>
-      <c r="U2" s="403"/>
-      <c r="V2" s="403"/>
-      <c r="W2" s="403"/>
-      <c r="X2" s="403"/>
-      <c r="Y2" s="403"/>
-      <c r="Z2" s="404"/>
-      <c r="AA2" s="220" t="str">
+      <c r="F2" s="252"/>
+      <c r="G2" s="252"/>
+      <c r="H2" s="252"/>
+      <c r="I2" s="252"/>
+      <c r="J2" s="252"/>
+      <c r="K2" s="252"/>
+      <c r="L2" s="252"/>
+      <c r="M2" s="252"/>
+      <c r="N2" s="253"/>
+      <c r="O2" s="309"/>
+      <c r="P2" s="310"/>
+      <c r="Q2" s="310"/>
+      <c r="R2" s="311"/>
+      <c r="S2" s="291"/>
+      <c r="T2" s="292"/>
+      <c r="U2" s="292"/>
+      <c r="V2" s="292"/>
+      <c r="W2" s="292"/>
+      <c r="X2" s="292"/>
+      <c r="Y2" s="292"/>
+      <c r="Z2" s="293"/>
+      <c r="AA2" s="303" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AA2")&lt;&gt;"",INDIRECT("'Revision history'!AA2"),"")</f>
         <v>Changes</v>
       </c>
-      <c r="AB2" s="222"/>
-      <c r="AC2" s="459" t="str">
+      <c r="AB2" s="304"/>
+      <c r="AC2" s="300" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC2")&lt;&gt;"",INDIRECT("'Revision history'!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="460"/>
-      <c r="AE2" s="460"/>
-      <c r="AF2" s="461"/>
-      <c r="AG2" s="234" t="str">
+      <c r="AD2" s="301"/>
+      <c r="AE2" s="301"/>
+      <c r="AF2" s="302"/>
+      <c r="AG2" s="297" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AG2")&lt;&gt;"",INDIRECT("'Revision history'!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="235"/>
-      <c r="AI2" s="236"/>
+      <c r="AH2" s="298"/>
+      <c r="AI2" s="299"/>
     </row>
     <row r="3" spans="1:35" s="80" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="220" t="str">
+      <c r="A3" s="303" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!A3")&lt;&gt;"",INDIRECT("'Revision history'!A3"),"")</f>
         <v>Sub-system name</v>
       </c>
-      <c r="B3" s="221"/>
-      <c r="C3" s="221"/>
-      <c r="D3" s="222"/>
-      <c r="E3" s="223" t="str">
+      <c r="B3" s="305"/>
+      <c r="C3" s="305"/>
+      <c r="D3" s="304"/>
+      <c r="E3" s="251" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E3")&lt;&gt;"",INDIRECT("'Revision history'!E3"),"")</f>
         <v>Client Management System</v>
       </c>
-      <c r="F3" s="224"/>
-      <c r="G3" s="224"/>
-      <c r="H3" s="224"/>
-      <c r="I3" s="224"/>
-      <c r="J3" s="224"/>
-      <c r="K3" s="224"/>
-      <c r="L3" s="224"/>
-      <c r="M3" s="224"/>
-      <c r="N3" s="225"/>
-      <c r="O3" s="231"/>
-      <c r="P3" s="232"/>
-      <c r="Q3" s="232"/>
-      <c r="R3" s="233"/>
-      <c r="S3" s="408"/>
-      <c r="T3" s="409"/>
-      <c r="U3" s="409"/>
-      <c r="V3" s="409"/>
-      <c r="W3" s="409"/>
-      <c r="X3" s="409"/>
-      <c r="Y3" s="409"/>
-      <c r="Z3" s="410"/>
-      <c r="AA3" s="220"/>
-      <c r="AB3" s="222"/>
-      <c r="AC3" s="459" t="str">
+      <c r="F3" s="252"/>
+      <c r="G3" s="252"/>
+      <c r="H3" s="252"/>
+      <c r="I3" s="252"/>
+      <c r="J3" s="252"/>
+      <c r="K3" s="252"/>
+      <c r="L3" s="252"/>
+      <c r="M3" s="252"/>
+      <c r="N3" s="253"/>
+      <c r="O3" s="312"/>
+      <c r="P3" s="313"/>
+      <c r="Q3" s="313"/>
+      <c r="R3" s="314"/>
+      <c r="S3" s="294"/>
+      <c r="T3" s="295"/>
+      <c r="U3" s="295"/>
+      <c r="V3" s="295"/>
+      <c r="W3" s="295"/>
+      <c r="X3" s="295"/>
+      <c r="Y3" s="295"/>
+      <c r="Z3" s="296"/>
+      <c r="AA3" s="303"/>
+      <c r="AB3" s="304"/>
+      <c r="AC3" s="300" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC3")&lt;&gt;"",INDIRECT("'Revision history'!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="460"/>
-      <c r="AE3" s="460"/>
-      <c r="AF3" s="461"/>
-      <c r="AG3" s="234" t="str">
+      <c r="AD3" s="301"/>
+      <c r="AE3" s="301"/>
+      <c r="AF3" s="302"/>
+      <c r="AG3" s="297" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AG3")&lt;&gt;"",INDIRECT("'Revision history'!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="235"/>
-      <c r="AI3" s="236"/>
+      <c r="AH3" s="298"/>
+      <c r="AI3" s="299"/>
     </row>
     <row r="4" spans="1:35" s="66" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="170"/>
@@ -9595,13 +9595,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="S1:Z3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
@@ -9612,6 +9605,13 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="12"/>
   <printOptions horizontalCentered="1"/>
@@ -9637,163 +9637,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="121" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="220" t="str">
+      <c r="A1" s="303" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!A1")&lt;&gt;"",INDIRECT("'Revision history'!A1"),"")</f>
         <v>Project name</v>
       </c>
-      <c r="B1" s="221"/>
-      <c r="C1" s="221"/>
-      <c r="D1" s="222"/>
-      <c r="E1" s="223" t="str">
+      <c r="B1" s="305"/>
+      <c r="C1" s="305"/>
+      <c r="D1" s="304"/>
+      <c r="E1" s="251" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E1")&lt;&gt;"",INDIRECT("'Revision history'!E1"),"")</f>
         <v>Sample Project</v>
       </c>
-      <c r="F1" s="224"/>
-      <c r="G1" s="224"/>
-      <c r="H1" s="224"/>
-      <c r="I1" s="224"/>
-      <c r="J1" s="224"/>
-      <c r="K1" s="224"/>
-      <c r="L1" s="224"/>
-      <c r="M1" s="224"/>
-      <c r="N1" s="225"/>
-      <c r="O1" s="226" t="str">
+      <c r="F1" s="252"/>
+      <c r="G1" s="252"/>
+      <c r="H1" s="252"/>
+      <c r="I1" s="252"/>
+      <c r="J1" s="252"/>
+      <c r="K1" s="252"/>
+      <c r="L1" s="252"/>
+      <c r="M1" s="252"/>
+      <c r="N1" s="253"/>
+      <c r="O1" s="306" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!O1")&lt;&gt;"",INDIRECT("'Revision history'!O1"),"")</f>
         <v>Deliverable name</v>
       </c>
-      <c r="P1" s="227"/>
-      <c r="Q1" s="227"/>
-      <c r="R1" s="228"/>
-      <c r="S1" s="396" t="str">
+      <c r="P1" s="307"/>
+      <c r="Q1" s="307"/>
+      <c r="R1" s="308"/>
+      <c r="S1" s="288" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!S1")&lt;&gt;"",INDIRECT("'Revision history'!S1"),"")</f>
         <v>External Interface Design Document(JSON)</v>
       </c>
-      <c r="T1" s="397"/>
-      <c r="U1" s="397"/>
-      <c r="V1" s="397"/>
-      <c r="W1" s="397"/>
-      <c r="X1" s="397"/>
-      <c r="Y1" s="397"/>
-      <c r="Z1" s="398"/>
-      <c r="AA1" s="220" t="str">
+      <c r="T1" s="289"/>
+      <c r="U1" s="289"/>
+      <c r="V1" s="289"/>
+      <c r="W1" s="289"/>
+      <c r="X1" s="289"/>
+      <c r="Y1" s="289"/>
+      <c r="Z1" s="290"/>
+      <c r="AA1" s="303" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AA1")&lt;&gt;"",INDIRECT("'Revision history'!AA1"),"")</f>
         <v>Prepared by</v>
       </c>
-      <c r="AB1" s="222"/>
-      <c r="AC1" s="459" t="str">
+      <c r="AB1" s="304"/>
+      <c r="AC1" s="300" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC1")&lt;&gt;"",INDIRECT("'Revision history'!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="460"/>
-      <c r="AE1" s="460"/>
-      <c r="AF1" s="461"/>
-      <c r="AG1" s="234">
+      <c r="AD1" s="301"/>
+      <c r="AE1" s="301"/>
+      <c r="AF1" s="302"/>
+      <c r="AG1" s="297">
         <f ca="1">IF(INDIRECT("'Revision history'!AG1")&lt;&gt;"",INDIRECT("'Revision history'!AG1"),"")</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="235"/>
-      <c r="AI1" s="236"/>
+      <c r="AH1" s="298"/>
+      <c r="AI1" s="299"/>
     </row>
     <row r="2" spans="1:35" s="121" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="220" t="str">
+      <c r="A2" s="303" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!A2")&lt;&gt;"",INDIRECT("'Revision history'!A2"),"")</f>
         <v>System name</v>
       </c>
-      <c r="B2" s="221"/>
-      <c r="C2" s="221"/>
-      <c r="D2" s="222"/>
-      <c r="E2" s="223" t="str">
+      <c r="B2" s="305"/>
+      <c r="C2" s="305"/>
+      <c r="D2" s="304"/>
+      <c r="E2" s="251" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E2")&lt;&gt;"",INDIRECT("'Revision history'!E2"),"")</f>
         <v>Sample System</v>
       </c>
-      <c r="F2" s="224"/>
-      <c r="G2" s="224"/>
-      <c r="H2" s="224"/>
-      <c r="I2" s="224"/>
-      <c r="J2" s="224"/>
-      <c r="K2" s="224"/>
-      <c r="L2" s="224"/>
-      <c r="M2" s="224"/>
-      <c r="N2" s="225"/>
-      <c r="O2" s="229"/>
-      <c r="P2" s="462"/>
-      <c r="Q2" s="462"/>
-      <c r="R2" s="230"/>
-      <c r="S2" s="402"/>
-      <c r="T2" s="403"/>
-      <c r="U2" s="403"/>
-      <c r="V2" s="403"/>
-      <c r="W2" s="403"/>
-      <c r="X2" s="403"/>
-      <c r="Y2" s="403"/>
-      <c r="Z2" s="404"/>
-      <c r="AA2" s="220" t="str">
+      <c r="F2" s="252"/>
+      <c r="G2" s="252"/>
+      <c r="H2" s="252"/>
+      <c r="I2" s="252"/>
+      <c r="J2" s="252"/>
+      <c r="K2" s="252"/>
+      <c r="L2" s="252"/>
+      <c r="M2" s="252"/>
+      <c r="N2" s="253"/>
+      <c r="O2" s="309"/>
+      <c r="P2" s="310"/>
+      <c r="Q2" s="310"/>
+      <c r="R2" s="311"/>
+      <c r="S2" s="291"/>
+      <c r="T2" s="292"/>
+      <c r="U2" s="292"/>
+      <c r="V2" s="292"/>
+      <c r="W2" s="292"/>
+      <c r="X2" s="292"/>
+      <c r="Y2" s="292"/>
+      <c r="Z2" s="293"/>
+      <c r="AA2" s="303" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AA2")&lt;&gt;"",INDIRECT("'Revision history'!AA2"),"")</f>
         <v>Changes</v>
       </c>
-      <c r="AB2" s="222"/>
-      <c r="AC2" s="459" t="str">
+      <c r="AB2" s="304"/>
+      <c r="AC2" s="300" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC2")&lt;&gt;"",INDIRECT("'Revision history'!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="460"/>
-      <c r="AE2" s="460"/>
-      <c r="AF2" s="461"/>
-      <c r="AG2" s="234" t="str">
+      <c r="AD2" s="301"/>
+      <c r="AE2" s="301"/>
+      <c r="AF2" s="302"/>
+      <c r="AG2" s="297" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AG2")&lt;&gt;"",INDIRECT("'Revision history'!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="235"/>
-      <c r="AI2" s="236"/>
+      <c r="AH2" s="298"/>
+      <c r="AI2" s="299"/>
     </row>
     <row r="3" spans="1:35" s="121" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="220" t="str">
+      <c r="A3" s="303" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!A3")&lt;&gt;"",INDIRECT("'Revision history'!A3"),"")</f>
         <v>Sub-system name</v>
       </c>
-      <c r="B3" s="221"/>
-      <c r="C3" s="221"/>
-      <c r="D3" s="222"/>
-      <c r="E3" s="223" t="str">
+      <c r="B3" s="305"/>
+      <c r="C3" s="305"/>
+      <c r="D3" s="304"/>
+      <c r="E3" s="251" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E3")&lt;&gt;"",INDIRECT("'Revision history'!E3"),"")</f>
         <v>Client Management System</v>
       </c>
-      <c r="F3" s="224"/>
-      <c r="G3" s="224"/>
-      <c r="H3" s="224"/>
-      <c r="I3" s="224"/>
-      <c r="J3" s="224"/>
-      <c r="K3" s="224"/>
-      <c r="L3" s="224"/>
-      <c r="M3" s="224"/>
-      <c r="N3" s="225"/>
-      <c r="O3" s="231"/>
-      <c r="P3" s="232"/>
-      <c r="Q3" s="232"/>
-      <c r="R3" s="233"/>
-      <c r="S3" s="408"/>
-      <c r="T3" s="409"/>
-      <c r="U3" s="409"/>
-      <c r="V3" s="409"/>
-      <c r="W3" s="409"/>
-      <c r="X3" s="409"/>
-      <c r="Y3" s="409"/>
-      <c r="Z3" s="410"/>
-      <c r="AA3" s="220"/>
-      <c r="AB3" s="222"/>
-      <c r="AC3" s="459" t="str">
+      <c r="F3" s="252"/>
+      <c r="G3" s="252"/>
+      <c r="H3" s="252"/>
+      <c r="I3" s="252"/>
+      <c r="J3" s="252"/>
+      <c r="K3" s="252"/>
+      <c r="L3" s="252"/>
+      <c r="M3" s="252"/>
+      <c r="N3" s="253"/>
+      <c r="O3" s="312"/>
+      <c r="P3" s="313"/>
+      <c r="Q3" s="313"/>
+      <c r="R3" s="314"/>
+      <c r="S3" s="294"/>
+      <c r="T3" s="295"/>
+      <c r="U3" s="295"/>
+      <c r="V3" s="295"/>
+      <c r="W3" s="295"/>
+      <c r="X3" s="295"/>
+      <c r="Y3" s="295"/>
+      <c r="Z3" s="296"/>
+      <c r="AA3" s="303"/>
+      <c r="AB3" s="304"/>
+      <c r="AC3" s="300" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC3")&lt;&gt;"",INDIRECT("'Revision history'!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="460"/>
-      <c r="AE3" s="460"/>
-      <c r="AF3" s="461"/>
-      <c r="AG3" s="234" t="str">
+      <c r="AD3" s="301"/>
+      <c r="AE3" s="301"/>
+      <c r="AF3" s="302"/>
+      <c r="AG3" s="297" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AG3")&lt;&gt;"",INDIRECT("'Revision history'!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="235"/>
-      <c r="AI3" s="236"/>
+      <c r="AH3" s="298"/>
+      <c r="AI3" s="299"/>
     </row>
     <row r="4" spans="1:35" s="121" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AC4" s="100"/>
@@ -9815,12 +9815,12 @@
       <c r="C6" s="78"/>
     </row>
     <row r="7" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="240" t="s">
+      <c r="A7" s="322" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="249"/>
-      <c r="C7" s="249"/>
-      <c r="D7" s="250"/>
+      <c r="B7" s="323"/>
+      <c r="C7" s="323"/>
+      <c r="D7" s="324"/>
       <c r="E7" s="123"/>
       <c r="F7" s="123"/>
       <c r="G7" s="123"/>
@@ -9833,82 +9833,82 @@
       <c r="N7" s="123"/>
       <c r="O7" s="123"/>
       <c r="P7" s="123"/>
-      <c r="Q7" s="252" t="s">
+      <c r="Q7" s="352" t="s">
         <v>75</v>
       </c>
-      <c r="R7" s="253"/>
-      <c r="S7" s="253"/>
-      <c r="T7" s="254"/>
-      <c r="U7" s="243" t="s">
+      <c r="R7" s="344"/>
+      <c r="S7" s="344"/>
+      <c r="T7" s="345"/>
+      <c r="U7" s="349" t="s">
         <v>51</v>
       </c>
-      <c r="V7" s="244"/>
-      <c r="W7" s="244"/>
-      <c r="X7" s="244"/>
-      <c r="Y7" s="244"/>
-      <c r="Z7" s="244"/>
-      <c r="AA7" s="244"/>
-      <c r="AB7" s="244"/>
-      <c r="AC7" s="244"/>
-      <c r="AD7" s="244"/>
-      <c r="AE7" s="244"/>
-      <c r="AF7" s="244"/>
-      <c r="AG7" s="244"/>
-      <c r="AH7" s="244"/>
-      <c r="AI7" s="245"/>
+      <c r="V7" s="350"/>
+      <c r="W7" s="350"/>
+      <c r="X7" s="350"/>
+      <c r="Y7" s="350"/>
+      <c r="Z7" s="350"/>
+      <c r="AA7" s="350"/>
+      <c r="AB7" s="350"/>
+      <c r="AC7" s="350"/>
+      <c r="AD7" s="350"/>
+      <c r="AE7" s="350"/>
+      <c r="AF7" s="350"/>
+      <c r="AG7" s="350"/>
+      <c r="AH7" s="350"/>
+      <c r="AI7" s="351"/>
     </row>
     <row r="8" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="251" t="s">
+      <c r="A8" s="315" t="s">
         <v>76</v>
       </c>
-      <c r="B8" s="249"/>
-      <c r="C8" s="249"/>
-      <c r="D8" s="250"/>
-      <c r="E8" s="246" t="s">
+      <c r="B8" s="323"/>
+      <c r="C8" s="323"/>
+      <c r="D8" s="324"/>
+      <c r="E8" s="334" t="s">
         <v>52</v>
       </c>
-      <c r="F8" s="247"/>
-      <c r="G8" s="247"/>
-      <c r="H8" s="247"/>
-      <c r="I8" s="247"/>
-      <c r="J8" s="247"/>
-      <c r="K8" s="247"/>
-      <c r="L8" s="247"/>
-      <c r="M8" s="247"/>
-      <c r="N8" s="247"/>
-      <c r="O8" s="247"/>
-      <c r="P8" s="247"/>
-      <c r="Q8" s="240" t="s">
+      <c r="F8" s="335"/>
+      <c r="G8" s="335"/>
+      <c r="H8" s="335"/>
+      <c r="I8" s="335"/>
+      <c r="J8" s="335"/>
+      <c r="K8" s="335"/>
+      <c r="L8" s="335"/>
+      <c r="M8" s="335"/>
+      <c r="N8" s="335"/>
+      <c r="O8" s="335"/>
+      <c r="P8" s="335"/>
+      <c r="Q8" s="322" t="s">
         <v>53</v>
       </c>
-      <c r="R8" s="249"/>
-      <c r="S8" s="249"/>
-      <c r="T8" s="250"/>
-      <c r="U8" s="246" t="s">
+      <c r="R8" s="323"/>
+      <c r="S8" s="323"/>
+      <c r="T8" s="324"/>
+      <c r="U8" s="334" t="s">
         <v>54</v>
       </c>
-      <c r="V8" s="247"/>
-      <c r="W8" s="247"/>
-      <c r="X8" s="247"/>
-      <c r="Y8" s="247"/>
-      <c r="Z8" s="247"/>
-      <c r="AA8" s="247"/>
-      <c r="AB8" s="247"/>
-      <c r="AC8" s="247"/>
-      <c r="AD8" s="247"/>
-      <c r="AE8" s="247"/>
-      <c r="AF8" s="247"/>
-      <c r="AG8" s="247"/>
-      <c r="AH8" s="247"/>
-      <c r="AI8" s="248"/>
+      <c r="V8" s="335"/>
+      <c r="W8" s="335"/>
+      <c r="X8" s="335"/>
+      <c r="Y8" s="335"/>
+      <c r="Z8" s="335"/>
+      <c r="AA8" s="335"/>
+      <c r="AB8" s="335"/>
+      <c r="AC8" s="335"/>
+      <c r="AD8" s="335"/>
+      <c r="AE8" s="335"/>
+      <c r="AF8" s="335"/>
+      <c r="AG8" s="335"/>
+      <c r="AH8" s="335"/>
+      <c r="AI8" s="336"/>
     </row>
     <row r="9" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="240" t="s">
+      <c r="A9" s="322" t="s">
         <v>55</v>
       </c>
-      <c r="B9" s="249"/>
-      <c r="C9" s="249"/>
-      <c r="D9" s="250"/>
+      <c r="B9" s="323"/>
+      <c r="C9" s="323"/>
+      <c r="D9" s="324"/>
       <c r="E9" s="125"/>
       <c r="F9" s="125"/>
       <c r="G9" s="125"/>
@@ -10094,12 +10094,12 @@
       <c r="AI13" s="136"/>
     </row>
     <row r="14" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="240" t="s">
+      <c r="A14" s="322" t="s">
         <v>58</v>
       </c>
-      <c r="B14" s="241"/>
-      <c r="C14" s="241"/>
-      <c r="D14" s="242"/>
+      <c r="B14" s="316"/>
+      <c r="C14" s="316"/>
+      <c r="D14" s="317"/>
       <c r="E14" s="126"/>
       <c r="F14" s="126"/>
       <c r="G14" s="126"/>
@@ -10244,12 +10244,12 @@
       <c r="AI17" s="136"/>
     </row>
     <row r="18" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="255" t="s">
+      <c r="A18" s="337" t="s">
         <v>59</v>
       </c>
-      <c r="B18" s="256"/>
-      <c r="C18" s="256"/>
-      <c r="D18" s="257"/>
+      <c r="B18" s="338"/>
+      <c r="C18" s="338"/>
+      <c r="D18" s="339"/>
       <c r="E18" s="138"/>
       <c r="F18" s="139"/>
       <c r="G18" s="111"/>
@@ -10262,12 +10262,12 @@
       <c r="N18" s="111"/>
       <c r="O18" s="109"/>
       <c r="P18" s="111"/>
-      <c r="Q18" s="255" t="s">
+      <c r="Q18" s="337" t="s">
         <v>60</v>
       </c>
-      <c r="R18" s="256"/>
-      <c r="S18" s="256"/>
-      <c r="T18" s="257"/>
+      <c r="R18" s="338"/>
+      <c r="S18" s="338"/>
+      <c r="T18" s="339"/>
       <c r="U18" s="129"/>
       <c r="V18" s="129"/>
       <c r="W18" s="129"/>
@@ -10367,55 +10367,55 @@
       <c r="AI20" s="130"/>
     </row>
     <row r="21" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="240" t="s">
+      <c r="A21" s="322" t="s">
         <v>63</v>
       </c>
-      <c r="B21" s="249"/>
-      <c r="C21" s="249"/>
-      <c r="D21" s="250"/>
-      <c r="E21" s="246" t="s">
+      <c r="B21" s="323"/>
+      <c r="C21" s="323"/>
+      <c r="D21" s="324"/>
+      <c r="E21" s="334" t="s">
         <v>64</v>
       </c>
-      <c r="F21" s="247"/>
-      <c r="G21" s="247"/>
-      <c r="H21" s="247"/>
-      <c r="I21" s="247"/>
-      <c r="J21" s="247"/>
-      <c r="K21" s="247"/>
-      <c r="L21" s="247"/>
-      <c r="M21" s="247"/>
-      <c r="N21" s="247"/>
-      <c r="O21" s="247"/>
-      <c r="P21" s="248"/>
-      <c r="Q21" s="240" t="s">
+      <c r="F21" s="335"/>
+      <c r="G21" s="335"/>
+      <c r="H21" s="335"/>
+      <c r="I21" s="335"/>
+      <c r="J21" s="335"/>
+      <c r="K21" s="335"/>
+      <c r="L21" s="335"/>
+      <c r="M21" s="335"/>
+      <c r="N21" s="335"/>
+      <c r="O21" s="335"/>
+      <c r="P21" s="336"/>
+      <c r="Q21" s="322" t="s">
         <v>65</v>
       </c>
-      <c r="R21" s="249"/>
-      <c r="S21" s="249"/>
-      <c r="T21" s="250"/>
-      <c r="U21" s="258"/>
-      <c r="V21" s="259"/>
-      <c r="W21" s="259"/>
-      <c r="X21" s="259"/>
-      <c r="Y21" s="259"/>
-      <c r="Z21" s="259"/>
-      <c r="AA21" s="259"/>
-      <c r="AB21" s="259"/>
-      <c r="AC21" s="259"/>
-      <c r="AD21" s="259"/>
-      <c r="AE21" s="259"/>
-      <c r="AF21" s="259"/>
-      <c r="AG21" s="259"/>
-      <c r="AH21" s="259"/>
-      <c r="AI21" s="260"/>
+      <c r="R21" s="323"/>
+      <c r="S21" s="323"/>
+      <c r="T21" s="324"/>
+      <c r="U21" s="340"/>
+      <c r="V21" s="341"/>
+      <c r="W21" s="341"/>
+      <c r="X21" s="341"/>
+      <c r="Y21" s="341"/>
+      <c r="Z21" s="341"/>
+      <c r="AA21" s="341"/>
+      <c r="AB21" s="341"/>
+      <c r="AC21" s="341"/>
+      <c r="AD21" s="341"/>
+      <c r="AE21" s="341"/>
+      <c r="AF21" s="341"/>
+      <c r="AG21" s="341"/>
+      <c r="AH21" s="341"/>
+      <c r="AI21" s="342"/>
     </row>
     <row r="22" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="261" t="s">
+      <c r="A22" s="343" t="s">
         <v>66</v>
       </c>
-      <c r="B22" s="253"/>
-      <c r="C22" s="253"/>
-      <c r="D22" s="254"/>
+      <c r="B22" s="344"/>
+      <c r="C22" s="344"/>
+      <c r="D22" s="345"/>
       <c r="E22" s="148"/>
       <c r="F22" s="149"/>
       <c r="G22" s="126"/>
@@ -10428,12 +10428,12 @@
       <c r="N22" s="126"/>
       <c r="O22" s="125"/>
       <c r="P22" s="126"/>
-      <c r="Q22" s="261" t="s">
+      <c r="Q22" s="343" t="s">
         <v>67</v>
       </c>
-      <c r="R22" s="253"/>
-      <c r="S22" s="253"/>
-      <c r="T22" s="254"/>
+      <c r="R22" s="344"/>
+      <c r="S22" s="344"/>
+      <c r="T22" s="345"/>
       <c r="U22" s="102"/>
       <c r="V22" s="103"/>
       <c r="W22" s="150"/>
@@ -10496,36 +10496,36 @@
       </c>
     </row>
     <row r="24" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="275" t="s">
+      <c r="A24" s="331" t="s">
         <v>68</v>
       </c>
-      <c r="B24" s="276"/>
-      <c r="C24" s="276"/>
-      <c r="D24" s="277"/>
-      <c r="E24" s="246" t="s">
+      <c r="B24" s="332"/>
+      <c r="C24" s="332"/>
+      <c r="D24" s="333"/>
+      <c r="E24" s="334" t="s">
         <v>69</v>
       </c>
-      <c r="F24" s="247"/>
-      <c r="G24" s="247"/>
-      <c r="H24" s="247"/>
-      <c r="I24" s="247"/>
-      <c r="J24" s="247"/>
-      <c r="K24" s="247"/>
-      <c r="L24" s="247"/>
-      <c r="M24" s="247"/>
-      <c r="N24" s="247"/>
-      <c r="O24" s="247"/>
-      <c r="P24" s="248"/>
-      <c r="Q24" s="262" t="s">
+      <c r="F24" s="335"/>
+      <c r="G24" s="335"/>
+      <c r="H24" s="335"/>
+      <c r="I24" s="335"/>
+      <c r="J24" s="335"/>
+      <c r="K24" s="335"/>
+      <c r="L24" s="335"/>
+      <c r="M24" s="335"/>
+      <c r="N24" s="335"/>
+      <c r="O24" s="335"/>
+      <c r="P24" s="336"/>
+      <c r="Q24" s="346" t="s">
         <v>70</v>
       </c>
-      <c r="R24" s="263"/>
-      <c r="S24" s="263"/>
-      <c r="T24" s="264"/>
-      <c r="U24" s="267"/>
-      <c r="V24" s="268"/>
-      <c r="W24" s="268"/>
-      <c r="X24" s="268"/>
+      <c r="R24" s="347"/>
+      <c r="S24" s="347"/>
+      <c r="T24" s="348"/>
+      <c r="U24" s="320"/>
+      <c r="V24" s="321"/>
+      <c r="W24" s="321"/>
+      <c r="X24" s="321"/>
       <c r="Y24" s="157" t="s">
         <v>71</v>
       </c>
@@ -10541,26 +10541,26 @@
       <c r="AI24" s="159"/>
     </row>
     <row r="25" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="271" t="s">
+      <c r="A25" s="327" t="s">
         <v>72</v>
       </c>
-      <c r="B25" s="272"/>
-      <c r="C25" s="272"/>
-      <c r="D25" s="273"/>
+      <c r="B25" s="328"/>
+      <c r="C25" s="328"/>
+      <c r="D25" s="329"/>
       <c r="E25" s="148"/>
       <c r="F25" s="160"/>
       <c r="G25" s="149" t="s">
         <v>61</v>
       </c>
-      <c r="H25" s="265"/>
-      <c r="I25" s="266"/>
-      <c r="J25" s="266"/>
-      <c r="K25" s="266"/>
-      <c r="L25" s="266"/>
-      <c r="M25" s="266"/>
-      <c r="N25" s="266"/>
-      <c r="O25" s="266"/>
-      <c r="P25" s="266"/>
+      <c r="H25" s="318"/>
+      <c r="I25" s="319"/>
+      <c r="J25" s="319"/>
+      <c r="K25" s="319"/>
+      <c r="L25" s="319"/>
+      <c r="M25" s="319"/>
+      <c r="N25" s="319"/>
+      <c r="O25" s="319"/>
+      <c r="P25" s="319"/>
       <c r="Q25" s="126" t="s">
         <v>62</v>
       </c>
@@ -10569,15 +10569,15 @@
       <c r="T25" s="149" t="s">
         <v>61</v>
       </c>
-      <c r="U25" s="274"/>
-      <c r="V25" s="274"/>
-      <c r="W25" s="274"/>
-      <c r="X25" s="274"/>
-      <c r="Y25" s="274"/>
-      <c r="Z25" s="274"/>
-      <c r="AA25" s="274"/>
-      <c r="AB25" s="274"/>
-      <c r="AC25" s="274"/>
+      <c r="U25" s="330"/>
+      <c r="V25" s="330"/>
+      <c r="W25" s="330"/>
+      <c r="X25" s="330"/>
+      <c r="Y25" s="330"/>
+      <c r="Z25" s="330"/>
+      <c r="AA25" s="330"/>
+      <c r="AB25" s="330"/>
+      <c r="AC25" s="330"/>
       <c r="AD25" s="126" t="s">
         <v>62</v>
       </c>
@@ -10597,15 +10597,15 @@
       <c r="G26" s="144" t="s">
         <v>61</v>
       </c>
-      <c r="H26" s="270"/>
-      <c r="I26" s="270"/>
-      <c r="J26" s="270"/>
-      <c r="K26" s="270"/>
-      <c r="L26" s="270"/>
-      <c r="M26" s="270"/>
-      <c r="N26" s="270"/>
-      <c r="O26" s="270"/>
-      <c r="P26" s="270"/>
+      <c r="H26" s="326"/>
+      <c r="I26" s="326"/>
+      <c r="J26" s="326"/>
+      <c r="K26" s="326"/>
+      <c r="L26" s="326"/>
+      <c r="M26" s="326"/>
+      <c r="N26" s="326"/>
+      <c r="O26" s="326"/>
+      <c r="P26" s="326"/>
       <c r="Q26" s="120" t="s">
         <v>62</v>
       </c>
@@ -10614,15 +10614,15 @@
       <c r="T26" s="144" t="s">
         <v>61</v>
       </c>
-      <c r="U26" s="270"/>
-      <c r="V26" s="270"/>
-      <c r="W26" s="270"/>
-      <c r="X26" s="270"/>
-      <c r="Y26" s="270"/>
-      <c r="Z26" s="270"/>
-      <c r="AA26" s="270"/>
-      <c r="AB26" s="270"/>
-      <c r="AC26" s="270"/>
+      <c r="U26" s="326"/>
+      <c r="V26" s="326"/>
+      <c r="W26" s="326"/>
+      <c r="X26" s="326"/>
+      <c r="Y26" s="326"/>
+      <c r="Z26" s="326"/>
+      <c r="AA26" s="326"/>
+      <c r="AB26" s="326"/>
+      <c r="AC26" s="326"/>
       <c r="AD26" s="120" t="s">
         <v>62</v>
       </c>
@@ -10642,15 +10642,15 @@
       <c r="G27" s="153" t="s">
         <v>61</v>
       </c>
-      <c r="H27" s="269"/>
-      <c r="I27" s="269"/>
-      <c r="J27" s="269"/>
-      <c r="K27" s="269"/>
-      <c r="L27" s="269"/>
-      <c r="M27" s="269"/>
-      <c r="N27" s="269"/>
-      <c r="O27" s="269"/>
-      <c r="P27" s="269"/>
+      <c r="H27" s="325"/>
+      <c r="I27" s="325"/>
+      <c r="J27" s="325"/>
+      <c r="K27" s="325"/>
+      <c r="L27" s="325"/>
+      <c r="M27" s="325"/>
+      <c r="N27" s="325"/>
+      <c r="O27" s="325"/>
+      <c r="P27" s="325"/>
       <c r="Q27" s="134" t="s">
         <v>62</v>
       </c>
@@ -10659,31 +10659,31 @@
       <c r="T27" s="153" t="s">
         <v>61</v>
       </c>
-      <c r="U27" s="269"/>
-      <c r="V27" s="269"/>
-      <c r="W27" s="269"/>
-      <c r="X27" s="269"/>
-      <c r="Y27" s="269"/>
-      <c r="Z27" s="269"/>
-      <c r="AA27" s="269"/>
-      <c r="AB27" s="269"/>
-      <c r="AC27" s="269"/>
-      <c r="AD27" s="269"/>
-      <c r="AE27" s="269"/>
-      <c r="AF27" s="269"/>
-      <c r="AG27" s="269"/>
-      <c r="AH27" s="269"/>
+      <c r="U27" s="325"/>
+      <c r="V27" s="325"/>
+      <c r="W27" s="325"/>
+      <c r="X27" s="325"/>
+      <c r="Y27" s="325"/>
+      <c r="Z27" s="325"/>
+      <c r="AA27" s="325"/>
+      <c r="AB27" s="325"/>
+      <c r="AC27" s="325"/>
+      <c r="AD27" s="325"/>
+      <c r="AE27" s="325"/>
+      <c r="AF27" s="325"/>
+      <c r="AG27" s="325"/>
+      <c r="AH27" s="325"/>
       <c r="AI27" s="136" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="251" t="s">
+      <c r="A28" s="315" t="s">
         <v>77</v>
       </c>
-      <c r="B28" s="241"/>
-      <c r="C28" s="241"/>
-      <c r="D28" s="242"/>
+      <c r="B28" s="316"/>
+      <c r="C28" s="316"/>
+      <c r="D28" s="317"/>
       <c r="E28" s="126"/>
       <c r="F28" s="126"/>
       <c r="G28" s="126"/>
@@ -10829,23 +10829,21 @@
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="U7:AI7"/>
+    <mergeCell ref="U8:AI8"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="E8:P8"/>
+    <mergeCell ref="Q8:T8"/>
+    <mergeCell ref="Q7:T7"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="U21:AI21"/>
+    <mergeCell ref="Q22:T22"/>
+    <mergeCell ref="Q24:T24"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="Q18:T18"/>
     <mergeCell ref="A28:D28"/>
     <mergeCell ref="H25:P25"/>
     <mergeCell ref="U24:X24"/>
@@ -10860,21 +10858,23 @@
     <mergeCell ref="A21:D21"/>
     <mergeCell ref="E21:P21"/>
     <mergeCell ref="E24:P24"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="U21:AI21"/>
-    <mergeCell ref="Q22:T22"/>
-    <mergeCell ref="Q24:T24"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="Q18:T18"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="U7:AI7"/>
-    <mergeCell ref="U8:AI8"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="E8:P8"/>
-    <mergeCell ref="Q8:T8"/>
-    <mergeCell ref="Q7:T7"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="S1:Z3"/>
   </mergeCells>
   <phoneticPr fontId="10"/>
   <printOptions horizontalCentered="1"/>
@@ -11417,163 +11417,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" s="79" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="220" t="str">
+      <c r="A1" s="303" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!A1")&lt;&gt;"",INDIRECT("'Revision history'!A1"),"")</f>
         <v>Project name</v>
       </c>
-      <c r="B1" s="221"/>
-      <c r="C1" s="221"/>
-      <c r="D1" s="222"/>
-      <c r="E1" s="223" t="str">
+      <c r="B1" s="305"/>
+      <c r="C1" s="305"/>
+      <c r="D1" s="304"/>
+      <c r="E1" s="251" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E1")&lt;&gt;"",INDIRECT("'Revision history'!E1"),"")</f>
         <v>Sample Project</v>
       </c>
-      <c r="F1" s="224"/>
-      <c r="G1" s="224"/>
-      <c r="H1" s="224"/>
-      <c r="I1" s="224"/>
-      <c r="J1" s="224"/>
-      <c r="K1" s="224"/>
-      <c r="L1" s="224"/>
-      <c r="M1" s="224"/>
-      <c r="N1" s="225"/>
-      <c r="O1" s="226" t="str">
+      <c r="F1" s="252"/>
+      <c r="G1" s="252"/>
+      <c r="H1" s="252"/>
+      <c r="I1" s="252"/>
+      <c r="J1" s="252"/>
+      <c r="K1" s="252"/>
+      <c r="L1" s="252"/>
+      <c r="M1" s="252"/>
+      <c r="N1" s="253"/>
+      <c r="O1" s="306" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!O1")&lt;&gt;"",INDIRECT("'Revision history'!O1"),"")</f>
         <v>Deliverable name</v>
       </c>
-      <c r="P1" s="227"/>
-      <c r="Q1" s="227"/>
-      <c r="R1" s="228"/>
-      <c r="S1" s="396" t="str">
+      <c r="P1" s="307"/>
+      <c r="Q1" s="307"/>
+      <c r="R1" s="308"/>
+      <c r="S1" s="288" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!S1")&lt;&gt;"",INDIRECT("'Revision history'!S1"),"")</f>
         <v>External Interface Design Document(JSON)</v>
       </c>
-      <c r="T1" s="397"/>
-      <c r="U1" s="397"/>
-      <c r="V1" s="397"/>
-      <c r="W1" s="397"/>
-      <c r="X1" s="397"/>
-      <c r="Y1" s="397"/>
-      <c r="Z1" s="398"/>
-      <c r="AA1" s="220" t="str">
+      <c r="T1" s="289"/>
+      <c r="U1" s="289"/>
+      <c r="V1" s="289"/>
+      <c r="W1" s="289"/>
+      <c r="X1" s="289"/>
+      <c r="Y1" s="289"/>
+      <c r="Z1" s="290"/>
+      <c r="AA1" s="303" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AA1")&lt;&gt;"",INDIRECT("'Revision history'!AA1"),"")</f>
         <v>Prepared by</v>
       </c>
-      <c r="AB1" s="222"/>
-      <c r="AC1" s="459" t="str">
+      <c r="AB1" s="304"/>
+      <c r="AC1" s="300" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC1")&lt;&gt;"",INDIRECT("'Revision history'!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="460"/>
-      <c r="AE1" s="460"/>
-      <c r="AF1" s="461"/>
-      <c r="AG1" s="234">
+      <c r="AD1" s="301"/>
+      <c r="AE1" s="301"/>
+      <c r="AF1" s="302"/>
+      <c r="AG1" s="297">
         <f ca="1">IF(INDIRECT("'Revision history'!AG1")&lt;&gt;"",INDIRECT("'Revision history'!AG1"),"")</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="235"/>
-      <c r="AI1" s="236"/>
+      <c r="AH1" s="298"/>
+      <c r="AI1" s="299"/>
     </row>
     <row r="2" spans="1:36" s="79" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="220" t="str">
+      <c r="A2" s="303" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!A2")&lt;&gt;"",INDIRECT("'Revision history'!A2"),"")</f>
         <v>System name</v>
       </c>
-      <c r="B2" s="221"/>
-      <c r="C2" s="221"/>
-      <c r="D2" s="222"/>
-      <c r="E2" s="223" t="str">
+      <c r="B2" s="305"/>
+      <c r="C2" s="305"/>
+      <c r="D2" s="304"/>
+      <c r="E2" s="251" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E2")&lt;&gt;"",INDIRECT("'Revision history'!E2"),"")</f>
         <v>Sample System</v>
       </c>
-      <c r="F2" s="224"/>
-      <c r="G2" s="224"/>
-      <c r="H2" s="224"/>
-      <c r="I2" s="224"/>
-      <c r="J2" s="224"/>
-      <c r="K2" s="224"/>
-      <c r="L2" s="224"/>
-      <c r="M2" s="224"/>
-      <c r="N2" s="225"/>
-      <c r="O2" s="229"/>
-      <c r="P2" s="462"/>
-      <c r="Q2" s="462"/>
-      <c r="R2" s="230"/>
-      <c r="S2" s="402"/>
-      <c r="T2" s="403"/>
-      <c r="U2" s="403"/>
-      <c r="V2" s="403"/>
-      <c r="W2" s="403"/>
-      <c r="X2" s="403"/>
-      <c r="Y2" s="403"/>
-      <c r="Z2" s="404"/>
-      <c r="AA2" s="220" t="str">
+      <c r="F2" s="252"/>
+      <c r="G2" s="252"/>
+      <c r="H2" s="252"/>
+      <c r="I2" s="252"/>
+      <c r="J2" s="252"/>
+      <c r="K2" s="252"/>
+      <c r="L2" s="252"/>
+      <c r="M2" s="252"/>
+      <c r="N2" s="253"/>
+      <c r="O2" s="309"/>
+      <c r="P2" s="310"/>
+      <c r="Q2" s="310"/>
+      <c r="R2" s="311"/>
+      <c r="S2" s="291"/>
+      <c r="T2" s="292"/>
+      <c r="U2" s="292"/>
+      <c r="V2" s="292"/>
+      <c r="W2" s="292"/>
+      <c r="X2" s="292"/>
+      <c r="Y2" s="292"/>
+      <c r="Z2" s="293"/>
+      <c r="AA2" s="303" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AA2")&lt;&gt;"",INDIRECT("'Revision history'!AA2"),"")</f>
         <v>Changes</v>
       </c>
-      <c r="AB2" s="222"/>
-      <c r="AC2" s="459" t="str">
+      <c r="AB2" s="304"/>
+      <c r="AC2" s="300" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC2")&lt;&gt;"",INDIRECT("'Revision history'!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="460"/>
-      <c r="AE2" s="460"/>
-      <c r="AF2" s="461"/>
-      <c r="AG2" s="234" t="str">
+      <c r="AD2" s="301"/>
+      <c r="AE2" s="301"/>
+      <c r="AF2" s="302"/>
+      <c r="AG2" s="297" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AG2")&lt;&gt;"",INDIRECT("'Revision history'!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="235"/>
-      <c r="AI2" s="236"/>
+      <c r="AH2" s="298"/>
+      <c r="AI2" s="299"/>
     </row>
     <row r="3" spans="1:36" s="79" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="220" t="str">
+      <c r="A3" s="303" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!A3")&lt;&gt;"",INDIRECT("'Revision history'!A3"),"")</f>
         <v>Sub-system name</v>
       </c>
-      <c r="B3" s="221"/>
-      <c r="C3" s="221"/>
-      <c r="D3" s="222"/>
-      <c r="E3" s="223" t="str">
+      <c r="B3" s="305"/>
+      <c r="C3" s="305"/>
+      <c r="D3" s="304"/>
+      <c r="E3" s="251" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E3")&lt;&gt;"",INDIRECT("'Revision history'!E3"),"")</f>
         <v>Client Management System</v>
       </c>
-      <c r="F3" s="224"/>
-      <c r="G3" s="224"/>
-      <c r="H3" s="224"/>
-      <c r="I3" s="224"/>
-      <c r="J3" s="224"/>
-      <c r="K3" s="224"/>
-      <c r="L3" s="224"/>
-      <c r="M3" s="224"/>
-      <c r="N3" s="225"/>
-      <c r="O3" s="231"/>
-      <c r="P3" s="232"/>
-      <c r="Q3" s="232"/>
-      <c r="R3" s="233"/>
-      <c r="S3" s="408"/>
-      <c r="T3" s="409"/>
-      <c r="U3" s="409"/>
-      <c r="V3" s="409"/>
-      <c r="W3" s="409"/>
-      <c r="X3" s="409"/>
-      <c r="Y3" s="409"/>
-      <c r="Z3" s="410"/>
-      <c r="AA3" s="220"/>
-      <c r="AB3" s="222"/>
-      <c r="AC3" s="459" t="str">
+      <c r="F3" s="252"/>
+      <c r="G3" s="252"/>
+      <c r="H3" s="252"/>
+      <c r="I3" s="252"/>
+      <c r="J3" s="252"/>
+      <c r="K3" s="252"/>
+      <c r="L3" s="252"/>
+      <c r="M3" s="252"/>
+      <c r="N3" s="253"/>
+      <c r="O3" s="312"/>
+      <c r="P3" s="313"/>
+      <c r="Q3" s="313"/>
+      <c r="R3" s="314"/>
+      <c r="S3" s="294"/>
+      <c r="T3" s="295"/>
+      <c r="U3" s="295"/>
+      <c r="V3" s="295"/>
+      <c r="W3" s="295"/>
+      <c r="X3" s="295"/>
+      <c r="Y3" s="295"/>
+      <c r="Z3" s="296"/>
+      <c r="AA3" s="303"/>
+      <c r="AB3" s="304"/>
+      <c r="AC3" s="300" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC3")&lt;&gt;"",INDIRECT("'Revision history'!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="460"/>
-      <c r="AE3" s="460"/>
-      <c r="AF3" s="461"/>
-      <c r="AG3" s="234" t="str">
+      <c r="AD3" s="301"/>
+      <c r="AE3" s="301"/>
+      <c r="AF3" s="302"/>
+      <c r="AG3" s="297" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AG3")&lt;&gt;"",INDIRECT("'Revision history'!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="235"/>
-      <c r="AI3" s="236"/>
+      <c r="AH3" s="298"/>
+      <c r="AI3" s="299"/>
     </row>
     <row r="4" spans="1:36" s="79" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="80"/>
@@ -11643,461 +11643,461 @@
       <c r="C7" s="92"/>
     </row>
     <row r="8" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A8" s="298" t="s">
+      <c r="A8" s="419" t="s">
         <v>78</v>
       </c>
-      <c r="B8" s="299"/>
-      <c r="C8" s="299"/>
-      <c r="D8" s="299"/>
-      <c r="E8" s="299"/>
-      <c r="F8" s="299"/>
-      <c r="G8" s="299"/>
-      <c r="H8" s="299"/>
-      <c r="I8" s="299"/>
-      <c r="J8" s="299"/>
-      <c r="K8" s="299"/>
-      <c r="L8" s="299"/>
-      <c r="M8" s="299"/>
-      <c r="N8" s="299"/>
-      <c r="O8" s="299"/>
-      <c r="P8" s="299"/>
-      <c r="Q8" s="299"/>
-      <c r="R8" s="299"/>
-      <c r="S8" s="299"/>
-      <c r="T8" s="299"/>
-      <c r="U8" s="299"/>
-      <c r="V8" s="299"/>
-      <c r="W8" s="299"/>
-      <c r="X8" s="299"/>
-      <c r="Y8" s="299"/>
-      <c r="Z8" s="299"/>
-      <c r="AA8" s="299"/>
-      <c r="AB8" s="300"/>
-      <c r="AC8" s="364" t="s">
+      <c r="B8" s="369"/>
+      <c r="C8" s="369"/>
+      <c r="D8" s="369"/>
+      <c r="E8" s="369"/>
+      <c r="F8" s="369"/>
+      <c r="G8" s="369"/>
+      <c r="H8" s="369"/>
+      <c r="I8" s="369"/>
+      <c r="J8" s="369"/>
+      <c r="K8" s="369"/>
+      <c r="L8" s="369"/>
+      <c r="M8" s="369"/>
+      <c r="N8" s="369"/>
+      <c r="O8" s="369"/>
+      <c r="P8" s="369"/>
+      <c r="Q8" s="369"/>
+      <c r="R8" s="369"/>
+      <c r="S8" s="369"/>
+      <c r="T8" s="369"/>
+      <c r="U8" s="369"/>
+      <c r="V8" s="369"/>
+      <c r="W8" s="369"/>
+      <c r="X8" s="369"/>
+      <c r="Y8" s="369"/>
+      <c r="Z8" s="369"/>
+      <c r="AA8" s="369"/>
+      <c r="AB8" s="420"/>
+      <c r="AC8" s="368" t="s">
         <v>39</v>
       </c>
-      <c r="AD8" s="299"/>
-      <c r="AE8" s="365"/>
-      <c r="AF8" s="361"/>
-      <c r="AG8" s="362"/>
-      <c r="AH8" s="362"/>
-      <c r="AI8" s="363"/>
+      <c r="AD8" s="369"/>
+      <c r="AE8" s="370"/>
+      <c r="AF8" s="365"/>
+      <c r="AG8" s="366"/>
+      <c r="AH8" s="366"/>
+      <c r="AI8" s="367"/>
     </row>
     <row r="9" spans="1:36" s="94" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="93" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="281" t="s">
+      <c r="B9" s="415" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="295"/>
-      <c r="D9" s="295"/>
-      <c r="E9" s="295"/>
-      <c r="F9" s="296"/>
-      <c r="G9" s="281" t="s">
+      <c r="C9" s="261"/>
+      <c r="D9" s="261"/>
+      <c r="E9" s="261"/>
+      <c r="F9" s="262"/>
+      <c r="G9" s="415" t="s">
         <v>42</v>
       </c>
-      <c r="H9" s="282"/>
-      <c r="I9" s="283"/>
-      <c r="J9" s="281" t="s">
+      <c r="H9" s="416"/>
+      <c r="I9" s="418"/>
+      <c r="J9" s="415" t="s">
         <v>43</v>
       </c>
-      <c r="K9" s="282"/>
-      <c r="L9" s="282"/>
-      <c r="M9" s="282"/>
-      <c r="N9" s="282"/>
-      <c r="O9" s="282"/>
-      <c r="P9" s="283"/>
-      <c r="Q9" s="286" t="s">
+      <c r="K9" s="416"/>
+      <c r="L9" s="416"/>
+      <c r="M9" s="416"/>
+      <c r="N9" s="416"/>
+      <c r="O9" s="416"/>
+      <c r="P9" s="418"/>
+      <c r="Q9" s="433" t="s">
         <v>44</v>
       </c>
-      <c r="R9" s="288"/>
-      <c r="S9" s="286" t="s">
+      <c r="R9" s="435"/>
+      <c r="S9" s="433" t="s">
         <v>45</v>
       </c>
-      <c r="T9" s="287"/>
-      <c r="U9" s="288"/>
-      <c r="V9" s="281" t="s">
+      <c r="T9" s="434"/>
+      <c r="U9" s="435"/>
+      <c r="V9" s="415" t="s">
         <v>46</v>
       </c>
-      <c r="W9" s="282"/>
-      <c r="X9" s="282"/>
-      <c r="Y9" s="282"/>
-      <c r="Z9" s="282"/>
-      <c r="AA9" s="282"/>
-      <c r="AB9" s="297"/>
-      <c r="AC9" s="309" t="s">
+      <c r="W9" s="416"/>
+      <c r="X9" s="416"/>
+      <c r="Y9" s="416"/>
+      <c r="Z9" s="416"/>
+      <c r="AA9" s="416"/>
+      <c r="AB9" s="417"/>
+      <c r="AC9" s="427" t="s">
         <v>47</v>
       </c>
-      <c r="AD9" s="310"/>
-      <c r="AE9" s="310"/>
-      <c r="AF9" s="310"/>
-      <c r="AG9" s="310"/>
-      <c r="AH9" s="311" t="s">
+      <c r="AD9" s="428"/>
+      <c r="AE9" s="428"/>
+      <c r="AF9" s="428"/>
+      <c r="AG9" s="428"/>
+      <c r="AH9" s="429" t="s">
         <v>82</v>
       </c>
-      <c r="AI9" s="311"/>
+      <c r="AI9" s="429"/>
     </row>
     <row r="10" spans="1:36" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="95">
         <v>1</v>
       </c>
-      <c r="B10" s="348" t="s">
+      <c r="B10" s="378" t="s">
         <v>48</v>
       </c>
-      <c r="C10" s="349"/>
-      <c r="D10" s="349"/>
-      <c r="E10" s="349"/>
-      <c r="F10" s="350"/>
-      <c r="G10" s="306"/>
-      <c r="H10" s="307"/>
-      <c r="I10" s="308"/>
-      <c r="J10" s="290"/>
-      <c r="K10" s="291"/>
-      <c r="L10" s="291"/>
-      <c r="M10" s="291"/>
-      <c r="N10" s="291"/>
-      <c r="O10" s="291"/>
-      <c r="P10" s="292"/>
-      <c r="Q10" s="304"/>
-      <c r="R10" s="305"/>
-      <c r="S10" s="304"/>
-      <c r="T10" s="351"/>
-      <c r="U10" s="305"/>
-      <c r="V10" s="312"/>
-      <c r="W10" s="313"/>
-      <c r="X10" s="313"/>
-      <c r="Y10" s="313"/>
-      <c r="Z10" s="313"/>
-      <c r="AA10" s="313"/>
-      <c r="AB10" s="314"/>
-      <c r="AC10" s="343"/>
-      <c r="AD10" s="355"/>
-      <c r="AE10" s="356"/>
-      <c r="AF10" s="356"/>
-      <c r="AG10" s="357"/>
-      <c r="AH10" s="346"/>
-      <c r="AI10" s="347"/>
+      <c r="C10" s="379"/>
+      <c r="D10" s="379"/>
+      <c r="E10" s="379"/>
+      <c r="F10" s="380"/>
+      <c r="G10" s="424"/>
+      <c r="H10" s="425"/>
+      <c r="I10" s="426"/>
+      <c r="J10" s="436"/>
+      <c r="K10" s="437"/>
+      <c r="L10" s="437"/>
+      <c r="M10" s="437"/>
+      <c r="N10" s="437"/>
+      <c r="O10" s="437"/>
+      <c r="P10" s="438"/>
+      <c r="Q10" s="387"/>
+      <c r="R10" s="389"/>
+      <c r="S10" s="387"/>
+      <c r="T10" s="388"/>
+      <c r="U10" s="389"/>
+      <c r="V10" s="430"/>
+      <c r="W10" s="431"/>
+      <c r="X10" s="431"/>
+      <c r="Y10" s="431"/>
+      <c r="Z10" s="431"/>
+      <c r="AA10" s="431"/>
+      <c r="AB10" s="432"/>
+      <c r="AC10" s="412"/>
+      <c r="AD10" s="356"/>
+      <c r="AE10" s="357"/>
+      <c r="AF10" s="357"/>
+      <c r="AG10" s="358"/>
+      <c r="AH10" s="376"/>
+      <c r="AI10" s="377"/>
     </row>
     <row r="11" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="96">
         <v>2</v>
       </c>
-      <c r="B11" s="278"/>
-      <c r="C11" s="279"/>
-      <c r="D11" s="279"/>
-      <c r="E11" s="279"/>
-      <c r="F11" s="280"/>
-      <c r="G11" s="301"/>
-      <c r="H11" s="302"/>
-      <c r="I11" s="303"/>
-      <c r="J11" s="278"/>
-      <c r="K11" s="279"/>
-      <c r="L11" s="279"/>
-      <c r="M11" s="279"/>
-      <c r="N11" s="279"/>
-      <c r="O11" s="279"/>
-      <c r="P11" s="280"/>
-      <c r="Q11" s="284"/>
-      <c r="R11" s="285"/>
-      <c r="S11" s="284"/>
-      <c r="T11" s="289"/>
-      <c r="U11" s="285"/>
-      <c r="V11" s="315"/>
-      <c r="W11" s="316"/>
-      <c r="X11" s="316"/>
-      <c r="Y11" s="316"/>
-      <c r="Z11" s="316"/>
-      <c r="AA11" s="316"/>
-      <c r="AB11" s="317"/>
-      <c r="AC11" s="344"/>
-      <c r="AD11" s="358"/>
-      <c r="AE11" s="359"/>
-      <c r="AF11" s="359"/>
-      <c r="AG11" s="360"/>
-      <c r="AH11" s="293"/>
-      <c r="AI11" s="294"/>
+      <c r="B11" s="381"/>
+      <c r="C11" s="382"/>
+      <c r="D11" s="382"/>
+      <c r="E11" s="382"/>
+      <c r="F11" s="383"/>
+      <c r="G11" s="421"/>
+      <c r="H11" s="422"/>
+      <c r="I11" s="423"/>
+      <c r="J11" s="381"/>
+      <c r="K11" s="382"/>
+      <c r="L11" s="382"/>
+      <c r="M11" s="382"/>
+      <c r="N11" s="382"/>
+      <c r="O11" s="382"/>
+      <c r="P11" s="383"/>
+      <c r="Q11" s="390"/>
+      <c r="R11" s="392"/>
+      <c r="S11" s="390"/>
+      <c r="T11" s="391"/>
+      <c r="U11" s="392"/>
+      <c r="V11" s="373"/>
+      <c r="W11" s="374"/>
+      <c r="X11" s="374"/>
+      <c r="Y11" s="374"/>
+      <c r="Z11" s="374"/>
+      <c r="AA11" s="374"/>
+      <c r="AB11" s="375"/>
+      <c r="AC11" s="413"/>
+      <c r="AD11" s="359"/>
+      <c r="AE11" s="360"/>
+      <c r="AF11" s="360"/>
+      <c r="AG11" s="361"/>
+      <c r="AH11" s="371"/>
+      <c r="AI11" s="372"/>
     </row>
     <row r="12" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="96">
         <v>3</v>
       </c>
-      <c r="B12" s="278"/>
-      <c r="C12" s="279"/>
-      <c r="D12" s="279"/>
-      <c r="E12" s="279"/>
-      <c r="F12" s="280"/>
-      <c r="G12" s="301"/>
-      <c r="H12" s="302"/>
-      <c r="I12" s="303"/>
-      <c r="J12" s="278"/>
-      <c r="K12" s="279"/>
-      <c r="L12" s="279"/>
-      <c r="M12" s="279"/>
-      <c r="N12" s="279"/>
-      <c r="O12" s="279"/>
-      <c r="P12" s="280"/>
-      <c r="Q12" s="284"/>
-      <c r="R12" s="285"/>
-      <c r="S12" s="284"/>
-      <c r="T12" s="289"/>
-      <c r="U12" s="285"/>
-      <c r="V12" s="315"/>
-      <c r="W12" s="316"/>
-      <c r="X12" s="316"/>
-      <c r="Y12" s="316"/>
-      <c r="Z12" s="316"/>
-      <c r="AA12" s="316"/>
-      <c r="AB12" s="317"/>
-      <c r="AC12" s="344"/>
-      <c r="AD12" s="318"/>
-      <c r="AE12" s="319"/>
-      <c r="AF12" s="319"/>
-      <c r="AG12" s="320"/>
-      <c r="AH12" s="293"/>
-      <c r="AI12" s="294"/>
+      <c r="B12" s="381"/>
+      <c r="C12" s="382"/>
+      <c r="D12" s="382"/>
+      <c r="E12" s="382"/>
+      <c r="F12" s="383"/>
+      <c r="G12" s="421"/>
+      <c r="H12" s="422"/>
+      <c r="I12" s="423"/>
+      <c r="J12" s="381"/>
+      <c r="K12" s="382"/>
+      <c r="L12" s="382"/>
+      <c r="M12" s="382"/>
+      <c r="N12" s="382"/>
+      <c r="O12" s="382"/>
+      <c r="P12" s="383"/>
+      <c r="Q12" s="390"/>
+      <c r="R12" s="392"/>
+      <c r="S12" s="390"/>
+      <c r="T12" s="391"/>
+      <c r="U12" s="392"/>
+      <c r="V12" s="373"/>
+      <c r="W12" s="374"/>
+      <c r="X12" s="374"/>
+      <c r="Y12" s="374"/>
+      <c r="Z12" s="374"/>
+      <c r="AA12" s="374"/>
+      <c r="AB12" s="375"/>
+      <c r="AC12" s="413"/>
+      <c r="AD12" s="362"/>
+      <c r="AE12" s="363"/>
+      <c r="AF12" s="363"/>
+      <c r="AG12" s="364"/>
+      <c r="AH12" s="371"/>
+      <c r="AI12" s="372"/>
     </row>
     <row r="13" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="96">
         <v>4</v>
       </c>
-      <c r="B13" s="278"/>
-      <c r="C13" s="279"/>
-      <c r="D13" s="279"/>
-      <c r="E13" s="279"/>
-      <c r="F13" s="280"/>
-      <c r="G13" s="301"/>
-      <c r="H13" s="302"/>
-      <c r="I13" s="303"/>
-      <c r="J13" s="278"/>
-      <c r="K13" s="279"/>
-      <c r="L13" s="279"/>
-      <c r="M13" s="279"/>
-      <c r="N13" s="279"/>
-      <c r="O13" s="279"/>
-      <c r="P13" s="280"/>
-      <c r="Q13" s="284"/>
-      <c r="R13" s="285"/>
-      <c r="S13" s="284"/>
-      <c r="T13" s="289"/>
-      <c r="U13" s="285"/>
-      <c r="V13" s="315"/>
-      <c r="W13" s="316"/>
-      <c r="X13" s="316"/>
-      <c r="Y13" s="316"/>
-      <c r="Z13" s="316"/>
-      <c r="AA13" s="316"/>
-      <c r="AB13" s="317"/>
-      <c r="AC13" s="344"/>
-      <c r="AD13" s="318"/>
-      <c r="AE13" s="319"/>
-      <c r="AF13" s="319"/>
-      <c r="AG13" s="320"/>
-      <c r="AH13" s="293"/>
-      <c r="AI13" s="294"/>
+      <c r="B13" s="381"/>
+      <c r="C13" s="382"/>
+      <c r="D13" s="382"/>
+      <c r="E13" s="382"/>
+      <c r="F13" s="383"/>
+      <c r="G13" s="421"/>
+      <c r="H13" s="422"/>
+      <c r="I13" s="423"/>
+      <c r="J13" s="381"/>
+      <c r="K13" s="382"/>
+      <c r="L13" s="382"/>
+      <c r="M13" s="382"/>
+      <c r="N13" s="382"/>
+      <c r="O13" s="382"/>
+      <c r="P13" s="383"/>
+      <c r="Q13" s="390"/>
+      <c r="R13" s="392"/>
+      <c r="S13" s="390"/>
+      <c r="T13" s="391"/>
+      <c r="U13" s="392"/>
+      <c r="V13" s="373"/>
+      <c r="W13" s="374"/>
+      <c r="X13" s="374"/>
+      <c r="Y13" s="374"/>
+      <c r="Z13" s="374"/>
+      <c r="AA13" s="374"/>
+      <c r="AB13" s="375"/>
+      <c r="AC13" s="413"/>
+      <c r="AD13" s="362"/>
+      <c r="AE13" s="363"/>
+      <c r="AF13" s="363"/>
+      <c r="AG13" s="364"/>
+      <c r="AH13" s="371"/>
+      <c r="AI13" s="372"/>
     </row>
     <row r="14" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="96">
         <v>5</v>
       </c>
-      <c r="B14" s="335"/>
-      <c r="C14" s="336"/>
-      <c r="D14" s="336"/>
-      <c r="E14" s="336"/>
-      <c r="F14" s="337"/>
-      <c r="G14" s="278"/>
-      <c r="H14" s="279"/>
-      <c r="I14" s="280"/>
-      <c r="J14" s="278"/>
-      <c r="K14" s="279"/>
-      <c r="L14" s="279"/>
-      <c r="M14" s="279"/>
-      <c r="N14" s="279"/>
-      <c r="O14" s="279"/>
-      <c r="P14" s="280"/>
-      <c r="Q14" s="284"/>
-      <c r="R14" s="285"/>
-      <c r="S14" s="284"/>
-      <c r="T14" s="289"/>
-      <c r="U14" s="285"/>
-      <c r="V14" s="315"/>
-      <c r="W14" s="316"/>
-      <c r="X14" s="316"/>
-      <c r="Y14" s="316"/>
-      <c r="Z14" s="316"/>
-      <c r="AA14" s="316"/>
-      <c r="AB14" s="317"/>
-      <c r="AC14" s="344"/>
-      <c r="AD14" s="318"/>
-      <c r="AE14" s="319"/>
-      <c r="AF14" s="319"/>
-      <c r="AG14" s="320"/>
-      <c r="AH14" s="293"/>
-      <c r="AI14" s="294"/>
+      <c r="B14" s="384"/>
+      <c r="C14" s="385"/>
+      <c r="D14" s="385"/>
+      <c r="E14" s="385"/>
+      <c r="F14" s="386"/>
+      <c r="G14" s="381"/>
+      <c r="H14" s="382"/>
+      <c r="I14" s="383"/>
+      <c r="J14" s="381"/>
+      <c r="K14" s="382"/>
+      <c r="L14" s="382"/>
+      <c r="M14" s="382"/>
+      <c r="N14" s="382"/>
+      <c r="O14" s="382"/>
+      <c r="P14" s="383"/>
+      <c r="Q14" s="390"/>
+      <c r="R14" s="392"/>
+      <c r="S14" s="390"/>
+      <c r="T14" s="391"/>
+      <c r="U14" s="392"/>
+      <c r="V14" s="373"/>
+      <c r="W14" s="374"/>
+      <c r="X14" s="374"/>
+      <c r="Y14" s="374"/>
+      <c r="Z14" s="374"/>
+      <c r="AA14" s="374"/>
+      <c r="AB14" s="375"/>
+      <c r="AC14" s="413"/>
+      <c r="AD14" s="362"/>
+      <c r="AE14" s="363"/>
+      <c r="AF14" s="363"/>
+      <c r="AG14" s="364"/>
+      <c r="AH14" s="371"/>
+      <c r="AI14" s="372"/>
     </row>
     <row r="15" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="96">
         <v>6</v>
       </c>
-      <c r="B15" s="335"/>
-      <c r="C15" s="336"/>
-      <c r="D15" s="336"/>
-      <c r="E15" s="336"/>
-      <c r="F15" s="337"/>
-      <c r="G15" s="278"/>
-      <c r="H15" s="279"/>
-      <c r="I15" s="280"/>
-      <c r="J15" s="278"/>
-      <c r="K15" s="279"/>
-      <c r="L15" s="279"/>
-      <c r="M15" s="279"/>
-      <c r="N15" s="279"/>
-      <c r="O15" s="279"/>
-      <c r="P15" s="280"/>
-      <c r="Q15" s="284"/>
-      <c r="R15" s="285"/>
-      <c r="S15" s="284"/>
-      <c r="T15" s="289"/>
-      <c r="U15" s="285"/>
-      <c r="V15" s="315"/>
-      <c r="W15" s="316"/>
-      <c r="X15" s="316"/>
-      <c r="Y15" s="316"/>
-      <c r="Z15" s="316"/>
-      <c r="AA15" s="316"/>
-      <c r="AB15" s="317"/>
-      <c r="AC15" s="344"/>
-      <c r="AD15" s="318"/>
-      <c r="AE15" s="319"/>
-      <c r="AF15" s="319"/>
-      <c r="AG15" s="320"/>
-      <c r="AH15" s="293"/>
-      <c r="AI15" s="294"/>
+      <c r="B15" s="384"/>
+      <c r="C15" s="385"/>
+      <c r="D15" s="385"/>
+      <c r="E15" s="385"/>
+      <c r="F15" s="386"/>
+      <c r="G15" s="381"/>
+      <c r="H15" s="382"/>
+      <c r="I15" s="383"/>
+      <c r="J15" s="381"/>
+      <c r="K15" s="382"/>
+      <c r="L15" s="382"/>
+      <c r="M15" s="382"/>
+      <c r="N15" s="382"/>
+      <c r="O15" s="382"/>
+      <c r="P15" s="383"/>
+      <c r="Q15" s="390"/>
+      <c r="R15" s="392"/>
+      <c r="S15" s="390"/>
+      <c r="T15" s="391"/>
+      <c r="U15" s="392"/>
+      <c r="V15" s="373"/>
+      <c r="W15" s="374"/>
+      <c r="X15" s="374"/>
+      <c r="Y15" s="374"/>
+      <c r="Z15" s="374"/>
+      <c r="AA15" s="374"/>
+      <c r="AB15" s="375"/>
+      <c r="AC15" s="413"/>
+      <c r="AD15" s="362"/>
+      <c r="AE15" s="363"/>
+      <c r="AF15" s="363"/>
+      <c r="AG15" s="364"/>
+      <c r="AH15" s="371"/>
+      <c r="AI15" s="372"/>
     </row>
     <row r="16" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="97">
         <v>7</v>
       </c>
-      <c r="B16" s="335"/>
-      <c r="C16" s="336"/>
-      <c r="D16" s="336"/>
-      <c r="E16" s="336"/>
-      <c r="F16" s="337"/>
-      <c r="G16" s="278"/>
-      <c r="H16" s="279"/>
-      <c r="I16" s="280"/>
-      <c r="J16" s="278"/>
-      <c r="K16" s="279"/>
-      <c r="L16" s="279"/>
-      <c r="M16" s="279"/>
-      <c r="N16" s="279"/>
-      <c r="O16" s="279"/>
-      <c r="P16" s="280"/>
-      <c r="Q16" s="284"/>
-      <c r="R16" s="285"/>
-      <c r="S16" s="284"/>
-      <c r="T16" s="289"/>
-      <c r="U16" s="285"/>
-      <c r="V16" s="315"/>
-      <c r="W16" s="316"/>
-      <c r="X16" s="316"/>
-      <c r="Y16" s="316"/>
-      <c r="Z16" s="316"/>
-      <c r="AA16" s="316"/>
-      <c r="AB16" s="317"/>
-      <c r="AC16" s="344"/>
-      <c r="AD16" s="318"/>
-      <c r="AE16" s="319"/>
-      <c r="AF16" s="319"/>
-      <c r="AG16" s="320"/>
-      <c r="AH16" s="293"/>
-      <c r="AI16" s="294"/>
+      <c r="B16" s="384"/>
+      <c r="C16" s="385"/>
+      <c r="D16" s="385"/>
+      <c r="E16" s="385"/>
+      <c r="F16" s="386"/>
+      <c r="G16" s="381"/>
+      <c r="H16" s="382"/>
+      <c r="I16" s="383"/>
+      <c r="J16" s="381"/>
+      <c r="K16" s="382"/>
+      <c r="L16" s="382"/>
+      <c r="M16" s="382"/>
+      <c r="N16" s="382"/>
+      <c r="O16" s="382"/>
+      <c r="P16" s="383"/>
+      <c r="Q16" s="390"/>
+      <c r="R16" s="392"/>
+      <c r="S16" s="390"/>
+      <c r="T16" s="391"/>
+      <c r="U16" s="392"/>
+      <c r="V16" s="373"/>
+      <c r="W16" s="374"/>
+      <c r="X16" s="374"/>
+      <c r="Y16" s="374"/>
+      <c r="Z16" s="374"/>
+      <c r="AA16" s="374"/>
+      <c r="AB16" s="375"/>
+      <c r="AC16" s="413"/>
+      <c r="AD16" s="362"/>
+      <c r="AE16" s="363"/>
+      <c r="AF16" s="363"/>
+      <c r="AG16" s="364"/>
+      <c r="AH16" s="371"/>
+      <c r="AI16" s="372"/>
     </row>
     <row r="17" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="97">
         <v>8</v>
       </c>
-      <c r="B17" s="335"/>
-      <c r="C17" s="336"/>
-      <c r="D17" s="336"/>
-      <c r="E17" s="336"/>
-      <c r="F17" s="337"/>
-      <c r="G17" s="278"/>
-      <c r="H17" s="279"/>
-      <c r="I17" s="280"/>
-      <c r="J17" s="278"/>
-      <c r="K17" s="279"/>
-      <c r="L17" s="279"/>
-      <c r="M17" s="279"/>
-      <c r="N17" s="279"/>
-      <c r="O17" s="279"/>
-      <c r="P17" s="280"/>
-      <c r="Q17" s="284"/>
-      <c r="R17" s="285"/>
-      <c r="S17" s="284"/>
-      <c r="T17" s="289"/>
-      <c r="U17" s="285"/>
-      <c r="V17" s="315"/>
-      <c r="W17" s="316"/>
-      <c r="X17" s="316"/>
-      <c r="Y17" s="316"/>
-      <c r="Z17" s="316"/>
-      <c r="AA17" s="316"/>
-      <c r="AB17" s="317"/>
-      <c r="AC17" s="344"/>
-      <c r="AD17" s="318"/>
-      <c r="AE17" s="319"/>
-      <c r="AF17" s="319"/>
-      <c r="AG17" s="320"/>
-      <c r="AH17" s="293"/>
-      <c r="AI17" s="294"/>
+      <c r="B17" s="384"/>
+      <c r="C17" s="385"/>
+      <c r="D17" s="385"/>
+      <c r="E17" s="385"/>
+      <c r="F17" s="386"/>
+      <c r="G17" s="381"/>
+      <c r="H17" s="382"/>
+      <c r="I17" s="383"/>
+      <c r="J17" s="381"/>
+      <c r="K17" s="382"/>
+      <c r="L17" s="382"/>
+      <c r="M17" s="382"/>
+      <c r="N17" s="382"/>
+      <c r="O17" s="382"/>
+      <c r="P17" s="383"/>
+      <c r="Q17" s="390"/>
+      <c r="R17" s="392"/>
+      <c r="S17" s="390"/>
+      <c r="T17" s="391"/>
+      <c r="U17" s="392"/>
+      <c r="V17" s="373"/>
+      <c r="W17" s="374"/>
+      <c r="X17" s="374"/>
+      <c r="Y17" s="374"/>
+      <c r="Z17" s="374"/>
+      <c r="AA17" s="374"/>
+      <c r="AB17" s="375"/>
+      <c r="AC17" s="413"/>
+      <c r="AD17" s="362"/>
+      <c r="AE17" s="363"/>
+      <c r="AF17" s="363"/>
+      <c r="AG17" s="364"/>
+      <c r="AH17" s="371"/>
+      <c r="AI17" s="372"/>
     </row>
     <row r="18" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="98">
         <v>9</v>
       </c>
-      <c r="B18" s="338"/>
-      <c r="C18" s="339"/>
-      <c r="D18" s="339"/>
-      <c r="E18" s="339"/>
-      <c r="F18" s="340"/>
-      <c r="G18" s="332"/>
-      <c r="H18" s="333"/>
-      <c r="I18" s="334"/>
-      <c r="J18" s="332"/>
-      <c r="K18" s="333"/>
-      <c r="L18" s="333"/>
-      <c r="M18" s="333"/>
-      <c r="N18" s="333"/>
-      <c r="O18" s="333"/>
-      <c r="P18" s="334"/>
-      <c r="Q18" s="329"/>
-      <c r="R18" s="331"/>
-      <c r="S18" s="329"/>
-      <c r="T18" s="330"/>
-      <c r="U18" s="331"/>
-      <c r="V18" s="324"/>
-      <c r="W18" s="325"/>
-      <c r="X18" s="325"/>
-      <c r="Y18" s="325"/>
-      <c r="Z18" s="325"/>
-      <c r="AA18" s="325"/>
-      <c r="AB18" s="326"/>
-      <c r="AC18" s="345"/>
-      <c r="AD18" s="352"/>
-      <c r="AE18" s="353"/>
-      <c r="AF18" s="353"/>
-      <c r="AG18" s="354"/>
-      <c r="AH18" s="341"/>
-      <c r="AI18" s="342"/>
+      <c r="B18" s="407"/>
+      <c r="C18" s="408"/>
+      <c r="D18" s="408"/>
+      <c r="E18" s="408"/>
+      <c r="F18" s="409"/>
+      <c r="G18" s="404"/>
+      <c r="H18" s="405"/>
+      <c r="I18" s="406"/>
+      <c r="J18" s="404"/>
+      <c r="K18" s="405"/>
+      <c r="L18" s="405"/>
+      <c r="M18" s="405"/>
+      <c r="N18" s="405"/>
+      <c r="O18" s="405"/>
+      <c r="P18" s="406"/>
+      <c r="Q18" s="401"/>
+      <c r="R18" s="403"/>
+      <c r="S18" s="401"/>
+      <c r="T18" s="402"/>
+      <c r="U18" s="403"/>
+      <c r="V18" s="396"/>
+      <c r="W18" s="397"/>
+      <c r="X18" s="397"/>
+      <c r="Y18" s="397"/>
+      <c r="Z18" s="397"/>
+      <c r="AA18" s="397"/>
+      <c r="AB18" s="398"/>
+      <c r="AC18" s="414"/>
+      <c r="AD18" s="353"/>
+      <c r="AE18" s="354"/>
+      <c r="AF18" s="354"/>
+      <c r="AG18" s="355"/>
+      <c r="AH18" s="410"/>
+      <c r="AI18" s="411"/>
     </row>
     <row r="19" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="327"/>
-      <c r="B19" s="328"/>
-      <c r="C19" s="328"/>
-      <c r="D19" s="328"/>
-      <c r="E19" s="328"/>
-      <c r="F19" s="328"/>
+      <c r="A19" s="399"/>
+      <c r="B19" s="400"/>
+      <c r="C19" s="400"/>
+      <c r="D19" s="400"/>
+      <c r="E19" s="400"/>
+      <c r="F19" s="400"/>
       <c r="G19" s="99"/>
       <c r="H19" s="99"/>
       <c r="I19" s="99"/>
@@ -12121,23 +12121,23 @@
       <c r="AA19" s="99"/>
       <c r="AB19" s="99"/>
       <c r="AC19" s="100"/>
-      <c r="AD19" s="323"/>
-      <c r="AE19" s="323"/>
-      <c r="AF19" s="323"/>
-      <c r="AG19" s="323"/>
-      <c r="AH19" s="323"/>
+      <c r="AD19" s="395"/>
+      <c r="AE19" s="395"/>
+      <c r="AF19" s="395"/>
+      <c r="AG19" s="395"/>
+      <c r="AH19" s="395"/>
       <c r="AI19" s="35"/>
       <c r="AJ19" s="101"/>
     </row>
     <row r="20" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="321" t="s">
+      <c r="A20" s="393" t="s">
         <v>79</v>
       </c>
-      <c r="B20" s="322"/>
-      <c r="C20" s="322"/>
-      <c r="D20" s="322"/>
-      <c r="E20" s="322"/>
-      <c r="F20" s="322"/>
+      <c r="B20" s="394"/>
+      <c r="C20" s="394"/>
+      <c r="D20" s="394"/>
+      <c r="E20" s="394"/>
+      <c r="F20" s="394"/>
       <c r="G20" s="102"/>
       <c r="H20" s="103"/>
       <c r="I20" s="103"/>
@@ -12684,6 +12684,86 @@
     </row>
   </sheetData>
   <mergeCells count="104">
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="AH16:AI16"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="V9:AB9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="A8:AB8"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="AC9:AG9"/>
+    <mergeCell ref="AH9:AI9"/>
+    <mergeCell ref="V10:AB10"/>
+    <mergeCell ref="V11:AB11"/>
+    <mergeCell ref="AD16:AG16"/>
+    <mergeCell ref="AD17:AG17"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="AD19:AH19"/>
+    <mergeCell ref="V16:AB16"/>
+    <mergeCell ref="V17:AB17"/>
+    <mergeCell ref="V18:AB18"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="S18:U18"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="AH18:AI18"/>
+    <mergeCell ref="AC10:AC18"/>
+    <mergeCell ref="AH13:AI13"/>
+    <mergeCell ref="AH14:AI14"/>
+    <mergeCell ref="V15:AB15"/>
+    <mergeCell ref="AH10:AI10"/>
+    <mergeCell ref="AH11:AI11"/>
+    <mergeCell ref="AH12:AI12"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="S10:U10"/>
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="S12:U12"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="V12:AB12"/>
+    <mergeCell ref="AD15:AG15"/>
+    <mergeCell ref="AH15:AI15"/>
+    <mergeCell ref="V13:AB13"/>
     <mergeCell ref="AD18:AG18"/>
     <mergeCell ref="AD10:AG10"/>
     <mergeCell ref="AD11:AG11"/>
@@ -12708,86 +12788,6 @@
     <mergeCell ref="S1:Z3"/>
     <mergeCell ref="AH17:AI17"/>
     <mergeCell ref="V14:AB14"/>
-    <mergeCell ref="V15:AB15"/>
-    <mergeCell ref="AH10:AI10"/>
-    <mergeCell ref="AH11:AI11"/>
-    <mergeCell ref="AH12:AI12"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="S10:U10"/>
-    <mergeCell ref="S11:U11"/>
-    <mergeCell ref="S12:U12"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="V12:AB12"/>
-    <mergeCell ref="AD15:AG15"/>
-    <mergeCell ref="AH15:AI15"/>
-    <mergeCell ref="V13:AB13"/>
-    <mergeCell ref="AD16:AG16"/>
-    <mergeCell ref="AD17:AG17"/>
-    <mergeCell ref="A20:F20"/>
-    <mergeCell ref="AD19:AH19"/>
-    <mergeCell ref="V16:AB16"/>
-    <mergeCell ref="V17:AB17"/>
-    <mergeCell ref="V18:AB18"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="S18:U18"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="AH18:AI18"/>
-    <mergeCell ref="AC10:AC18"/>
-    <mergeCell ref="AH13:AI13"/>
-    <mergeCell ref="AH14:AI14"/>
-    <mergeCell ref="AH16:AI16"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="V9:AB9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="A8:AB8"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="AC9:AG9"/>
-    <mergeCell ref="AH9:AI9"/>
-    <mergeCell ref="V10:AB10"/>
-    <mergeCell ref="V11:AB11"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="S9:U9"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="S16:U16"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="J10:P10"/>
   </mergeCells>
   <phoneticPr fontId="10"/>
   <dataValidations count="2">
@@ -12828,163 +12828,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:96" s="31" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="220" t="str">
+      <c r="A1" s="303" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!A1")&lt;&gt;"",INDIRECT("'Revision history'!A1"),"")</f>
         <v>Project name</v>
       </c>
-      <c r="B1" s="221"/>
-      <c r="C1" s="221"/>
-      <c r="D1" s="222"/>
-      <c r="E1" s="223" t="str">
+      <c r="B1" s="305"/>
+      <c r="C1" s="305"/>
+      <c r="D1" s="304"/>
+      <c r="E1" s="251" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E1")&lt;&gt;"",INDIRECT("'Revision history'!E1"),"")</f>
         <v>Sample Project</v>
       </c>
-      <c r="F1" s="224"/>
-      <c r="G1" s="224"/>
-      <c r="H1" s="224"/>
-      <c r="I1" s="224"/>
-      <c r="J1" s="224"/>
-      <c r="K1" s="224"/>
-      <c r="L1" s="224"/>
-      <c r="M1" s="224"/>
-      <c r="N1" s="225"/>
-      <c r="O1" s="226" t="str">
+      <c r="F1" s="252"/>
+      <c r="G1" s="252"/>
+      <c r="H1" s="252"/>
+      <c r="I1" s="252"/>
+      <c r="J1" s="252"/>
+      <c r="K1" s="252"/>
+      <c r="L1" s="252"/>
+      <c r="M1" s="252"/>
+      <c r="N1" s="253"/>
+      <c r="O1" s="306" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!O1")&lt;&gt;"",INDIRECT("'Revision history'!O1"),"")</f>
         <v>Deliverable name</v>
       </c>
-      <c r="P1" s="227"/>
-      <c r="Q1" s="227"/>
-      <c r="R1" s="228"/>
-      <c r="S1" s="396" t="str">
+      <c r="P1" s="307"/>
+      <c r="Q1" s="307"/>
+      <c r="R1" s="308"/>
+      <c r="S1" s="288" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!S1")&lt;&gt;"",INDIRECT("'Revision history'!S1"),"")</f>
         <v>External Interface Design Document(JSON)</v>
       </c>
-      <c r="T1" s="397"/>
-      <c r="U1" s="397"/>
-      <c r="V1" s="397"/>
-      <c r="W1" s="397"/>
-      <c r="X1" s="397"/>
-      <c r="Y1" s="397"/>
-      <c r="Z1" s="398"/>
-      <c r="AA1" s="220" t="str">
+      <c r="T1" s="289"/>
+      <c r="U1" s="289"/>
+      <c r="V1" s="289"/>
+      <c r="W1" s="289"/>
+      <c r="X1" s="289"/>
+      <c r="Y1" s="289"/>
+      <c r="Z1" s="290"/>
+      <c r="AA1" s="303" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AA1")&lt;&gt;"",INDIRECT("'Revision history'!AA1"),"")</f>
         <v>Prepared by</v>
       </c>
-      <c r="AB1" s="222"/>
-      <c r="AC1" s="459" t="str">
+      <c r="AB1" s="304"/>
+      <c r="AC1" s="300" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC1")&lt;&gt;"",INDIRECT("'Revision history'!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="460"/>
-      <c r="AE1" s="460"/>
-      <c r="AF1" s="461"/>
-      <c r="AG1" s="234">
+      <c r="AD1" s="301"/>
+      <c r="AE1" s="301"/>
+      <c r="AF1" s="302"/>
+      <c r="AG1" s="297">
         <f ca="1">IF(INDIRECT("'Revision history'!AG1")&lt;&gt;"",INDIRECT("'Revision history'!AG1"),"")</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="235"/>
-      <c r="AI1" s="236"/>
+      <c r="AH1" s="298"/>
+      <c r="AI1" s="299"/>
     </row>
     <row r="2" spans="1:96" s="31" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="220" t="str">
+      <c r="A2" s="303" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!A2")&lt;&gt;"",INDIRECT("'Revision history'!A2"),"")</f>
         <v>System name</v>
       </c>
-      <c r="B2" s="221"/>
-      <c r="C2" s="221"/>
-      <c r="D2" s="222"/>
-      <c r="E2" s="223" t="str">
+      <c r="B2" s="305"/>
+      <c r="C2" s="305"/>
+      <c r="D2" s="304"/>
+      <c r="E2" s="251" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E2")&lt;&gt;"",INDIRECT("'Revision history'!E2"),"")</f>
         <v>Sample System</v>
       </c>
-      <c r="F2" s="224"/>
-      <c r="G2" s="224"/>
-      <c r="H2" s="224"/>
-      <c r="I2" s="224"/>
-      <c r="J2" s="224"/>
-      <c r="K2" s="224"/>
-      <c r="L2" s="224"/>
-      <c r="M2" s="224"/>
-      <c r="N2" s="225"/>
-      <c r="O2" s="229"/>
-      <c r="P2" s="462"/>
-      <c r="Q2" s="462"/>
-      <c r="R2" s="230"/>
-      <c r="S2" s="402"/>
-      <c r="T2" s="403"/>
-      <c r="U2" s="403"/>
-      <c r="V2" s="403"/>
-      <c r="W2" s="403"/>
-      <c r="X2" s="403"/>
-      <c r="Y2" s="403"/>
-      <c r="Z2" s="404"/>
-      <c r="AA2" s="220" t="str">
+      <c r="F2" s="252"/>
+      <c r="G2" s="252"/>
+      <c r="H2" s="252"/>
+      <c r="I2" s="252"/>
+      <c r="J2" s="252"/>
+      <c r="K2" s="252"/>
+      <c r="L2" s="252"/>
+      <c r="M2" s="252"/>
+      <c r="N2" s="253"/>
+      <c r="O2" s="309"/>
+      <c r="P2" s="310"/>
+      <c r="Q2" s="310"/>
+      <c r="R2" s="311"/>
+      <c r="S2" s="291"/>
+      <c r="T2" s="292"/>
+      <c r="U2" s="292"/>
+      <c r="V2" s="292"/>
+      <c r="W2" s="292"/>
+      <c r="X2" s="292"/>
+      <c r="Y2" s="292"/>
+      <c r="Z2" s="293"/>
+      <c r="AA2" s="303" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AA2")&lt;&gt;"",INDIRECT("'Revision history'!AA2"),"")</f>
         <v>Changes</v>
       </c>
-      <c r="AB2" s="222"/>
-      <c r="AC2" s="459" t="str">
+      <c r="AB2" s="304"/>
+      <c r="AC2" s="300" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC2")&lt;&gt;"",INDIRECT("'Revision history'!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="460"/>
-      <c r="AE2" s="460"/>
-      <c r="AF2" s="461"/>
-      <c r="AG2" s="234" t="str">
+      <c r="AD2" s="301"/>
+      <c r="AE2" s="301"/>
+      <c r="AF2" s="302"/>
+      <c r="AG2" s="297" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AG2")&lt;&gt;"",INDIRECT("'Revision history'!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="235"/>
-      <c r="AI2" s="236"/>
+      <c r="AH2" s="298"/>
+      <c r="AI2" s="299"/>
     </row>
     <row r="3" spans="1:96" s="31" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="220" t="str">
+      <c r="A3" s="303" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!A3")&lt;&gt;"",INDIRECT("'Revision history'!A3"),"")</f>
         <v>Sub-system name</v>
       </c>
-      <c r="B3" s="221"/>
-      <c r="C3" s="221"/>
-      <c r="D3" s="222"/>
-      <c r="E3" s="223" t="str">
+      <c r="B3" s="305"/>
+      <c r="C3" s="305"/>
+      <c r="D3" s="304"/>
+      <c r="E3" s="251" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E3")&lt;&gt;"",INDIRECT("'Revision history'!E3"),"")</f>
         <v>Client Management System</v>
       </c>
-      <c r="F3" s="224"/>
-      <c r="G3" s="224"/>
-      <c r="H3" s="224"/>
-      <c r="I3" s="224"/>
-      <c r="J3" s="224"/>
-      <c r="K3" s="224"/>
-      <c r="L3" s="224"/>
-      <c r="M3" s="224"/>
-      <c r="N3" s="225"/>
-      <c r="O3" s="231"/>
-      <c r="P3" s="232"/>
-      <c r="Q3" s="232"/>
-      <c r="R3" s="233"/>
-      <c r="S3" s="408"/>
-      <c r="T3" s="409"/>
-      <c r="U3" s="409"/>
-      <c r="V3" s="409"/>
-      <c r="W3" s="409"/>
-      <c r="X3" s="409"/>
-      <c r="Y3" s="409"/>
-      <c r="Z3" s="410"/>
-      <c r="AA3" s="220"/>
-      <c r="AB3" s="222"/>
-      <c r="AC3" s="459" t="str">
+      <c r="F3" s="252"/>
+      <c r="G3" s="252"/>
+      <c r="H3" s="252"/>
+      <c r="I3" s="252"/>
+      <c r="J3" s="252"/>
+      <c r="K3" s="252"/>
+      <c r="L3" s="252"/>
+      <c r="M3" s="252"/>
+      <c r="N3" s="253"/>
+      <c r="O3" s="312"/>
+      <c r="P3" s="313"/>
+      <c r="Q3" s="313"/>
+      <c r="R3" s="314"/>
+      <c r="S3" s="294"/>
+      <c r="T3" s="295"/>
+      <c r="U3" s="295"/>
+      <c r="V3" s="295"/>
+      <c r="W3" s="295"/>
+      <c r="X3" s="295"/>
+      <c r="Y3" s="295"/>
+      <c r="Z3" s="296"/>
+      <c r="AA3" s="303"/>
+      <c r="AB3" s="304"/>
+      <c r="AC3" s="300" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC3")&lt;&gt;"",INDIRECT("'Revision history'!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="460"/>
-      <c r="AE3" s="460"/>
-      <c r="AF3" s="461"/>
-      <c r="AG3" s="234" t="str">
+      <c r="AD3" s="301"/>
+      <c r="AE3" s="301"/>
+      <c r="AF3" s="302"/>
+      <c r="AG3" s="297" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AG3")&lt;&gt;"",INDIRECT("'Revision history'!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="235"/>
-      <c r="AI3" s="236"/>
+      <c r="AH3" s="298"/>
+      <c r="AI3" s="299"/>
     </row>
     <row r="4" spans="1:96" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -13030,60 +13030,60 @@
       <c r="A7" s="209" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="371" t="s">
+      <c r="B7" s="439" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="372"/>
-      <c r="D7" s="372"/>
-      <c r="E7" s="372"/>
-      <c r="F7" s="373"/>
-      <c r="G7" s="371" t="s">
+      <c r="C7" s="440"/>
+      <c r="D7" s="440"/>
+      <c r="E7" s="440"/>
+      <c r="F7" s="441"/>
+      <c r="G7" s="439" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="372"/>
-      <c r="I7" s="372"/>
-      <c r="J7" s="372"/>
-      <c r="K7" s="373"/>
-      <c r="L7" s="371" t="s">
+      <c r="H7" s="440"/>
+      <c r="I7" s="440"/>
+      <c r="J7" s="440"/>
+      <c r="K7" s="441"/>
+      <c r="L7" s="439" t="s">
         <v>23</v>
       </c>
-      <c r="M7" s="372"/>
-      <c r="N7" s="372"/>
-      <c r="O7" s="372"/>
-      <c r="P7" s="373"/>
+      <c r="M7" s="440"/>
+      <c r="N7" s="440"/>
+      <c r="O7" s="440"/>
+      <c r="P7" s="441"/>
       <c r="Q7" s="210" t="s">
         <v>83</v>
       </c>
-      <c r="R7" s="374" t="s">
+      <c r="R7" s="462" t="s">
         <v>24</v>
       </c>
-      <c r="S7" s="374"/>
-      <c r="T7" s="374"/>
-      <c r="U7" s="374"/>
-      <c r="V7" s="369" t="s">
+      <c r="S7" s="462"/>
+      <c r="T7" s="462"/>
+      <c r="U7" s="462"/>
+      <c r="V7" s="454" t="s">
         <v>25</v>
       </c>
-      <c r="W7" s="370"/>
-      <c r="X7" s="369" t="s">
+      <c r="W7" s="455"/>
+      <c r="X7" s="454" t="s">
         <v>26</v>
       </c>
-      <c r="Y7" s="370"/>
-      <c r="Z7" s="371" t="s">
+      <c r="Y7" s="455"/>
+      <c r="Z7" s="439" t="s">
         <v>27</v>
       </c>
-      <c r="AA7" s="372"/>
-      <c r="AB7" s="373"/>
-      <c r="AC7" s="371" t="s">
+      <c r="AA7" s="440"/>
+      <c r="AB7" s="441"/>
+      <c r="AC7" s="439" t="s">
         <v>28</v>
       </c>
-      <c r="AD7" s="372"/>
-      <c r="AE7" s="372"/>
-      <c r="AF7" s="372"/>
-      <c r="AG7" s="372"/>
-      <c r="AH7" s="372"/>
-      <c r="AI7" s="372"/>
-      <c r="AJ7" s="372"/>
-      <c r="AK7" s="373"/>
+      <c r="AD7" s="440"/>
+      <c r="AE7" s="440"/>
+      <c r="AF7" s="440"/>
+      <c r="AG7" s="440"/>
+      <c r="AH7" s="440"/>
+      <c r="AI7" s="440"/>
+      <c r="AJ7" s="440"/>
+      <c r="AK7" s="441"/>
       <c r="AL7" s="211"/>
       <c r="AM7" s="211"/>
       <c r="AN7" s="211"/>
@@ -13143,46 +13143,46 @@
       <c r="A8" s="37">
         <v>1</v>
       </c>
-      <c r="B8" s="366" t="s">
+      <c r="B8" s="442" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="367"/>
-      <c r="D8" s="367"/>
-      <c r="E8" s="367"/>
-      <c r="F8" s="368"/>
-      <c r="G8" s="385" t="s">
+      <c r="C8" s="443"/>
+      <c r="D8" s="443"/>
+      <c r="E8" s="443"/>
+      <c r="F8" s="444"/>
+      <c r="G8" s="451" t="s">
         <v>30</v>
       </c>
-      <c r="H8" s="386"/>
-      <c r="I8" s="386"/>
-      <c r="J8" s="386"/>
-      <c r="K8" s="387"/>
-      <c r="L8" s="366"/>
-      <c r="M8" s="367"/>
-      <c r="N8" s="367"/>
-      <c r="O8" s="367"/>
-      <c r="P8" s="368"/>
+      <c r="H8" s="452"/>
+      <c r="I8" s="452"/>
+      <c r="J8" s="452"/>
+      <c r="K8" s="453"/>
+      <c r="L8" s="442"/>
+      <c r="M8" s="443"/>
+      <c r="N8" s="443"/>
+      <c r="O8" s="443"/>
+      <c r="P8" s="444"/>
       <c r="Q8" s="38"/>
-      <c r="R8" s="366"/>
-      <c r="S8" s="367"/>
-      <c r="T8" s="367"/>
-      <c r="U8" s="368"/>
-      <c r="V8" s="375"/>
-      <c r="W8" s="376"/>
-      <c r="X8" s="388"/>
-      <c r="Y8" s="389"/>
-      <c r="Z8" s="366"/>
-      <c r="AA8" s="367"/>
-      <c r="AB8" s="368"/>
-      <c r="AC8" s="366"/>
-      <c r="AD8" s="367"/>
-      <c r="AE8" s="367"/>
-      <c r="AF8" s="367"/>
-      <c r="AG8" s="367"/>
-      <c r="AH8" s="367"/>
-      <c r="AI8" s="367"/>
-      <c r="AJ8" s="367"/>
-      <c r="AK8" s="368"/>
+      <c r="R8" s="442"/>
+      <c r="S8" s="443"/>
+      <c r="T8" s="443"/>
+      <c r="U8" s="444"/>
+      <c r="V8" s="447"/>
+      <c r="W8" s="448"/>
+      <c r="X8" s="445"/>
+      <c r="Y8" s="446"/>
+      <c r="Z8" s="442"/>
+      <c r="AA8" s="443"/>
+      <c r="AB8" s="444"/>
+      <c r="AC8" s="442"/>
+      <c r="AD8" s="443"/>
+      <c r="AE8" s="443"/>
+      <c r="AF8" s="443"/>
+      <c r="AG8" s="443"/>
+      <c r="AH8" s="443"/>
+      <c r="AI8" s="443"/>
+      <c r="AJ8" s="443"/>
+      <c r="AK8" s="444"/>
       <c r="AL8" s="36"/>
       <c r="AM8" s="36"/>
       <c r="AN8" s="36"/>
@@ -13241,54 +13241,54 @@
       <c r="A9" s="37">
         <v>2</v>
       </c>
-      <c r="B9" s="366" t="s">
+      <c r="B9" s="442" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="367"/>
-      <c r="D9" s="367"/>
-      <c r="E9" s="367"/>
-      <c r="F9" s="368"/>
-      <c r="G9" s="385" t="s">
+      <c r="C9" s="443"/>
+      <c r="D9" s="443"/>
+      <c r="E9" s="443"/>
+      <c r="F9" s="444"/>
+      <c r="G9" s="451" t="s">
         <v>32</v>
       </c>
-      <c r="H9" s="386"/>
-      <c r="I9" s="386"/>
-      <c r="J9" s="386"/>
-      <c r="K9" s="387"/>
-      <c r="L9" s="366" t="s">
+      <c r="H9" s="452"/>
+      <c r="I9" s="452"/>
+      <c r="J9" s="452"/>
+      <c r="K9" s="453"/>
+      <c r="L9" s="442" t="s">
         <v>31</v>
       </c>
-      <c r="M9" s="367"/>
-      <c r="N9" s="367"/>
-      <c r="O9" s="367"/>
-      <c r="P9" s="368"/>
+      <c r="M9" s="443"/>
+      <c r="N9" s="443"/>
+      <c r="O9" s="443"/>
+      <c r="P9" s="444"/>
       <c r="Q9" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="R9" s="366" t="s">
+      <c r="R9" s="442" t="s">
         <v>33</v>
       </c>
-      <c r="S9" s="367"/>
-      <c r="T9" s="367"/>
-      <c r="U9" s="368"/>
-      <c r="V9" s="375">
+      <c r="S9" s="443"/>
+      <c r="T9" s="443"/>
+      <c r="U9" s="444"/>
+      <c r="V9" s="447">
         <v>1</v>
       </c>
-      <c r="W9" s="376"/>
-      <c r="X9" s="388"/>
-      <c r="Y9" s="389"/>
-      <c r="Z9" s="366"/>
-      <c r="AA9" s="367"/>
-      <c r="AB9" s="368"/>
-      <c r="AC9" s="366"/>
-      <c r="AD9" s="367"/>
-      <c r="AE9" s="367"/>
-      <c r="AF9" s="367"/>
-      <c r="AG9" s="367"/>
-      <c r="AH9" s="367"/>
-      <c r="AI9" s="367"/>
-      <c r="AJ9" s="367"/>
-      <c r="AK9" s="368"/>
+      <c r="W9" s="448"/>
+      <c r="X9" s="445"/>
+      <c r="Y9" s="446"/>
+      <c r="Z9" s="442"/>
+      <c r="AA9" s="443"/>
+      <c r="AB9" s="444"/>
+      <c r="AC9" s="442"/>
+      <c r="AD9" s="443"/>
+      <c r="AE9" s="443"/>
+      <c r="AF9" s="443"/>
+      <c r="AG9" s="443"/>
+      <c r="AH9" s="443"/>
+      <c r="AI9" s="443"/>
+      <c r="AJ9" s="443"/>
+      <c r="AK9" s="444"/>
       <c r="AL9" s="36"/>
       <c r="AM9" s="36"/>
       <c r="AN9" s="36"/>
@@ -13347,54 +13347,54 @@
       <c r="A10" s="37">
         <v>3</v>
       </c>
-      <c r="B10" s="366" t="s">
+      <c r="B10" s="442" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="367"/>
-      <c r="D10" s="367"/>
-      <c r="E10" s="367"/>
-      <c r="F10" s="368"/>
-      <c r="G10" s="385" t="s">
+      <c r="C10" s="443"/>
+      <c r="D10" s="443"/>
+      <c r="E10" s="443"/>
+      <c r="F10" s="444"/>
+      <c r="G10" s="451" t="s">
         <v>35</v>
       </c>
-      <c r="H10" s="386"/>
-      <c r="I10" s="386"/>
-      <c r="J10" s="386"/>
-      <c r="K10" s="387"/>
-      <c r="L10" s="366" t="s">
+      <c r="H10" s="452"/>
+      <c r="I10" s="452"/>
+      <c r="J10" s="452"/>
+      <c r="K10" s="453"/>
+      <c r="L10" s="442" t="s">
         <v>34</v>
       </c>
-      <c r="M10" s="367"/>
-      <c r="N10" s="367"/>
-      <c r="O10" s="367"/>
-      <c r="P10" s="368"/>
+      <c r="M10" s="443"/>
+      <c r="N10" s="443"/>
+      <c r="O10" s="443"/>
+      <c r="P10" s="444"/>
       <c r="Q10" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="R10" s="366" t="s">
+      <c r="R10" s="442" t="s">
         <v>36</v>
       </c>
-      <c r="S10" s="367"/>
-      <c r="T10" s="367"/>
-      <c r="U10" s="368"/>
-      <c r="V10" s="375">
+      <c r="S10" s="443"/>
+      <c r="T10" s="443"/>
+      <c r="U10" s="444"/>
+      <c r="V10" s="447">
         <v>1</v>
       </c>
-      <c r="W10" s="376"/>
-      <c r="X10" s="382"/>
-      <c r="Y10" s="384"/>
-      <c r="Z10" s="366"/>
-      <c r="AA10" s="367"/>
-      <c r="AB10" s="368"/>
-      <c r="AC10" s="366"/>
-      <c r="AD10" s="367"/>
-      <c r="AE10" s="367"/>
-      <c r="AF10" s="367"/>
-      <c r="AG10" s="367"/>
-      <c r="AH10" s="367"/>
-      <c r="AI10" s="367"/>
-      <c r="AJ10" s="367"/>
-      <c r="AK10" s="368"/>
+      <c r="W10" s="448"/>
+      <c r="X10" s="449"/>
+      <c r="Y10" s="450"/>
+      <c r="Z10" s="442"/>
+      <c r="AA10" s="443"/>
+      <c r="AB10" s="444"/>
+      <c r="AC10" s="442"/>
+      <c r="AD10" s="443"/>
+      <c r="AE10" s="443"/>
+      <c r="AF10" s="443"/>
+      <c r="AG10" s="443"/>
+      <c r="AH10" s="443"/>
+      <c r="AI10" s="443"/>
+      <c r="AJ10" s="443"/>
+      <c r="AK10" s="444"/>
       <c r="AL10" s="36"/>
       <c r="AM10" s="36"/>
       <c r="AN10" s="36"/>
@@ -13453,40 +13453,40 @@
       <c r="A11" s="37">
         <v>4</v>
       </c>
-      <c r="B11" s="366" t="s">
+      <c r="B11" s="442" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="367"/>
-      <c r="D11" s="367"/>
-      <c r="E11" s="367"/>
-      <c r="F11" s="368"/>
-      <c r="G11" s="385" t="s">
+      <c r="C11" s="443"/>
+      <c r="D11" s="443"/>
+      <c r="E11" s="443"/>
+      <c r="F11" s="444"/>
+      <c r="G11" s="451" t="s">
         <v>38</v>
       </c>
-      <c r="H11" s="386"/>
-      <c r="I11" s="386"/>
-      <c r="J11" s="386"/>
-      <c r="K11" s="387"/>
-      <c r="L11" s="366" t="s">
+      <c r="H11" s="452"/>
+      <c r="I11" s="452"/>
+      <c r="J11" s="452"/>
+      <c r="K11" s="453"/>
+      <c r="L11" s="442" t="s">
         <v>37</v>
       </c>
-      <c r="M11" s="367"/>
-      <c r="N11" s="367"/>
-      <c r="O11" s="367"/>
-      <c r="P11" s="368"/>
+      <c r="M11" s="443"/>
+      <c r="N11" s="443"/>
+      <c r="O11" s="443"/>
+      <c r="P11" s="444"/>
       <c r="Q11" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="R11" s="366" t="s">
+      <c r="R11" s="442" t="s">
         <v>33</v>
       </c>
-      <c r="S11" s="367"/>
-      <c r="T11" s="367"/>
-      <c r="U11" s="368"/>
-      <c r="V11" s="375">
+      <c r="S11" s="443"/>
+      <c r="T11" s="443"/>
+      <c r="U11" s="444"/>
+      <c r="V11" s="447">
         <v>1</v>
       </c>
-      <c r="W11" s="376"/>
+      <c r="W11" s="448"/>
       <c r="X11" s="39"/>
       <c r="Y11" s="40"/>
       <c r="Z11" s="41"/>
@@ -13557,28 +13557,28 @@
     </row>
     <row r="12" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="37"/>
-      <c r="B12" s="366"/>
-      <c r="C12" s="367"/>
-      <c r="D12" s="367"/>
-      <c r="E12" s="367"/>
-      <c r="F12" s="368"/>
-      <c r="G12" s="382"/>
-      <c r="H12" s="383"/>
-      <c r="I12" s="383"/>
-      <c r="J12" s="383"/>
-      <c r="K12" s="384"/>
-      <c r="L12" s="382"/>
-      <c r="M12" s="383"/>
-      <c r="N12" s="383"/>
-      <c r="O12" s="383"/>
-      <c r="P12" s="384"/>
+      <c r="B12" s="442"/>
+      <c r="C12" s="443"/>
+      <c r="D12" s="443"/>
+      <c r="E12" s="443"/>
+      <c r="F12" s="444"/>
+      <c r="G12" s="449"/>
+      <c r="H12" s="461"/>
+      <c r="I12" s="461"/>
+      <c r="J12" s="461"/>
+      <c r="K12" s="450"/>
+      <c r="L12" s="449"/>
+      <c r="M12" s="461"/>
+      <c r="N12" s="461"/>
+      <c r="O12" s="461"/>
+      <c r="P12" s="450"/>
       <c r="Q12" s="38"/>
-      <c r="R12" s="366"/>
-      <c r="S12" s="367"/>
-      <c r="T12" s="367"/>
-      <c r="U12" s="368"/>
-      <c r="V12" s="375"/>
-      <c r="W12" s="376"/>
+      <c r="R12" s="442"/>
+      <c r="S12" s="443"/>
+      <c r="T12" s="443"/>
+      <c r="U12" s="444"/>
+      <c r="V12" s="447"/>
+      <c r="W12" s="448"/>
       <c r="X12" s="39"/>
       <c r="Y12" s="40"/>
       <c r="Z12" s="41"/>
@@ -13852,47 +13852,47 @@
       <c r="CR16" s="51"/>
     </row>
     <row r="17" spans="1:96" s="57" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="377" t="s">
+      <c r="A17" s="456" t="s">
         <v>80</v>
       </c>
-      <c r="B17" s="378"/>
-      <c r="C17" s="378"/>
-      <c r="D17" s="378"/>
-      <c r="E17" s="378"/>
-      <c r="F17" s="378"/>
-      <c r="G17" s="378"/>
-      <c r="H17" s="378"/>
-      <c r="I17" s="378"/>
-      <c r="J17" s="378"/>
-      <c r="K17" s="378"/>
-      <c r="L17" s="378"/>
-      <c r="M17" s="378"/>
-      <c r="N17" s="378"/>
-      <c r="O17" s="378"/>
-      <c r="P17" s="378"/>
-      <c r="Q17" s="378"/>
-      <c r="R17" s="378"/>
-      <c r="S17" s="378"/>
-      <c r="T17" s="378"/>
-      <c r="U17" s="378"/>
-      <c r="V17" s="378"/>
-      <c r="W17" s="378"/>
-      <c r="X17" s="378"/>
-      <c r="Y17" s="379" t="s">
+      <c r="B17" s="457"/>
+      <c r="C17" s="457"/>
+      <c r="D17" s="457"/>
+      <c r="E17" s="457"/>
+      <c r="F17" s="457"/>
+      <c r="G17" s="457"/>
+      <c r="H17" s="457"/>
+      <c r="I17" s="457"/>
+      <c r="J17" s="457"/>
+      <c r="K17" s="457"/>
+      <c r="L17" s="457"/>
+      <c r="M17" s="457"/>
+      <c r="N17" s="457"/>
+      <c r="O17" s="457"/>
+      <c r="P17" s="457"/>
+      <c r="Q17" s="457"/>
+      <c r="R17" s="457"/>
+      <c r="S17" s="457"/>
+      <c r="T17" s="457"/>
+      <c r="U17" s="457"/>
+      <c r="V17" s="457"/>
+      <c r="W17" s="457"/>
+      <c r="X17" s="457"/>
+      <c r="Y17" s="458" t="s">
         <v>81</v>
       </c>
-      <c r="Z17" s="380"/>
-      <c r="AA17" s="380"/>
-      <c r="AB17" s="380"/>
-      <c r="AC17" s="380"/>
-      <c r="AD17" s="380"/>
-      <c r="AE17" s="380"/>
-      <c r="AF17" s="380"/>
-      <c r="AG17" s="380"/>
-      <c r="AH17" s="380"/>
-      <c r="AI17" s="380"/>
-      <c r="AJ17" s="380"/>
-      <c r="AK17" s="381"/>
+      <c r="Z17" s="459"/>
+      <c r="AA17" s="459"/>
+      <c r="AB17" s="459"/>
+      <c r="AC17" s="459"/>
+      <c r="AD17" s="459"/>
+      <c r="AE17" s="459"/>
+      <c r="AF17" s="459"/>
+      <c r="AG17" s="459"/>
+      <c r="AH17" s="459"/>
+      <c r="AI17" s="459"/>
+      <c r="AJ17" s="459"/>
+      <c r="AK17" s="460"/>
     </row>
     <row r="18" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="58"/>
@@ -14539,11 +14539,46 @@
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="AC7:AK7"/>
-    <mergeCell ref="AC9:AK9"/>
-    <mergeCell ref="AC10:AK10"/>
-    <mergeCell ref="Z10:AB10"/>
-    <mergeCell ref="Z7:AB7"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="R8:U8"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="G7:K7"/>
+    <mergeCell ref="L7:P7"/>
+    <mergeCell ref="R7:U7"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="A17:X17"/>
+    <mergeCell ref="Y17:AK17"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="AC8:AK8"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="L12:P12"/>
+    <mergeCell ref="V11:W11"/>
+    <mergeCell ref="V12:W12"/>
+    <mergeCell ref="R11:U11"/>
+    <mergeCell ref="R12:U12"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="L11:P11"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="Z9:AB9"/>
+    <mergeCell ref="R9:U9"/>
+    <mergeCell ref="R10:U10"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="X8:Y8"/>
+    <mergeCell ref="Z8:AB8"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="L10:P10"/>
+    <mergeCell ref="V10:W10"/>
+    <mergeCell ref="X10:Y10"/>
+    <mergeCell ref="L9:P9"/>
+    <mergeCell ref="V9:W9"/>
+    <mergeCell ref="X9:Y9"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="L8:P8"/>
+    <mergeCell ref="X7:Y7"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AC2:AF2"/>
     <mergeCell ref="AG2:AI2"/>
@@ -14560,46 +14595,11 @@
     <mergeCell ref="AA2:AB2"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="X8:Y8"/>
-    <mergeCell ref="Z8:AB8"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="L10:P10"/>
-    <mergeCell ref="V10:W10"/>
-    <mergeCell ref="X10:Y10"/>
-    <mergeCell ref="L9:P9"/>
-    <mergeCell ref="V9:W9"/>
-    <mergeCell ref="X9:Y9"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="L8:P8"/>
-    <mergeCell ref="X7:Y7"/>
-    <mergeCell ref="A17:X17"/>
-    <mergeCell ref="Y17:AK17"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="AC8:AK8"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="L12:P12"/>
-    <mergeCell ref="V11:W11"/>
-    <mergeCell ref="V12:W12"/>
-    <mergeCell ref="R11:U11"/>
-    <mergeCell ref="R12:U12"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="L11:P11"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="Z9:AB9"/>
-    <mergeCell ref="R9:U9"/>
-    <mergeCell ref="R10:U10"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="R8:U8"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="G7:K7"/>
-    <mergeCell ref="L7:P7"/>
-    <mergeCell ref="R7:U7"/>
-    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="AC7:AK7"/>
+    <mergeCell ref="AC9:AK9"/>
+    <mergeCell ref="AC10:AK10"/>
+    <mergeCell ref="Z10:AB10"/>
+    <mergeCell ref="Z7:AB7"/>
   </mergeCells>
   <phoneticPr fontId="12"/>
   <dataValidations count="1">

--- a/en/Sample_Project/Design_Document/B1_Client_Management_System/030_Application_Design/030_Interface_Design/External_Interface_Design_Document_B10102P_Detailed_Client_Acquisition_Respons.xlsx
+++ b/en/Sample_Project/Design_Document/B1_Client_Management_System/030_Application_Design/030_Interface_Design/External_Interface_Design_Document_B10102P_Detailed_Client_Acquisition_Respons.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2FD1BCF-9F0D-4A28-BEC9-BE2EE2DA4F64}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45305410-0B1B-4299-A084-27066B3D94B1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="930" windowWidth="28740" windowHeight="10125" tabRatio="641" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="641" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="59" r:id="rId1"/>
@@ -13,19 +13,19 @@
     <sheet name="Contents" sheetId="62" r:id="rId3"/>
     <sheet name="1. External interface" sheetId="51" r:id="rId4"/>
     <sheet name="2. Record structure" sheetId="52" r:id="rId5"/>
-    <sheet name="Client" sheetId="61" r:id="rId6"/>
+    <sheet name="3.1. Client" sheetId="61" r:id="rId6"/>
     <sheet name="データ" sheetId="54" state="hidden" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'1. External interface'!$A$1:$AI$32</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'2. Record structure'!$A$1:$AI$31</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">Client!$A$1:$AL$34</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">'3.1. Client'!$A$1:$AL$35</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">Contents!$A$1:$AI$36</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Cover!$A$1:$S$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Revision history'!$A$1:$AI$34</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="3">'1. External interface'!$1:$4</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="4">'2. Record structure'!$1:$5</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="5">Client!$1:$4</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="5">'3.1. Client'!$1:$4</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">Contents!$1:$4</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'Revision history'!$1:$4</definedName>
     <definedName name="データ型">データ!$A$2:$A$17</definedName>
@@ -35,9 +35,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -45,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="109">
   <si>
     <t>No.</t>
   </si>
@@ -143,25 +141,16 @@
     <t>Client ID</t>
   </si>
   <si>
-    <t>client_id</t>
-  </si>
-  <si>
     <t>Numbers</t>
   </si>
   <si>
     <t>Client name</t>
   </si>
   <si>
-    <t>client_name</t>
-  </si>
-  <si>
     <t>Double-byte</t>
   </si>
   <si>
     <t>Industry code</t>
-  </si>
-  <si>
-    <t>industry_code</t>
   </si>
   <si>
     <r>
@@ -705,6 +694,18 @@
       </rPr>
       <t>）</t>
     </r>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>clientId</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>clientName</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>industryCode</t>
     <phoneticPr fontId="12"/>
   </si>
 </sst>
@@ -2155,6 +2156,144 @@
     <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="17" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="17" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="17" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="13" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2191,143 +2330,41 @@
     <xf numFmtId="0" fontId="17" fillId="2" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="17" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="17" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="17" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="13" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="176" fontId="17" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -2347,49 +2384,79 @@
     <xf numFmtId="14" fontId="17" fillId="0" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="13" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="19" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2404,15 +2471,6 @@
     <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2440,62 +2498,221 @@
     <xf numFmtId="0" fontId="19" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="19" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="19" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="19" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2524,15 +2741,6 @@
     <xf numFmtId="0" fontId="19" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2545,215 +2753,23 @@
     <xf numFmtId="0" fontId="19" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="19" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="19" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="19" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2764,68 +2780,53 @@
     <xf numFmtId="0" fontId="17" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="17" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="17" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -5236,13 +5237,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5313,7 +5314,7 @@
               <a:ea typeface="ＭＳ 明朝"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>    "client_id": 100, </a:t>
+            <a:t>    "clientId": 100, </a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -5328,7 +5329,7 @@
               <a:ea typeface="ＭＳ 明朝"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>    "client_name": "</a:t>
+            <a:t>    "clientName": "</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="ja-JP" sz="900">
@@ -5359,7 +5360,7 @@
               <a:ea typeface="ＭＳ 明朝"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>    "industry_code"</a:t>
+            <a:t>    "industryCode"</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US">
@@ -5404,7 +5405,7 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>256443</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>149145</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="886557" cy="254493"/>
@@ -5910,7 +5911,7 @@
       <c r="H23" s="6"/>
       <c r="I23" s="19"/>
       <c r="J23" s="20" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="K23" s="19"/>
       <c r="L23" s="19"/>
@@ -6575,155 +6576,155 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="31" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="239" t="s">
+      <c r="A1" s="285" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="286"/>
+      <c r="C1" s="286"/>
+      <c r="D1" s="287"/>
+      <c r="E1" s="245" t="s">
+        <v>88</v>
+      </c>
+      <c r="F1" s="246"/>
+      <c r="G1" s="246"/>
+      <c r="H1" s="246"/>
+      <c r="I1" s="246"/>
+      <c r="J1" s="246"/>
+      <c r="K1" s="246"/>
+      <c r="L1" s="246"/>
+      <c r="M1" s="246"/>
+      <c r="N1" s="247"/>
+      <c r="O1" s="288" t="s">
+        <v>89</v>
+      </c>
+      <c r="P1" s="289"/>
+      <c r="Q1" s="289"/>
+      <c r="R1" s="290"/>
+      <c r="S1" s="251" t="s">
         <v>90</v>
       </c>
-      <c r="B1" s="240"/>
-      <c r="C1" s="240"/>
-      <c r="D1" s="241"/>
-      <c r="E1" s="251" t="s">
+      <c r="T1" s="252"/>
+      <c r="U1" s="252"/>
+      <c r="V1" s="252"/>
+      <c r="W1" s="252"/>
+      <c r="X1" s="252"/>
+      <c r="Y1" s="252"/>
+      <c r="Z1" s="253"/>
+      <c r="AA1" s="285" t="s">
         <v>91</v>
       </c>
-      <c r="F1" s="252"/>
-      <c r="G1" s="252"/>
-      <c r="H1" s="252"/>
-      <c r="I1" s="252"/>
-      <c r="J1" s="252"/>
-      <c r="K1" s="252"/>
-      <c r="L1" s="252"/>
-      <c r="M1" s="252"/>
-      <c r="N1" s="253"/>
-      <c r="O1" s="242" t="s">
-        <v>92</v>
-      </c>
-      <c r="P1" s="243"/>
-      <c r="Q1" s="243"/>
-      <c r="R1" s="244"/>
-      <c r="S1" s="288" t="s">
-        <v>93</v>
-      </c>
-      <c r="T1" s="289"/>
-      <c r="U1" s="289"/>
-      <c r="V1" s="289"/>
-      <c r="W1" s="289"/>
-      <c r="X1" s="289"/>
-      <c r="Y1" s="289"/>
-      <c r="Z1" s="290"/>
-      <c r="AA1" s="239" t="s">
-        <v>94</v>
-      </c>
-      <c r="AB1" s="241"/>
-      <c r="AC1" s="279" t="str">
+      <c r="AB1" s="287"/>
+      <c r="AC1" s="239" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="280"/>
-      <c r="AE1" s="280"/>
-      <c r="AF1" s="281"/>
-      <c r="AG1" s="282">
+      <c r="AD1" s="240"/>
+      <c r="AE1" s="240"/>
+      <c r="AF1" s="241"/>
+      <c r="AG1" s="242">
         <f>IF(D8="","",D8)</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="283"/>
-      <c r="AI1" s="284"/>
+      <c r="AH1" s="243"/>
+      <c r="AI1" s="244"/>
       <c r="AK1" s="170"/>
       <c r="AL1" s="170"/>
       <c r="AM1" s="170"/>
       <c r="AN1" s="220"/>
     </row>
     <row r="2" spans="1:40" s="31" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="239" t="s">
-        <v>95</v>
-      </c>
-      <c r="B2" s="240"/>
-      <c r="C2" s="240"/>
-      <c r="D2" s="241"/>
-      <c r="E2" s="251" t="s">
-        <v>96</v>
-      </c>
-      <c r="F2" s="252"/>
-      <c r="G2" s="252"/>
-      <c r="H2" s="252"/>
-      <c r="I2" s="252"/>
-      <c r="J2" s="252"/>
-      <c r="K2" s="252"/>
-      <c r="L2" s="252"/>
-      <c r="M2" s="252"/>
-      <c r="N2" s="253"/>
-      <c r="O2" s="245"/>
-      <c r="P2" s="246"/>
-      <c r="Q2" s="246"/>
-      <c r="R2" s="247"/>
-      <c r="S2" s="291"/>
-      <c r="T2" s="292"/>
-      <c r="U2" s="292"/>
-      <c r="V2" s="292"/>
-      <c r="W2" s="292"/>
-      <c r="X2" s="292"/>
-      <c r="Y2" s="292"/>
-      <c r="Z2" s="293"/>
-      <c r="AA2" s="239" t="s">
-        <v>97</v>
-      </c>
-      <c r="AB2" s="241"/>
-      <c r="AC2" s="285" t="str">
+      <c r="A2" s="285" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" s="286"/>
+      <c r="C2" s="286"/>
+      <c r="D2" s="287"/>
+      <c r="E2" s="245" t="s">
+        <v>93</v>
+      </c>
+      <c r="F2" s="246"/>
+      <c r="G2" s="246"/>
+      <c r="H2" s="246"/>
+      <c r="I2" s="246"/>
+      <c r="J2" s="246"/>
+      <c r="K2" s="246"/>
+      <c r="L2" s="246"/>
+      <c r="M2" s="246"/>
+      <c r="N2" s="247"/>
+      <c r="O2" s="291"/>
+      <c r="P2" s="292"/>
+      <c r="Q2" s="292"/>
+      <c r="R2" s="293"/>
+      <c r="S2" s="254"/>
+      <c r="T2" s="255"/>
+      <c r="U2" s="255"/>
+      <c r="V2" s="255"/>
+      <c r="W2" s="255"/>
+      <c r="X2" s="255"/>
+      <c r="Y2" s="255"/>
+      <c r="Z2" s="256"/>
+      <c r="AA2" s="285" t="s">
+        <v>94</v>
+      </c>
+      <c r="AB2" s="287"/>
+      <c r="AC2" s="248" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="286"/>
-      <c r="AE2" s="286"/>
-      <c r="AF2" s="287"/>
-      <c r="AG2" s="282" t="str">
+      <c r="AD2" s="249"/>
+      <c r="AE2" s="249"/>
+      <c r="AF2" s="250"/>
+      <c r="AG2" s="242" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="283"/>
-      <c r="AI2" s="284"/>
+      <c r="AH2" s="243"/>
+      <c r="AI2" s="244"/>
       <c r="AK2" s="170"/>
       <c r="AL2" s="170"/>
       <c r="AM2" s="170"/>
       <c r="AN2" s="170"/>
     </row>
     <row r="3" spans="1:40" s="31" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="239" t="s">
-        <v>98</v>
-      </c>
-      <c r="B3" s="240"/>
-      <c r="C3" s="240"/>
-      <c r="D3" s="241"/>
-      <c r="E3" s="251" t="s">
-        <v>99</v>
-      </c>
-      <c r="F3" s="252"/>
-      <c r="G3" s="252"/>
-      <c r="H3" s="252"/>
-      <c r="I3" s="252"/>
-      <c r="J3" s="252"/>
-      <c r="K3" s="252"/>
-      <c r="L3" s="252"/>
-      <c r="M3" s="252"/>
-      <c r="N3" s="253"/>
-      <c r="O3" s="248"/>
-      <c r="P3" s="249"/>
-      <c r="Q3" s="249"/>
-      <c r="R3" s="250"/>
-      <c r="S3" s="294"/>
-      <c r="T3" s="295"/>
-      <c r="U3" s="295"/>
-      <c r="V3" s="295"/>
-      <c r="W3" s="295"/>
-      <c r="X3" s="295"/>
-      <c r="Y3" s="295"/>
-      <c r="Z3" s="296"/>
-      <c r="AA3" s="239"/>
-      <c r="AB3" s="241"/>
-      <c r="AC3" s="279"/>
-      <c r="AD3" s="280"/>
-      <c r="AE3" s="280"/>
-      <c r="AF3" s="281"/>
-      <c r="AG3" s="282"/>
-      <c r="AH3" s="283"/>
-      <c r="AI3" s="284"/>
+      <c r="A3" s="285" t="s">
+        <v>95</v>
+      </c>
+      <c r="B3" s="286"/>
+      <c r="C3" s="286"/>
+      <c r="D3" s="287"/>
+      <c r="E3" s="245" t="s">
+        <v>96</v>
+      </c>
+      <c r="F3" s="246"/>
+      <c r="G3" s="246"/>
+      <c r="H3" s="246"/>
+      <c r="I3" s="246"/>
+      <c r="J3" s="246"/>
+      <c r="K3" s="246"/>
+      <c r="L3" s="246"/>
+      <c r="M3" s="246"/>
+      <c r="N3" s="247"/>
+      <c r="O3" s="294"/>
+      <c r="P3" s="295"/>
+      <c r="Q3" s="295"/>
+      <c r="R3" s="296"/>
+      <c r="S3" s="257"/>
+      <c r="T3" s="258"/>
+      <c r="U3" s="258"/>
+      <c r="V3" s="258"/>
+      <c r="W3" s="258"/>
+      <c r="X3" s="258"/>
+      <c r="Y3" s="258"/>
+      <c r="Z3" s="259"/>
+      <c r="AA3" s="285"/>
+      <c r="AB3" s="287"/>
+      <c r="AC3" s="239"/>
+      <c r="AD3" s="240"/>
+      <c r="AE3" s="240"/>
+      <c r="AF3" s="241"/>
+      <c r="AG3" s="242"/>
+      <c r="AH3" s="243"/>
+      <c r="AI3" s="244"/>
       <c r="AK3" s="170"/>
       <c r="AL3" s="170"/>
       <c r="AM3" s="170"/>
@@ -6742,7 +6743,7 @@
     </row>
     <row r="5" spans="1:40" s="66" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N5" s="224" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="AB5" s="221"/>
       <c r="AC5" s="221"/>
@@ -6770,98 +6771,98 @@
       <c r="A7" s="219" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="277" t="s">
+      <c r="B7" s="283" t="s">
+        <v>97</v>
+      </c>
+      <c r="C7" s="284"/>
+      <c r="D7" s="260" t="s">
+        <v>98</v>
+      </c>
+      <c r="E7" s="261"/>
+      <c r="F7" s="262"/>
+      <c r="G7" s="260" t="s">
+        <v>99</v>
+      </c>
+      <c r="H7" s="261"/>
+      <c r="I7" s="262"/>
+      <c r="J7" s="260" t="s">
         <v>100</v>
       </c>
-      <c r="C7" s="278"/>
-      <c r="D7" s="263" t="s">
+      <c r="K7" s="261"/>
+      <c r="L7" s="261"/>
+      <c r="M7" s="261"/>
+      <c r="N7" s="261"/>
+      <c r="O7" s="261"/>
+      <c r="P7" s="262"/>
+      <c r="Q7" s="260" t="s">
         <v>101</v>
       </c>
-      <c r="E7" s="264"/>
-      <c r="F7" s="265"/>
-      <c r="G7" s="263" t="s">
+      <c r="R7" s="261"/>
+      <c r="S7" s="261"/>
+      <c r="T7" s="261"/>
+      <c r="U7" s="261"/>
+      <c r="V7" s="261"/>
+      <c r="W7" s="261"/>
+      <c r="X7" s="261"/>
+      <c r="Y7" s="261"/>
+      <c r="Z7" s="261"/>
+      <c r="AA7" s="261"/>
+      <c r="AB7" s="261"/>
+      <c r="AC7" s="261"/>
+      <c r="AD7" s="261"/>
+      <c r="AE7" s="262"/>
+      <c r="AF7" s="260" t="s">
         <v>102</v>
       </c>
-      <c r="H7" s="264"/>
-      <c r="I7" s="265"/>
-      <c r="J7" s="263" t="s">
-        <v>103</v>
-      </c>
-      <c r="K7" s="264"/>
-      <c r="L7" s="264"/>
-      <c r="M7" s="264"/>
-      <c r="N7" s="264"/>
-      <c r="O7" s="264"/>
-      <c r="P7" s="265"/>
-      <c r="Q7" s="263" t="s">
-        <v>104</v>
-      </c>
-      <c r="R7" s="264"/>
-      <c r="S7" s="264"/>
-      <c r="T7" s="264"/>
-      <c r="U7" s="264"/>
-      <c r="V7" s="264"/>
-      <c r="W7" s="264"/>
-      <c r="X7" s="264"/>
-      <c r="Y7" s="264"/>
-      <c r="Z7" s="264"/>
-      <c r="AA7" s="264"/>
-      <c r="AB7" s="264"/>
-      <c r="AC7" s="264"/>
-      <c r="AD7" s="264"/>
-      <c r="AE7" s="265"/>
-      <c r="AF7" s="263" t="s">
-        <v>105</v>
-      </c>
-      <c r="AG7" s="264"/>
-      <c r="AH7" s="264"/>
-      <c r="AI7" s="265"/>
+      <c r="AG7" s="261"/>
+      <c r="AH7" s="261"/>
+      <c r="AI7" s="262"/>
       <c r="AJ7" s="225"/>
     </row>
     <row r="8" spans="1:40" ht="22.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="226">
         <v>1</v>
       </c>
-      <c r="B8" s="266" t="s">
-        <v>89</v>
-      </c>
-      <c r="C8" s="267"/>
-      <c r="D8" s="268">
+      <c r="B8" s="272" t="s">
+        <v>86</v>
+      </c>
+      <c r="C8" s="273"/>
+      <c r="D8" s="274">
         <v>43718</v>
       </c>
-      <c r="E8" s="269"/>
-      <c r="F8" s="270"/>
-      <c r="G8" s="271" t="s">
-        <v>106</v>
-      </c>
-      <c r="H8" s="272"/>
-      <c r="I8" s="273"/>
-      <c r="J8" s="274" t="s">
+      <c r="E8" s="275"/>
+      <c r="F8" s="276"/>
+      <c r="G8" s="277" t="s">
+        <v>103</v>
+      </c>
+      <c r="H8" s="278"/>
+      <c r="I8" s="279"/>
+      <c r="J8" s="280" t="s">
         <v>1</v>
       </c>
-      <c r="K8" s="275"/>
-      <c r="L8" s="275"/>
-      <c r="M8" s="275"/>
-      <c r="N8" s="275"/>
-      <c r="O8" s="275"/>
-      <c r="P8" s="276"/>
-      <c r="Q8" s="274" t="s">
-        <v>107</v>
-      </c>
-      <c r="R8" s="275"/>
-      <c r="S8" s="275"/>
-      <c r="T8" s="275"/>
-      <c r="U8" s="275"/>
-      <c r="V8" s="275"/>
-      <c r="W8" s="275"/>
-      <c r="X8" s="275"/>
-      <c r="Y8" s="275"/>
-      <c r="Z8" s="275"/>
-      <c r="AA8" s="275"/>
-      <c r="AB8" s="275"/>
-      <c r="AC8" s="275"/>
-      <c r="AD8" s="275"/>
-      <c r="AE8" s="276"/>
+      <c r="K8" s="281"/>
+      <c r="L8" s="281"/>
+      <c r="M8" s="281"/>
+      <c r="N8" s="281"/>
+      <c r="O8" s="281"/>
+      <c r="P8" s="282"/>
+      <c r="Q8" s="280" t="s">
+        <v>104</v>
+      </c>
+      <c r="R8" s="281"/>
+      <c r="S8" s="281"/>
+      <c r="T8" s="281"/>
+      <c r="U8" s="281"/>
+      <c r="V8" s="281"/>
+      <c r="W8" s="281"/>
+      <c r="X8" s="281"/>
+      <c r="Y8" s="281"/>
+      <c r="Z8" s="281"/>
+      <c r="AA8" s="281"/>
+      <c r="AB8" s="281"/>
+      <c r="AC8" s="281"/>
+      <c r="AD8" s="281"/>
+      <c r="AE8" s="282"/>
       <c r="AF8" s="227" t="s">
         <v>2</v>
       </c>
@@ -6872,36 +6873,36 @@
     </row>
     <row r="9" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="37"/>
-      <c r="B9" s="254"/>
-      <c r="C9" s="255"/>
-      <c r="D9" s="256"/>
-      <c r="E9" s="257"/>
-      <c r="F9" s="258"/>
-      <c r="G9" s="254"/>
-      <c r="H9" s="259"/>
-      <c r="I9" s="255"/>
-      <c r="J9" s="260"/>
-      <c r="K9" s="261"/>
-      <c r="L9" s="261"/>
-      <c r="M9" s="261"/>
-      <c r="N9" s="261"/>
-      <c r="O9" s="261"/>
-      <c r="P9" s="262"/>
-      <c r="Q9" s="260"/>
-      <c r="R9" s="261"/>
-      <c r="S9" s="261"/>
-      <c r="T9" s="261"/>
-      <c r="U9" s="261"/>
-      <c r="V9" s="261"/>
-      <c r="W9" s="261"/>
-      <c r="X9" s="261"/>
-      <c r="Y9" s="261"/>
-      <c r="Z9" s="261"/>
-      <c r="AA9" s="261"/>
-      <c r="AB9" s="261"/>
-      <c r="AC9" s="261"/>
-      <c r="AD9" s="261"/>
-      <c r="AE9" s="262"/>
+      <c r="B9" s="263"/>
+      <c r="C9" s="264"/>
+      <c r="D9" s="265"/>
+      <c r="E9" s="266"/>
+      <c r="F9" s="267"/>
+      <c r="G9" s="263"/>
+      <c r="H9" s="268"/>
+      <c r="I9" s="264"/>
+      <c r="J9" s="269"/>
+      <c r="K9" s="270"/>
+      <c r="L9" s="270"/>
+      <c r="M9" s="270"/>
+      <c r="N9" s="270"/>
+      <c r="O9" s="270"/>
+      <c r="P9" s="271"/>
+      <c r="Q9" s="269"/>
+      <c r="R9" s="270"/>
+      <c r="S9" s="270"/>
+      <c r="T9" s="270"/>
+      <c r="U9" s="270"/>
+      <c r="V9" s="270"/>
+      <c r="W9" s="270"/>
+      <c r="X9" s="270"/>
+      <c r="Y9" s="270"/>
+      <c r="Z9" s="270"/>
+      <c r="AA9" s="270"/>
+      <c r="AB9" s="270"/>
+      <c r="AC9" s="270"/>
+      <c r="AD9" s="270"/>
+      <c r="AE9" s="271"/>
       <c r="AF9" s="216"/>
       <c r="AG9" s="217"/>
       <c r="AH9" s="217"/>
@@ -6910,36 +6911,36 @@
     </row>
     <row r="10" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="37"/>
-      <c r="B10" s="254"/>
-      <c r="C10" s="255"/>
-      <c r="D10" s="256"/>
-      <c r="E10" s="257"/>
-      <c r="F10" s="258"/>
-      <c r="G10" s="254"/>
-      <c r="H10" s="259"/>
-      <c r="I10" s="255"/>
-      <c r="J10" s="260"/>
-      <c r="K10" s="261"/>
-      <c r="L10" s="261"/>
-      <c r="M10" s="261"/>
-      <c r="N10" s="261"/>
-      <c r="O10" s="261"/>
-      <c r="P10" s="262"/>
-      <c r="Q10" s="260"/>
-      <c r="R10" s="261"/>
-      <c r="S10" s="261"/>
-      <c r="T10" s="261"/>
-      <c r="U10" s="261"/>
-      <c r="V10" s="261"/>
-      <c r="W10" s="261"/>
-      <c r="X10" s="261"/>
-      <c r="Y10" s="261"/>
-      <c r="Z10" s="261"/>
-      <c r="AA10" s="261"/>
-      <c r="AB10" s="261"/>
-      <c r="AC10" s="261"/>
-      <c r="AD10" s="261"/>
-      <c r="AE10" s="262"/>
+      <c r="B10" s="263"/>
+      <c r="C10" s="264"/>
+      <c r="D10" s="265"/>
+      <c r="E10" s="266"/>
+      <c r="F10" s="267"/>
+      <c r="G10" s="263"/>
+      <c r="H10" s="268"/>
+      <c r="I10" s="264"/>
+      <c r="J10" s="269"/>
+      <c r="K10" s="270"/>
+      <c r="L10" s="270"/>
+      <c r="M10" s="270"/>
+      <c r="N10" s="270"/>
+      <c r="O10" s="270"/>
+      <c r="P10" s="271"/>
+      <c r="Q10" s="269"/>
+      <c r="R10" s="270"/>
+      <c r="S10" s="270"/>
+      <c r="T10" s="270"/>
+      <c r="U10" s="270"/>
+      <c r="V10" s="270"/>
+      <c r="W10" s="270"/>
+      <c r="X10" s="270"/>
+      <c r="Y10" s="270"/>
+      <c r="Z10" s="270"/>
+      <c r="AA10" s="270"/>
+      <c r="AB10" s="270"/>
+      <c r="AC10" s="270"/>
+      <c r="AD10" s="270"/>
+      <c r="AE10" s="271"/>
       <c r="AF10" s="216"/>
       <c r="AG10" s="217"/>
       <c r="AH10" s="217"/>
@@ -6947,36 +6948,36 @@
     </row>
     <row r="11" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="37"/>
-      <c r="B11" s="254"/>
-      <c r="C11" s="255"/>
-      <c r="D11" s="256"/>
-      <c r="E11" s="257"/>
-      <c r="F11" s="258"/>
-      <c r="G11" s="254"/>
-      <c r="H11" s="259"/>
-      <c r="I11" s="255"/>
-      <c r="J11" s="260"/>
-      <c r="K11" s="261"/>
-      <c r="L11" s="261"/>
-      <c r="M11" s="261"/>
-      <c r="N11" s="261"/>
-      <c r="O11" s="261"/>
-      <c r="P11" s="262"/>
-      <c r="Q11" s="260"/>
-      <c r="R11" s="261"/>
-      <c r="S11" s="261"/>
-      <c r="T11" s="261"/>
-      <c r="U11" s="261"/>
-      <c r="V11" s="261"/>
-      <c r="W11" s="261"/>
-      <c r="X11" s="261"/>
-      <c r="Y11" s="261"/>
-      <c r="Z11" s="261"/>
-      <c r="AA11" s="261"/>
-      <c r="AB11" s="261"/>
-      <c r="AC11" s="261"/>
-      <c r="AD11" s="261"/>
-      <c r="AE11" s="262"/>
+      <c r="B11" s="263"/>
+      <c r="C11" s="264"/>
+      <c r="D11" s="265"/>
+      <c r="E11" s="266"/>
+      <c r="F11" s="267"/>
+      <c r="G11" s="263"/>
+      <c r="H11" s="268"/>
+      <c r="I11" s="264"/>
+      <c r="J11" s="269"/>
+      <c r="K11" s="270"/>
+      <c r="L11" s="270"/>
+      <c r="M11" s="270"/>
+      <c r="N11" s="270"/>
+      <c r="O11" s="270"/>
+      <c r="P11" s="271"/>
+      <c r="Q11" s="269"/>
+      <c r="R11" s="270"/>
+      <c r="S11" s="270"/>
+      <c r="T11" s="270"/>
+      <c r="U11" s="270"/>
+      <c r="V11" s="270"/>
+      <c r="W11" s="270"/>
+      <c r="X11" s="270"/>
+      <c r="Y11" s="270"/>
+      <c r="Z11" s="270"/>
+      <c r="AA11" s="270"/>
+      <c r="AB11" s="270"/>
+      <c r="AC11" s="270"/>
+      <c r="AD11" s="270"/>
+      <c r="AE11" s="271"/>
       <c r="AF11" s="216"/>
       <c r="AG11" s="217"/>
       <c r="AH11" s="217"/>
@@ -6984,36 +6985,36 @@
     </row>
     <row r="12" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="37"/>
-      <c r="B12" s="254"/>
-      <c r="C12" s="255"/>
-      <c r="D12" s="256"/>
-      <c r="E12" s="257"/>
-      <c r="F12" s="258"/>
-      <c r="G12" s="254"/>
-      <c r="H12" s="259"/>
-      <c r="I12" s="255"/>
-      <c r="J12" s="260"/>
-      <c r="K12" s="261"/>
-      <c r="L12" s="261"/>
-      <c r="M12" s="261"/>
-      <c r="N12" s="261"/>
-      <c r="O12" s="261"/>
-      <c r="P12" s="262"/>
-      <c r="Q12" s="260"/>
-      <c r="R12" s="261"/>
-      <c r="S12" s="261"/>
-      <c r="T12" s="261"/>
-      <c r="U12" s="261"/>
-      <c r="V12" s="261"/>
-      <c r="W12" s="261"/>
-      <c r="X12" s="261"/>
-      <c r="Y12" s="261"/>
-      <c r="Z12" s="261"/>
-      <c r="AA12" s="261"/>
-      <c r="AB12" s="261"/>
-      <c r="AC12" s="261"/>
-      <c r="AD12" s="261"/>
-      <c r="AE12" s="262"/>
+      <c r="B12" s="263"/>
+      <c r="C12" s="264"/>
+      <c r="D12" s="265"/>
+      <c r="E12" s="266"/>
+      <c r="F12" s="267"/>
+      <c r="G12" s="263"/>
+      <c r="H12" s="268"/>
+      <c r="I12" s="264"/>
+      <c r="J12" s="269"/>
+      <c r="K12" s="270"/>
+      <c r="L12" s="270"/>
+      <c r="M12" s="270"/>
+      <c r="N12" s="270"/>
+      <c r="O12" s="270"/>
+      <c r="P12" s="271"/>
+      <c r="Q12" s="269"/>
+      <c r="R12" s="270"/>
+      <c r="S12" s="270"/>
+      <c r="T12" s="270"/>
+      <c r="U12" s="270"/>
+      <c r="V12" s="270"/>
+      <c r="W12" s="270"/>
+      <c r="X12" s="270"/>
+      <c r="Y12" s="270"/>
+      <c r="Z12" s="270"/>
+      <c r="AA12" s="270"/>
+      <c r="AB12" s="270"/>
+      <c r="AC12" s="270"/>
+      <c r="AD12" s="270"/>
+      <c r="AE12" s="271"/>
       <c r="AF12" s="216"/>
       <c r="AG12" s="217"/>
       <c r="AH12" s="217"/>
@@ -7021,36 +7022,36 @@
     </row>
     <row r="13" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="37"/>
-      <c r="B13" s="254"/>
-      <c r="C13" s="255"/>
-      <c r="D13" s="256"/>
-      <c r="E13" s="257"/>
-      <c r="F13" s="258"/>
-      <c r="G13" s="254"/>
-      <c r="H13" s="259"/>
-      <c r="I13" s="255"/>
-      <c r="J13" s="260"/>
-      <c r="K13" s="261"/>
-      <c r="L13" s="261"/>
-      <c r="M13" s="261"/>
-      <c r="N13" s="261"/>
-      <c r="O13" s="261"/>
-      <c r="P13" s="262"/>
-      <c r="Q13" s="260"/>
-      <c r="R13" s="261"/>
-      <c r="S13" s="261"/>
-      <c r="T13" s="261"/>
-      <c r="U13" s="261"/>
-      <c r="V13" s="261"/>
-      <c r="W13" s="261"/>
-      <c r="X13" s="261"/>
-      <c r="Y13" s="261"/>
-      <c r="Z13" s="261"/>
-      <c r="AA13" s="261"/>
-      <c r="AB13" s="261"/>
-      <c r="AC13" s="261"/>
-      <c r="AD13" s="261"/>
-      <c r="AE13" s="262"/>
+      <c r="B13" s="263"/>
+      <c r="C13" s="264"/>
+      <c r="D13" s="265"/>
+      <c r="E13" s="266"/>
+      <c r="F13" s="267"/>
+      <c r="G13" s="263"/>
+      <c r="H13" s="268"/>
+      <c r="I13" s="264"/>
+      <c r="J13" s="269"/>
+      <c r="K13" s="270"/>
+      <c r="L13" s="270"/>
+      <c r="M13" s="270"/>
+      <c r="N13" s="270"/>
+      <c r="O13" s="270"/>
+      <c r="P13" s="271"/>
+      <c r="Q13" s="269"/>
+      <c r="R13" s="270"/>
+      <c r="S13" s="270"/>
+      <c r="T13" s="270"/>
+      <c r="U13" s="270"/>
+      <c r="V13" s="270"/>
+      <c r="W13" s="270"/>
+      <c r="X13" s="270"/>
+      <c r="Y13" s="270"/>
+      <c r="Z13" s="270"/>
+      <c r="AA13" s="270"/>
+      <c r="AB13" s="270"/>
+      <c r="AC13" s="270"/>
+      <c r="AD13" s="270"/>
+      <c r="AE13" s="271"/>
       <c r="AF13" s="216"/>
       <c r="AG13" s="217"/>
       <c r="AH13" s="217"/>
@@ -7798,14 +7799,35 @@
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
     <mergeCell ref="AF7:AI7"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="D9:F9"/>
@@ -7822,35 +7844,14 @@
     <mergeCell ref="G7:I7"/>
     <mergeCell ref="J7:P7"/>
     <mergeCell ref="Q7:AE7"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="12"/>
   <printOptions horizontalCentered="1"/>
@@ -7867,7 +7868,7 @@
   <dimension ref="A1:AI52"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -8006,163 +8007,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="80" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="303" t="str">
+      <c r="A1" s="297" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!A1")&lt;&gt;"",INDIRECT("'Revision history'!A1"),"")</f>
         <v>Project name</v>
       </c>
-      <c r="B1" s="305"/>
-      <c r="C1" s="305"/>
-      <c r="D1" s="304"/>
-      <c r="E1" s="251" t="str">
+      <c r="B1" s="298"/>
+      <c r="C1" s="298"/>
+      <c r="D1" s="299"/>
+      <c r="E1" s="245" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E1")&lt;&gt;"",INDIRECT("'Revision history'!E1"),"")</f>
         <v>Sample Project</v>
       </c>
-      <c r="F1" s="252"/>
-      <c r="G1" s="252"/>
-      <c r="H1" s="252"/>
-      <c r="I1" s="252"/>
-      <c r="J1" s="252"/>
-      <c r="K1" s="252"/>
-      <c r="L1" s="252"/>
-      <c r="M1" s="252"/>
-      <c r="N1" s="253"/>
-      <c r="O1" s="306" t="str">
+      <c r="F1" s="246"/>
+      <c r="G1" s="246"/>
+      <c r="H1" s="246"/>
+      <c r="I1" s="246"/>
+      <c r="J1" s="246"/>
+      <c r="K1" s="246"/>
+      <c r="L1" s="246"/>
+      <c r="M1" s="246"/>
+      <c r="N1" s="247"/>
+      <c r="O1" s="300" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!O1")&lt;&gt;"",INDIRECT("'Revision history'!O1"),"")</f>
         <v>Deliverable name</v>
       </c>
-      <c r="P1" s="307"/>
-      <c r="Q1" s="307"/>
-      <c r="R1" s="308"/>
-      <c r="S1" s="288" t="str">
+      <c r="P1" s="301"/>
+      <c r="Q1" s="301"/>
+      <c r="R1" s="302"/>
+      <c r="S1" s="251" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!S1")&lt;&gt;"",INDIRECT("'Revision history'!S1"),"")</f>
         <v>External Interface Design Document(JSON)</v>
       </c>
-      <c r="T1" s="289"/>
-      <c r="U1" s="289"/>
-      <c r="V1" s="289"/>
-      <c r="W1" s="289"/>
-      <c r="X1" s="289"/>
-      <c r="Y1" s="289"/>
-      <c r="Z1" s="290"/>
-      <c r="AA1" s="303" t="str">
+      <c r="T1" s="252"/>
+      <c r="U1" s="252"/>
+      <c r="V1" s="252"/>
+      <c r="W1" s="252"/>
+      <c r="X1" s="252"/>
+      <c r="Y1" s="252"/>
+      <c r="Z1" s="253"/>
+      <c r="AA1" s="297" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AA1")&lt;&gt;"",INDIRECT("'Revision history'!AA1"),"")</f>
         <v>Prepared by</v>
       </c>
-      <c r="AB1" s="304"/>
-      <c r="AC1" s="300" t="str">
+      <c r="AB1" s="299"/>
+      <c r="AC1" s="312" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC1")&lt;&gt;"",INDIRECT("'Revision history'!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="301"/>
-      <c r="AE1" s="301"/>
-      <c r="AF1" s="302"/>
-      <c r="AG1" s="297">
+      <c r="AD1" s="313"/>
+      <c r="AE1" s="313"/>
+      <c r="AF1" s="314"/>
+      <c r="AG1" s="309">
         <f ca="1">IF(INDIRECT("'Revision history'!AG1")&lt;&gt;"",INDIRECT("'Revision history'!AG1"),"")</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="298"/>
-      <c r="AI1" s="299"/>
+      <c r="AH1" s="310"/>
+      <c r="AI1" s="311"/>
     </row>
     <row r="2" spans="1:35" s="80" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="303" t="str">
+      <c r="A2" s="297" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!A2")&lt;&gt;"",INDIRECT("'Revision history'!A2"),"")</f>
         <v>System name</v>
       </c>
-      <c r="B2" s="305"/>
-      <c r="C2" s="305"/>
-      <c r="D2" s="304"/>
-      <c r="E2" s="251" t="str">
+      <c r="B2" s="298"/>
+      <c r="C2" s="298"/>
+      <c r="D2" s="299"/>
+      <c r="E2" s="245" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E2")&lt;&gt;"",INDIRECT("'Revision history'!E2"),"")</f>
         <v>Sample System</v>
       </c>
-      <c r="F2" s="252"/>
-      <c r="G2" s="252"/>
-      <c r="H2" s="252"/>
-      <c r="I2" s="252"/>
-      <c r="J2" s="252"/>
-      <c r="K2" s="252"/>
-      <c r="L2" s="252"/>
-      <c r="M2" s="252"/>
-      <c r="N2" s="253"/>
-      <c r="O2" s="309"/>
-      <c r="P2" s="310"/>
-      <c r="Q2" s="310"/>
-      <c r="R2" s="311"/>
-      <c r="S2" s="291"/>
-      <c r="T2" s="292"/>
-      <c r="U2" s="292"/>
-      <c r="V2" s="292"/>
-      <c r="W2" s="292"/>
-      <c r="X2" s="292"/>
-      <c r="Y2" s="292"/>
-      <c r="Z2" s="293"/>
-      <c r="AA2" s="303" t="str">
+      <c r="F2" s="246"/>
+      <c r="G2" s="246"/>
+      <c r="H2" s="246"/>
+      <c r="I2" s="246"/>
+      <c r="J2" s="246"/>
+      <c r="K2" s="246"/>
+      <c r="L2" s="246"/>
+      <c r="M2" s="246"/>
+      <c r="N2" s="247"/>
+      <c r="O2" s="303"/>
+      <c r="P2" s="304"/>
+      <c r="Q2" s="304"/>
+      <c r="R2" s="305"/>
+      <c r="S2" s="254"/>
+      <c r="T2" s="255"/>
+      <c r="U2" s="255"/>
+      <c r="V2" s="255"/>
+      <c r="W2" s="255"/>
+      <c r="X2" s="255"/>
+      <c r="Y2" s="255"/>
+      <c r="Z2" s="256"/>
+      <c r="AA2" s="297" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AA2")&lt;&gt;"",INDIRECT("'Revision history'!AA2"),"")</f>
         <v>Changes</v>
       </c>
-      <c r="AB2" s="304"/>
-      <c r="AC2" s="300" t="str">
+      <c r="AB2" s="299"/>
+      <c r="AC2" s="312" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC2")&lt;&gt;"",INDIRECT("'Revision history'!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="301"/>
-      <c r="AE2" s="301"/>
-      <c r="AF2" s="302"/>
-      <c r="AG2" s="297" t="str">
+      <c r="AD2" s="313"/>
+      <c r="AE2" s="313"/>
+      <c r="AF2" s="314"/>
+      <c r="AG2" s="309" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AG2")&lt;&gt;"",INDIRECT("'Revision history'!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="298"/>
-      <c r="AI2" s="299"/>
+      <c r="AH2" s="310"/>
+      <c r="AI2" s="311"/>
     </row>
     <row r="3" spans="1:35" s="80" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="303" t="str">
+      <c r="A3" s="297" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!A3")&lt;&gt;"",INDIRECT("'Revision history'!A3"),"")</f>
         <v>Sub-system name</v>
       </c>
-      <c r="B3" s="305"/>
-      <c r="C3" s="305"/>
-      <c r="D3" s="304"/>
-      <c r="E3" s="251" t="str">
+      <c r="B3" s="298"/>
+      <c r="C3" s="298"/>
+      <c r="D3" s="299"/>
+      <c r="E3" s="245" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E3")&lt;&gt;"",INDIRECT("'Revision history'!E3"),"")</f>
         <v>Client Management System</v>
       </c>
-      <c r="F3" s="252"/>
-      <c r="G3" s="252"/>
-      <c r="H3" s="252"/>
-      <c r="I3" s="252"/>
-      <c r="J3" s="252"/>
-      <c r="K3" s="252"/>
-      <c r="L3" s="252"/>
-      <c r="M3" s="252"/>
-      <c r="N3" s="253"/>
-      <c r="O3" s="312"/>
-      <c r="P3" s="313"/>
-      <c r="Q3" s="313"/>
-      <c r="R3" s="314"/>
-      <c r="S3" s="294"/>
-      <c r="T3" s="295"/>
-      <c r="U3" s="295"/>
-      <c r="V3" s="295"/>
-      <c r="W3" s="295"/>
-      <c r="X3" s="295"/>
-      <c r="Y3" s="295"/>
-      <c r="Z3" s="296"/>
-      <c r="AA3" s="303"/>
-      <c r="AB3" s="304"/>
-      <c r="AC3" s="300" t="str">
+      <c r="F3" s="246"/>
+      <c r="G3" s="246"/>
+      <c r="H3" s="246"/>
+      <c r="I3" s="246"/>
+      <c r="J3" s="246"/>
+      <c r="K3" s="246"/>
+      <c r="L3" s="246"/>
+      <c r="M3" s="246"/>
+      <c r="N3" s="247"/>
+      <c r="O3" s="306"/>
+      <c r="P3" s="307"/>
+      <c r="Q3" s="307"/>
+      <c r="R3" s="308"/>
+      <c r="S3" s="257"/>
+      <c r="T3" s="258"/>
+      <c r="U3" s="258"/>
+      <c r="V3" s="258"/>
+      <c r="W3" s="258"/>
+      <c r="X3" s="258"/>
+      <c r="Y3" s="258"/>
+      <c r="Z3" s="259"/>
+      <c r="AA3" s="297"/>
+      <c r="AB3" s="299"/>
+      <c r="AC3" s="312" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC3")&lt;&gt;"",INDIRECT("'Revision history'!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="301"/>
-      <c r="AE3" s="301"/>
-      <c r="AF3" s="302"/>
-      <c r="AG3" s="297" t="str">
+      <c r="AD3" s="313"/>
+      <c r="AE3" s="313"/>
+      <c r="AF3" s="314"/>
+      <c r="AG3" s="309" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AG3")&lt;&gt;"",INDIRECT("'Revision history'!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="298"/>
-      <c r="AI3" s="299"/>
+      <c r="AH3" s="310"/>
+      <c r="AI3" s="311"/>
     </row>
     <row r="4" spans="1:35" s="66" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="170"/>
@@ -8219,7 +8220,7 @@
       <c r="O5" s="170"/>
       <c r="P5" s="170"/>
       <c r="Q5" s="172" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="R5" s="170"/>
       <c r="S5" s="170"/>
@@ -8247,7 +8248,7 @@
     <row r="7" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="175"/>
       <c r="B7" s="176" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C7" s="176"/>
       <c r="D7" s="31"/>
@@ -8323,7 +8324,7 @@
     <row r="9" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="175"/>
       <c r="B9" s="176" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C9" s="176"/>
       <c r="D9" s="31"/>
@@ -8399,7 +8400,7 @@
     <row r="11" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="175"/>
       <c r="B11" s="33" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C11" s="33"/>
       <c r="D11" s="175"/>
@@ -9595,6 +9596,13 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="S1:Z3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
@@ -9605,13 +9613,6 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="12"/>
   <printOptions horizontalCentered="1"/>
@@ -9637,163 +9638,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="121" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="303" t="str">
+      <c r="A1" s="297" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!A1")&lt;&gt;"",INDIRECT("'Revision history'!A1"),"")</f>
         <v>Project name</v>
       </c>
-      <c r="B1" s="305"/>
-      <c r="C1" s="305"/>
-      <c r="D1" s="304"/>
-      <c r="E1" s="251" t="str">
+      <c r="B1" s="298"/>
+      <c r="C1" s="298"/>
+      <c r="D1" s="299"/>
+      <c r="E1" s="245" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E1")&lt;&gt;"",INDIRECT("'Revision history'!E1"),"")</f>
         <v>Sample Project</v>
       </c>
-      <c r="F1" s="252"/>
-      <c r="G1" s="252"/>
-      <c r="H1" s="252"/>
-      <c r="I1" s="252"/>
-      <c r="J1" s="252"/>
-      <c r="K1" s="252"/>
-      <c r="L1" s="252"/>
-      <c r="M1" s="252"/>
-      <c r="N1" s="253"/>
-      <c r="O1" s="306" t="str">
+      <c r="F1" s="246"/>
+      <c r="G1" s="246"/>
+      <c r="H1" s="246"/>
+      <c r="I1" s="246"/>
+      <c r="J1" s="246"/>
+      <c r="K1" s="246"/>
+      <c r="L1" s="246"/>
+      <c r="M1" s="246"/>
+      <c r="N1" s="247"/>
+      <c r="O1" s="300" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!O1")&lt;&gt;"",INDIRECT("'Revision history'!O1"),"")</f>
         <v>Deliverable name</v>
       </c>
-      <c r="P1" s="307"/>
-      <c r="Q1" s="307"/>
-      <c r="R1" s="308"/>
-      <c r="S1" s="288" t="str">
+      <c r="P1" s="301"/>
+      <c r="Q1" s="301"/>
+      <c r="R1" s="302"/>
+      <c r="S1" s="251" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!S1")&lt;&gt;"",INDIRECT("'Revision history'!S1"),"")</f>
         <v>External Interface Design Document(JSON)</v>
       </c>
-      <c r="T1" s="289"/>
-      <c r="U1" s="289"/>
-      <c r="V1" s="289"/>
-      <c r="W1" s="289"/>
-      <c r="X1" s="289"/>
-      <c r="Y1" s="289"/>
-      <c r="Z1" s="290"/>
-      <c r="AA1" s="303" t="str">
+      <c r="T1" s="252"/>
+      <c r="U1" s="252"/>
+      <c r="V1" s="252"/>
+      <c r="W1" s="252"/>
+      <c r="X1" s="252"/>
+      <c r="Y1" s="252"/>
+      <c r="Z1" s="253"/>
+      <c r="AA1" s="297" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AA1")&lt;&gt;"",INDIRECT("'Revision history'!AA1"),"")</f>
         <v>Prepared by</v>
       </c>
-      <c r="AB1" s="304"/>
-      <c r="AC1" s="300" t="str">
+      <c r="AB1" s="299"/>
+      <c r="AC1" s="312" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC1")&lt;&gt;"",INDIRECT("'Revision history'!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="301"/>
-      <c r="AE1" s="301"/>
-      <c r="AF1" s="302"/>
-      <c r="AG1" s="297">
+      <c r="AD1" s="313"/>
+      <c r="AE1" s="313"/>
+      <c r="AF1" s="314"/>
+      <c r="AG1" s="309">
         <f ca="1">IF(INDIRECT("'Revision history'!AG1")&lt;&gt;"",INDIRECT("'Revision history'!AG1"),"")</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="298"/>
-      <c r="AI1" s="299"/>
+      <c r="AH1" s="310"/>
+      <c r="AI1" s="311"/>
     </row>
     <row r="2" spans="1:35" s="121" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="303" t="str">
+      <c r="A2" s="297" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!A2")&lt;&gt;"",INDIRECT("'Revision history'!A2"),"")</f>
         <v>System name</v>
       </c>
-      <c r="B2" s="305"/>
-      <c r="C2" s="305"/>
-      <c r="D2" s="304"/>
-      <c r="E2" s="251" t="str">
+      <c r="B2" s="298"/>
+      <c r="C2" s="298"/>
+      <c r="D2" s="299"/>
+      <c r="E2" s="245" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E2")&lt;&gt;"",INDIRECT("'Revision history'!E2"),"")</f>
         <v>Sample System</v>
       </c>
-      <c r="F2" s="252"/>
-      <c r="G2" s="252"/>
-      <c r="H2" s="252"/>
-      <c r="I2" s="252"/>
-      <c r="J2" s="252"/>
-      <c r="K2" s="252"/>
-      <c r="L2" s="252"/>
-      <c r="M2" s="252"/>
-      <c r="N2" s="253"/>
-      <c r="O2" s="309"/>
-      <c r="P2" s="310"/>
-      <c r="Q2" s="310"/>
-      <c r="R2" s="311"/>
-      <c r="S2" s="291"/>
-      <c r="T2" s="292"/>
-      <c r="U2" s="292"/>
-      <c r="V2" s="292"/>
-      <c r="W2" s="292"/>
-      <c r="X2" s="292"/>
-      <c r="Y2" s="292"/>
-      <c r="Z2" s="293"/>
-      <c r="AA2" s="303" t="str">
+      <c r="F2" s="246"/>
+      <c r="G2" s="246"/>
+      <c r="H2" s="246"/>
+      <c r="I2" s="246"/>
+      <c r="J2" s="246"/>
+      <c r="K2" s="246"/>
+      <c r="L2" s="246"/>
+      <c r="M2" s="246"/>
+      <c r="N2" s="247"/>
+      <c r="O2" s="303"/>
+      <c r="P2" s="304"/>
+      <c r="Q2" s="304"/>
+      <c r="R2" s="305"/>
+      <c r="S2" s="254"/>
+      <c r="T2" s="255"/>
+      <c r="U2" s="255"/>
+      <c r="V2" s="255"/>
+      <c r="W2" s="255"/>
+      <c r="X2" s="255"/>
+      <c r="Y2" s="255"/>
+      <c r="Z2" s="256"/>
+      <c r="AA2" s="297" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AA2")&lt;&gt;"",INDIRECT("'Revision history'!AA2"),"")</f>
         <v>Changes</v>
       </c>
-      <c r="AB2" s="304"/>
-      <c r="AC2" s="300" t="str">
+      <c r="AB2" s="299"/>
+      <c r="AC2" s="312" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC2")&lt;&gt;"",INDIRECT("'Revision history'!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="301"/>
-      <c r="AE2" s="301"/>
-      <c r="AF2" s="302"/>
-      <c r="AG2" s="297" t="str">
+      <c r="AD2" s="313"/>
+      <c r="AE2" s="313"/>
+      <c r="AF2" s="314"/>
+      <c r="AG2" s="309" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AG2")&lt;&gt;"",INDIRECT("'Revision history'!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="298"/>
-      <c r="AI2" s="299"/>
+      <c r="AH2" s="310"/>
+      <c r="AI2" s="311"/>
     </row>
     <row r="3" spans="1:35" s="121" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="303" t="str">
+      <c r="A3" s="297" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!A3")&lt;&gt;"",INDIRECT("'Revision history'!A3"),"")</f>
         <v>Sub-system name</v>
       </c>
-      <c r="B3" s="305"/>
-      <c r="C3" s="305"/>
-      <c r="D3" s="304"/>
-      <c r="E3" s="251" t="str">
+      <c r="B3" s="298"/>
+      <c r="C3" s="298"/>
+      <c r="D3" s="299"/>
+      <c r="E3" s="245" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E3")&lt;&gt;"",INDIRECT("'Revision history'!E3"),"")</f>
         <v>Client Management System</v>
       </c>
-      <c r="F3" s="252"/>
-      <c r="G3" s="252"/>
-      <c r="H3" s="252"/>
-      <c r="I3" s="252"/>
-      <c r="J3" s="252"/>
-      <c r="K3" s="252"/>
-      <c r="L3" s="252"/>
-      <c r="M3" s="252"/>
-      <c r="N3" s="253"/>
-      <c r="O3" s="312"/>
-      <c r="P3" s="313"/>
-      <c r="Q3" s="313"/>
-      <c r="R3" s="314"/>
-      <c r="S3" s="294"/>
-      <c r="T3" s="295"/>
-      <c r="U3" s="295"/>
-      <c r="V3" s="295"/>
-      <c r="W3" s="295"/>
-      <c r="X3" s="295"/>
-      <c r="Y3" s="295"/>
-      <c r="Z3" s="296"/>
-      <c r="AA3" s="303"/>
-      <c r="AB3" s="304"/>
-      <c r="AC3" s="300" t="str">
+      <c r="F3" s="246"/>
+      <c r="G3" s="246"/>
+      <c r="H3" s="246"/>
+      <c r="I3" s="246"/>
+      <c r="J3" s="246"/>
+      <c r="K3" s="246"/>
+      <c r="L3" s="246"/>
+      <c r="M3" s="246"/>
+      <c r="N3" s="247"/>
+      <c r="O3" s="306"/>
+      <c r="P3" s="307"/>
+      <c r="Q3" s="307"/>
+      <c r="R3" s="308"/>
+      <c r="S3" s="257"/>
+      <c r="T3" s="258"/>
+      <c r="U3" s="258"/>
+      <c r="V3" s="258"/>
+      <c r="W3" s="258"/>
+      <c r="X3" s="258"/>
+      <c r="Y3" s="258"/>
+      <c r="Z3" s="259"/>
+      <c r="AA3" s="297"/>
+      <c r="AB3" s="299"/>
+      <c r="AC3" s="312" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC3")&lt;&gt;"",INDIRECT("'Revision history'!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="301"/>
-      <c r="AE3" s="301"/>
-      <c r="AF3" s="302"/>
-      <c r="AG3" s="297" t="str">
+      <c r="AD3" s="313"/>
+      <c r="AE3" s="313"/>
+      <c r="AF3" s="314"/>
+      <c r="AG3" s="309" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AG3")&lt;&gt;"",INDIRECT("'Revision history'!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="298"/>
-      <c r="AI3" s="299"/>
+      <c r="AH3" s="310"/>
+      <c r="AI3" s="311"/>
     </row>
     <row r="4" spans="1:35" s="121" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AC4" s="100"/>
@@ -9806,7 +9807,7 @@
     </row>
     <row r="5" spans="1:35" s="32" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="91" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C5" s="78"/>
     </row>
@@ -9815,12 +9816,12 @@
       <c r="C6" s="78"/>
     </row>
     <row r="7" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="322" t="s">
-        <v>50</v>
-      </c>
-      <c r="B7" s="323"/>
-      <c r="C7" s="323"/>
-      <c r="D7" s="324"/>
+      <c r="A7" s="315" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="324"/>
+      <c r="C7" s="324"/>
+      <c r="D7" s="325"/>
       <c r="E7" s="123"/>
       <c r="F7" s="123"/>
       <c r="G7" s="123"/>
@@ -9833,82 +9834,82 @@
       <c r="N7" s="123"/>
       <c r="O7" s="123"/>
       <c r="P7" s="123"/>
-      <c r="Q7" s="352" t="s">
-        <v>75</v>
-      </c>
-      <c r="R7" s="344"/>
-      <c r="S7" s="344"/>
-      <c r="T7" s="345"/>
-      <c r="U7" s="349" t="s">
+      <c r="Q7" s="327" t="s">
+        <v>72</v>
+      </c>
+      <c r="R7" s="328"/>
+      <c r="S7" s="328"/>
+      <c r="T7" s="329"/>
+      <c r="U7" s="318" t="s">
+        <v>48</v>
+      </c>
+      <c r="V7" s="319"/>
+      <c r="W7" s="319"/>
+      <c r="X7" s="319"/>
+      <c r="Y7" s="319"/>
+      <c r="Z7" s="319"/>
+      <c r="AA7" s="319"/>
+      <c r="AB7" s="319"/>
+      <c r="AC7" s="319"/>
+      <c r="AD7" s="319"/>
+      <c r="AE7" s="319"/>
+      <c r="AF7" s="319"/>
+      <c r="AG7" s="319"/>
+      <c r="AH7" s="319"/>
+      <c r="AI7" s="320"/>
+    </row>
+    <row r="8" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="326" t="s">
+        <v>73</v>
+      </c>
+      <c r="B8" s="324"/>
+      <c r="C8" s="324"/>
+      <c r="D8" s="325"/>
+      <c r="E8" s="321" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" s="322"/>
+      <c r="G8" s="322"/>
+      <c r="H8" s="322"/>
+      <c r="I8" s="322"/>
+      <c r="J8" s="322"/>
+      <c r="K8" s="322"/>
+      <c r="L8" s="322"/>
+      <c r="M8" s="322"/>
+      <c r="N8" s="322"/>
+      <c r="O8" s="322"/>
+      <c r="P8" s="322"/>
+      <c r="Q8" s="315" t="s">
+        <v>50</v>
+      </c>
+      <c r="R8" s="324"/>
+      <c r="S8" s="324"/>
+      <c r="T8" s="325"/>
+      <c r="U8" s="321" t="s">
         <v>51</v>
       </c>
-      <c r="V7" s="350"/>
-      <c r="W7" s="350"/>
-      <c r="X7" s="350"/>
-      <c r="Y7" s="350"/>
-      <c r="Z7" s="350"/>
-      <c r="AA7" s="350"/>
-      <c r="AB7" s="350"/>
-      <c r="AC7" s="350"/>
-      <c r="AD7" s="350"/>
-      <c r="AE7" s="350"/>
-      <c r="AF7" s="350"/>
-      <c r="AG7" s="350"/>
-      <c r="AH7" s="350"/>
-      <c r="AI7" s="351"/>
-    </row>
-    <row r="8" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="315" t="s">
-        <v>76</v>
-      </c>
-      <c r="B8" s="323"/>
-      <c r="C8" s="323"/>
-      <c r="D8" s="324"/>
-      <c r="E8" s="334" t="s">
+      <c r="V8" s="322"/>
+      <c r="W8" s="322"/>
+      <c r="X8" s="322"/>
+      <c r="Y8" s="322"/>
+      <c r="Z8" s="322"/>
+      <c r="AA8" s="322"/>
+      <c r="AB8" s="322"/>
+      <c r="AC8" s="322"/>
+      <c r="AD8" s="322"/>
+      <c r="AE8" s="322"/>
+      <c r="AF8" s="322"/>
+      <c r="AG8" s="322"/>
+      <c r="AH8" s="322"/>
+      <c r="AI8" s="323"/>
+    </row>
+    <row r="9" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="315" t="s">
         <v>52</v>
       </c>
-      <c r="F8" s="335"/>
-      <c r="G8" s="335"/>
-      <c r="H8" s="335"/>
-      <c r="I8" s="335"/>
-      <c r="J8" s="335"/>
-      <c r="K8" s="335"/>
-      <c r="L8" s="335"/>
-      <c r="M8" s="335"/>
-      <c r="N8" s="335"/>
-      <c r="O8" s="335"/>
-      <c r="P8" s="335"/>
-      <c r="Q8" s="322" t="s">
-        <v>53</v>
-      </c>
-      <c r="R8" s="323"/>
-      <c r="S8" s="323"/>
-      <c r="T8" s="324"/>
-      <c r="U8" s="334" t="s">
-        <v>54</v>
-      </c>
-      <c r="V8" s="335"/>
-      <c r="W8" s="335"/>
-      <c r="X8" s="335"/>
-      <c r="Y8" s="335"/>
-      <c r="Z8" s="335"/>
-      <c r="AA8" s="335"/>
-      <c r="AB8" s="335"/>
-      <c r="AC8" s="335"/>
-      <c r="AD8" s="335"/>
-      <c r="AE8" s="335"/>
-      <c r="AF8" s="335"/>
-      <c r="AG8" s="335"/>
-      <c r="AH8" s="335"/>
-      <c r="AI8" s="336"/>
-    </row>
-    <row r="9" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="322" t="s">
-        <v>55</v>
-      </c>
-      <c r="B9" s="323"/>
-      <c r="C9" s="323"/>
-      <c r="D9" s="324"/>
+      <c r="B9" s="324"/>
+      <c r="C9" s="324"/>
+      <c r="D9" s="325"/>
       <c r="E9" s="125"/>
       <c r="F9" s="125"/>
       <c r="G9" s="125"/>
@@ -9944,7 +9945,7 @@
     <row r="10" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="128"/>
       <c r="B10" s="129" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C10" s="129"/>
       <c r="D10" s="129"/>
@@ -10058,7 +10059,7 @@
       <c r="A13" s="133"/>
       <c r="B13" s="134"/>
       <c r="C13" s="135" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D13" s="135"/>
       <c r="E13" s="135"/>
@@ -10094,8 +10095,8 @@
       <c r="AI13" s="136"/>
     </row>
     <row r="14" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="322" t="s">
-        <v>58</v>
+      <c r="A14" s="315" t="s">
+        <v>55</v>
       </c>
       <c r="B14" s="316"/>
       <c r="C14" s="316"/>
@@ -10244,12 +10245,12 @@
       <c r="AI17" s="136"/>
     </row>
     <row r="18" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="337" t="s">
-        <v>59</v>
-      </c>
-      <c r="B18" s="338"/>
-      <c r="C18" s="338"/>
-      <c r="D18" s="339"/>
+      <c r="A18" s="330" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" s="331"/>
+      <c r="C18" s="331"/>
+      <c r="D18" s="332"/>
       <c r="E18" s="138"/>
       <c r="F18" s="139"/>
       <c r="G18" s="111"/>
@@ -10262,12 +10263,12 @@
       <c r="N18" s="111"/>
       <c r="O18" s="109"/>
       <c r="P18" s="111"/>
-      <c r="Q18" s="337" t="s">
-        <v>60</v>
-      </c>
-      <c r="R18" s="338"/>
-      <c r="S18" s="338"/>
-      <c r="T18" s="339"/>
+      <c r="Q18" s="330" t="s">
+        <v>57</v>
+      </c>
+      <c r="R18" s="331"/>
+      <c r="S18" s="331"/>
+      <c r="T18" s="332"/>
       <c r="U18" s="129"/>
       <c r="V18" s="129"/>
       <c r="W18" s="129"/>
@@ -10292,7 +10293,7 @@
       <c r="E19" s="138"/>
       <c r="F19" s="139"/>
       <c r="G19" s="139" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H19" s="111"/>
       <c r="I19" s="111"/>
@@ -10303,7 +10304,7 @@
       <c r="N19" s="111"/>
       <c r="O19" s="111"/>
       <c r="P19" s="111" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="Q19" s="141"/>
       <c r="R19" s="142"/>
@@ -10319,14 +10320,14 @@
       <c r="AB19" s="120"/>
       <c r="AC19" s="120"/>
       <c r="AD19" s="144" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="AE19" s="120"/>
       <c r="AF19" s="120"/>
       <c r="AG19" s="129"/>
       <c r="AH19" s="129"/>
       <c r="AI19" s="130" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -10367,55 +10368,55 @@
       <c r="AI20" s="130"/>
     </row>
     <row r="21" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="322" t="s">
+      <c r="A21" s="315" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" s="324"/>
+      <c r="C21" s="324"/>
+      <c r="D21" s="325"/>
+      <c r="E21" s="321" t="s">
+        <v>61</v>
+      </c>
+      <c r="F21" s="322"/>
+      <c r="G21" s="322"/>
+      <c r="H21" s="322"/>
+      <c r="I21" s="322"/>
+      <c r="J21" s="322"/>
+      <c r="K21" s="322"/>
+      <c r="L21" s="322"/>
+      <c r="M21" s="322"/>
+      <c r="N21" s="322"/>
+      <c r="O21" s="322"/>
+      <c r="P21" s="323"/>
+      <c r="Q21" s="315" t="s">
+        <v>62</v>
+      </c>
+      <c r="R21" s="324"/>
+      <c r="S21" s="324"/>
+      <c r="T21" s="325"/>
+      <c r="U21" s="333"/>
+      <c r="V21" s="334"/>
+      <c r="W21" s="334"/>
+      <c r="X21" s="334"/>
+      <c r="Y21" s="334"/>
+      <c r="Z21" s="334"/>
+      <c r="AA21" s="334"/>
+      <c r="AB21" s="334"/>
+      <c r="AC21" s="334"/>
+      <c r="AD21" s="334"/>
+      <c r="AE21" s="334"/>
+      <c r="AF21" s="334"/>
+      <c r="AG21" s="334"/>
+      <c r="AH21" s="334"/>
+      <c r="AI21" s="335"/>
+    </row>
+    <row r="22" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="336" t="s">
         <v>63</v>
       </c>
-      <c r="B21" s="323"/>
-      <c r="C21" s="323"/>
-      <c r="D21" s="324"/>
-      <c r="E21" s="334" t="s">
-        <v>64</v>
-      </c>
-      <c r="F21" s="335"/>
-      <c r="G21" s="335"/>
-      <c r="H21" s="335"/>
-      <c r="I21" s="335"/>
-      <c r="J21" s="335"/>
-      <c r="K21" s="335"/>
-      <c r="L21" s="335"/>
-      <c r="M21" s="335"/>
-      <c r="N21" s="335"/>
-      <c r="O21" s="335"/>
-      <c r="P21" s="336"/>
-      <c r="Q21" s="322" t="s">
-        <v>65</v>
-      </c>
-      <c r="R21" s="323"/>
-      <c r="S21" s="323"/>
-      <c r="T21" s="324"/>
-      <c r="U21" s="340"/>
-      <c r="V21" s="341"/>
-      <c r="W21" s="341"/>
-      <c r="X21" s="341"/>
-      <c r="Y21" s="341"/>
-      <c r="Z21" s="341"/>
-      <c r="AA21" s="341"/>
-      <c r="AB21" s="341"/>
-      <c r="AC21" s="341"/>
-      <c r="AD21" s="341"/>
-      <c r="AE21" s="341"/>
-      <c r="AF21" s="341"/>
-      <c r="AG21" s="341"/>
-      <c r="AH21" s="341"/>
-      <c r="AI21" s="342"/>
-    </row>
-    <row r="22" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="343" t="s">
-        <v>66</v>
-      </c>
-      <c r="B22" s="344"/>
-      <c r="C22" s="344"/>
-      <c r="D22" s="345"/>
+      <c r="B22" s="328"/>
+      <c r="C22" s="328"/>
+      <c r="D22" s="329"/>
       <c r="E22" s="148"/>
       <c r="F22" s="149"/>
       <c r="G22" s="126"/>
@@ -10428,12 +10429,12 @@
       <c r="N22" s="126"/>
       <c r="O22" s="125"/>
       <c r="P22" s="126"/>
-      <c r="Q22" s="343" t="s">
-        <v>67</v>
-      </c>
-      <c r="R22" s="344"/>
-      <c r="S22" s="344"/>
-      <c r="T22" s="345"/>
+      <c r="Q22" s="336" t="s">
+        <v>64</v>
+      </c>
+      <c r="R22" s="328"/>
+      <c r="S22" s="328"/>
+      <c r="T22" s="329"/>
       <c r="U22" s="102"/>
       <c r="V22" s="103"/>
       <c r="W22" s="150"/>
@@ -10458,7 +10459,7 @@
       <c r="E23" s="152"/>
       <c r="F23" s="153"/>
       <c r="G23" s="153" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H23" s="134"/>
       <c r="I23" s="134"/>
@@ -10469,7 +10470,7 @@
       <c r="N23" s="134"/>
       <c r="O23" s="134"/>
       <c r="P23" s="134" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="Q23" s="145"/>
       <c r="R23" s="146"/>
@@ -10482,7 +10483,7 @@
       <c r="Y23" s="155"/>
       <c r="Z23" s="117"/>
       <c r="AA23" s="156" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="AB23" s="117"/>
       <c r="AC23" s="117"/>
@@ -10492,42 +10493,42 @@
       <c r="AG23" s="156"/>
       <c r="AH23" s="155"/>
       <c r="AI23" s="118" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="331" t="s">
+      <c r="A24" s="350" t="s">
+        <v>65</v>
+      </c>
+      <c r="B24" s="351"/>
+      <c r="C24" s="351"/>
+      <c r="D24" s="352"/>
+      <c r="E24" s="321" t="s">
+        <v>66</v>
+      </c>
+      <c r="F24" s="322"/>
+      <c r="G24" s="322"/>
+      <c r="H24" s="322"/>
+      <c r="I24" s="322"/>
+      <c r="J24" s="322"/>
+      <c r="K24" s="322"/>
+      <c r="L24" s="322"/>
+      <c r="M24" s="322"/>
+      <c r="N24" s="322"/>
+      <c r="O24" s="322"/>
+      <c r="P24" s="323"/>
+      <c r="Q24" s="337" t="s">
+        <v>67</v>
+      </c>
+      <c r="R24" s="338"/>
+      <c r="S24" s="338"/>
+      <c r="T24" s="339"/>
+      <c r="U24" s="342"/>
+      <c r="V24" s="343"/>
+      <c r="W24" s="343"/>
+      <c r="X24" s="343"/>
+      <c r="Y24" s="157" t="s">
         <v>68</v>
-      </c>
-      <c r="B24" s="332"/>
-      <c r="C24" s="332"/>
-      <c r="D24" s="333"/>
-      <c r="E24" s="334" t="s">
-        <v>69</v>
-      </c>
-      <c r="F24" s="335"/>
-      <c r="G24" s="335"/>
-      <c r="H24" s="335"/>
-      <c r="I24" s="335"/>
-      <c r="J24" s="335"/>
-      <c r="K24" s="335"/>
-      <c r="L24" s="335"/>
-      <c r="M24" s="335"/>
-      <c r="N24" s="335"/>
-      <c r="O24" s="335"/>
-      <c r="P24" s="336"/>
-      <c r="Q24" s="346" t="s">
-        <v>70</v>
-      </c>
-      <c r="R24" s="347"/>
-      <c r="S24" s="347"/>
-      <c r="T24" s="348"/>
-      <c r="U24" s="320"/>
-      <c r="V24" s="321"/>
-      <c r="W24" s="321"/>
-      <c r="X24" s="321"/>
-      <c r="Y24" s="157" t="s">
-        <v>71</v>
       </c>
       <c r="Z24" s="158"/>
       <c r="AA24" s="158"/>
@@ -10541,45 +10542,45 @@
       <c r="AI24" s="159"/>
     </row>
     <row r="25" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="327" t="s">
-        <v>72</v>
-      </c>
-      <c r="B25" s="328"/>
-      <c r="C25" s="328"/>
-      <c r="D25" s="329"/>
+      <c r="A25" s="346" t="s">
+        <v>69</v>
+      </c>
+      <c r="B25" s="347"/>
+      <c r="C25" s="347"/>
+      <c r="D25" s="348"/>
       <c r="E25" s="148"/>
       <c r="F25" s="160"/>
       <c r="G25" s="149" t="s">
-        <v>61</v>
-      </c>
-      <c r="H25" s="318"/>
-      <c r="I25" s="319"/>
-      <c r="J25" s="319"/>
-      <c r="K25" s="319"/>
-      <c r="L25" s="319"/>
-      <c r="M25" s="319"/>
-      <c r="N25" s="319"/>
-      <c r="O25" s="319"/>
-      <c r="P25" s="319"/>
+        <v>58</v>
+      </c>
+      <c r="H25" s="340"/>
+      <c r="I25" s="341"/>
+      <c r="J25" s="341"/>
+      <c r="K25" s="341"/>
+      <c r="L25" s="341"/>
+      <c r="M25" s="341"/>
+      <c r="N25" s="341"/>
+      <c r="O25" s="341"/>
+      <c r="P25" s="341"/>
       <c r="Q25" s="126" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="R25" s="126"/>
       <c r="S25" s="149"/>
       <c r="T25" s="149" t="s">
-        <v>61</v>
-      </c>
-      <c r="U25" s="330"/>
-      <c r="V25" s="330"/>
-      <c r="W25" s="330"/>
-      <c r="X25" s="330"/>
-      <c r="Y25" s="330"/>
-      <c r="Z25" s="330"/>
-      <c r="AA25" s="330"/>
-      <c r="AB25" s="330"/>
-      <c r="AC25" s="330"/>
+        <v>58</v>
+      </c>
+      <c r="U25" s="349"/>
+      <c r="V25" s="349"/>
+      <c r="W25" s="349"/>
+      <c r="X25" s="349"/>
+      <c r="Y25" s="349"/>
+      <c r="Z25" s="349"/>
+      <c r="AA25" s="349"/>
+      <c r="AB25" s="349"/>
+      <c r="AC25" s="349"/>
       <c r="AD25" s="126" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AE25" s="126"/>
       <c r="AF25" s="126"/>
@@ -10595,36 +10596,36 @@
       <c r="E26" s="128"/>
       <c r="F26" s="164"/>
       <c r="G26" s="144" t="s">
-        <v>61</v>
-      </c>
-      <c r="H26" s="326"/>
-      <c r="I26" s="326"/>
-      <c r="J26" s="326"/>
-      <c r="K26" s="326"/>
-      <c r="L26" s="326"/>
-      <c r="M26" s="326"/>
-      <c r="N26" s="326"/>
-      <c r="O26" s="326"/>
-      <c r="P26" s="326"/>
+        <v>58</v>
+      </c>
+      <c r="H26" s="345"/>
+      <c r="I26" s="345"/>
+      <c r="J26" s="345"/>
+      <c r="K26" s="345"/>
+      <c r="L26" s="345"/>
+      <c r="M26" s="345"/>
+      <c r="N26" s="345"/>
+      <c r="O26" s="345"/>
+      <c r="P26" s="345"/>
       <c r="Q26" s="120" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="R26" s="120"/>
       <c r="S26" s="144"/>
       <c r="T26" s="144" t="s">
-        <v>61</v>
-      </c>
-      <c r="U26" s="326"/>
-      <c r="V26" s="326"/>
-      <c r="W26" s="326"/>
-      <c r="X26" s="326"/>
-      <c r="Y26" s="326"/>
-      <c r="Z26" s="326"/>
-      <c r="AA26" s="326"/>
-      <c r="AB26" s="326"/>
-      <c r="AC26" s="326"/>
+        <v>58</v>
+      </c>
+      <c r="U26" s="345"/>
+      <c r="V26" s="345"/>
+      <c r="W26" s="345"/>
+      <c r="X26" s="345"/>
+      <c r="Y26" s="345"/>
+      <c r="Z26" s="345"/>
+      <c r="AA26" s="345"/>
+      <c r="AB26" s="345"/>
+      <c r="AC26" s="345"/>
       <c r="AD26" s="120" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AE26" s="120"/>
       <c r="AF26" s="120"/>
@@ -10640,46 +10641,46 @@
       <c r="E27" s="152"/>
       <c r="F27" s="168"/>
       <c r="G27" s="153" t="s">
-        <v>61</v>
-      </c>
-      <c r="H27" s="325"/>
-      <c r="I27" s="325"/>
-      <c r="J27" s="325"/>
-      <c r="K27" s="325"/>
-      <c r="L27" s="325"/>
-      <c r="M27" s="325"/>
-      <c r="N27" s="325"/>
-      <c r="O27" s="325"/>
-      <c r="P27" s="325"/>
+        <v>58</v>
+      </c>
+      <c r="H27" s="344"/>
+      <c r="I27" s="344"/>
+      <c r="J27" s="344"/>
+      <c r="K27" s="344"/>
+      <c r="L27" s="344"/>
+      <c r="M27" s="344"/>
+      <c r="N27" s="344"/>
+      <c r="O27" s="344"/>
+      <c r="P27" s="344"/>
       <c r="Q27" s="134" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="R27" s="134"/>
       <c r="S27" s="153"/>
       <c r="T27" s="153" t="s">
-        <v>61</v>
-      </c>
-      <c r="U27" s="325"/>
-      <c r="V27" s="325"/>
-      <c r="W27" s="325"/>
-      <c r="X27" s="325"/>
-      <c r="Y27" s="325"/>
-      <c r="Z27" s="325"/>
-      <c r="AA27" s="325"/>
-      <c r="AB27" s="325"/>
-      <c r="AC27" s="325"/>
-      <c r="AD27" s="325"/>
-      <c r="AE27" s="325"/>
-      <c r="AF27" s="325"/>
-      <c r="AG27" s="325"/>
-      <c r="AH27" s="325"/>
+        <v>58</v>
+      </c>
+      <c r="U27" s="344"/>
+      <c r="V27" s="344"/>
+      <c r="W27" s="344"/>
+      <c r="X27" s="344"/>
+      <c r="Y27" s="344"/>
+      <c r="Z27" s="344"/>
+      <c r="AA27" s="344"/>
+      <c r="AB27" s="344"/>
+      <c r="AC27" s="344"/>
+      <c r="AD27" s="344"/>
+      <c r="AE27" s="344"/>
+      <c r="AF27" s="344"/>
+      <c r="AG27" s="344"/>
+      <c r="AH27" s="344"/>
       <c r="AI27" s="136" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="315" t="s">
-        <v>77</v>
+      <c r="A28" s="326" t="s">
+        <v>74</v>
       </c>
       <c r="B28" s="316"/>
       <c r="C28" s="316"/>
@@ -10829,21 +10830,23 @@
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="U7:AI7"/>
-    <mergeCell ref="U8:AI8"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="E8:P8"/>
-    <mergeCell ref="Q8:T8"/>
-    <mergeCell ref="Q7:T7"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="U21:AI21"/>
-    <mergeCell ref="Q22:T22"/>
-    <mergeCell ref="Q24:T24"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="Q18:T18"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AC1:AF1"/>
     <mergeCell ref="A28:D28"/>
     <mergeCell ref="H25:P25"/>
     <mergeCell ref="U24:X24"/>
@@ -10858,23 +10861,21 @@
     <mergeCell ref="A21:D21"/>
     <mergeCell ref="E21:P21"/>
     <mergeCell ref="E24:P24"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="U21:AI21"/>
+    <mergeCell ref="Q22:T22"/>
+    <mergeCell ref="Q24:T24"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="Q18:T18"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="U7:AI7"/>
+    <mergeCell ref="U8:AI8"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="E8:P8"/>
+    <mergeCell ref="Q8:T8"/>
+    <mergeCell ref="Q7:T7"/>
   </mergeCells>
   <phoneticPr fontId="10"/>
   <printOptions horizontalCentered="1"/>
@@ -11417,163 +11418,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" s="79" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="303" t="str">
+      <c r="A1" s="297" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!A1")&lt;&gt;"",INDIRECT("'Revision history'!A1"),"")</f>
         <v>Project name</v>
       </c>
-      <c r="B1" s="305"/>
-      <c r="C1" s="305"/>
-      <c r="D1" s="304"/>
-      <c r="E1" s="251" t="str">
+      <c r="B1" s="298"/>
+      <c r="C1" s="298"/>
+      <c r="D1" s="299"/>
+      <c r="E1" s="245" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E1")&lt;&gt;"",INDIRECT("'Revision history'!E1"),"")</f>
         <v>Sample Project</v>
       </c>
-      <c r="F1" s="252"/>
-      <c r="G1" s="252"/>
-      <c r="H1" s="252"/>
-      <c r="I1" s="252"/>
-      <c r="J1" s="252"/>
-      <c r="K1" s="252"/>
-      <c r="L1" s="252"/>
-      <c r="M1" s="252"/>
-      <c r="N1" s="253"/>
-      <c r="O1" s="306" t="str">
+      <c r="F1" s="246"/>
+      <c r="G1" s="246"/>
+      <c r="H1" s="246"/>
+      <c r="I1" s="246"/>
+      <c r="J1" s="246"/>
+      <c r="K1" s="246"/>
+      <c r="L1" s="246"/>
+      <c r="M1" s="246"/>
+      <c r="N1" s="247"/>
+      <c r="O1" s="300" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!O1")&lt;&gt;"",INDIRECT("'Revision history'!O1"),"")</f>
         <v>Deliverable name</v>
       </c>
-      <c r="P1" s="307"/>
-      <c r="Q1" s="307"/>
-      <c r="R1" s="308"/>
-      <c r="S1" s="288" t="str">
+      <c r="P1" s="301"/>
+      <c r="Q1" s="301"/>
+      <c r="R1" s="302"/>
+      <c r="S1" s="251" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!S1")&lt;&gt;"",INDIRECT("'Revision history'!S1"),"")</f>
         <v>External Interface Design Document(JSON)</v>
       </c>
-      <c r="T1" s="289"/>
-      <c r="U1" s="289"/>
-      <c r="V1" s="289"/>
-      <c r="W1" s="289"/>
-      <c r="X1" s="289"/>
-      <c r="Y1" s="289"/>
-      <c r="Z1" s="290"/>
-      <c r="AA1" s="303" t="str">
+      <c r="T1" s="252"/>
+      <c r="U1" s="252"/>
+      <c r="V1" s="252"/>
+      <c r="W1" s="252"/>
+      <c r="X1" s="252"/>
+      <c r="Y1" s="252"/>
+      <c r="Z1" s="253"/>
+      <c r="AA1" s="297" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AA1")&lt;&gt;"",INDIRECT("'Revision history'!AA1"),"")</f>
         <v>Prepared by</v>
       </c>
-      <c r="AB1" s="304"/>
-      <c r="AC1" s="300" t="str">
+      <c r="AB1" s="299"/>
+      <c r="AC1" s="312" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC1")&lt;&gt;"",INDIRECT("'Revision history'!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="301"/>
-      <c r="AE1" s="301"/>
-      <c r="AF1" s="302"/>
-      <c r="AG1" s="297">
+      <c r="AD1" s="313"/>
+      <c r="AE1" s="313"/>
+      <c r="AF1" s="314"/>
+      <c r="AG1" s="309">
         <f ca="1">IF(INDIRECT("'Revision history'!AG1")&lt;&gt;"",INDIRECT("'Revision history'!AG1"),"")</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="298"/>
-      <c r="AI1" s="299"/>
+      <c r="AH1" s="310"/>
+      <c r="AI1" s="311"/>
     </row>
     <row r="2" spans="1:36" s="79" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="303" t="str">
+      <c r="A2" s="297" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!A2")&lt;&gt;"",INDIRECT("'Revision history'!A2"),"")</f>
         <v>System name</v>
       </c>
-      <c r="B2" s="305"/>
-      <c r="C2" s="305"/>
-      <c r="D2" s="304"/>
-      <c r="E2" s="251" t="str">
+      <c r="B2" s="298"/>
+      <c r="C2" s="298"/>
+      <c r="D2" s="299"/>
+      <c r="E2" s="245" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E2")&lt;&gt;"",INDIRECT("'Revision history'!E2"),"")</f>
         <v>Sample System</v>
       </c>
-      <c r="F2" s="252"/>
-      <c r="G2" s="252"/>
-      <c r="H2" s="252"/>
-      <c r="I2" s="252"/>
-      <c r="J2" s="252"/>
-      <c r="K2" s="252"/>
-      <c r="L2" s="252"/>
-      <c r="M2" s="252"/>
-      <c r="N2" s="253"/>
-      <c r="O2" s="309"/>
-      <c r="P2" s="310"/>
-      <c r="Q2" s="310"/>
-      <c r="R2" s="311"/>
-      <c r="S2" s="291"/>
-      <c r="T2" s="292"/>
-      <c r="U2" s="292"/>
-      <c r="V2" s="292"/>
-      <c r="W2" s="292"/>
-      <c r="X2" s="292"/>
-      <c r="Y2" s="292"/>
-      <c r="Z2" s="293"/>
-      <c r="AA2" s="303" t="str">
+      <c r="F2" s="246"/>
+      <c r="G2" s="246"/>
+      <c r="H2" s="246"/>
+      <c r="I2" s="246"/>
+      <c r="J2" s="246"/>
+      <c r="K2" s="246"/>
+      <c r="L2" s="246"/>
+      <c r="M2" s="246"/>
+      <c r="N2" s="247"/>
+      <c r="O2" s="303"/>
+      <c r="P2" s="304"/>
+      <c r="Q2" s="304"/>
+      <c r="R2" s="305"/>
+      <c r="S2" s="254"/>
+      <c r="T2" s="255"/>
+      <c r="U2" s="255"/>
+      <c r="V2" s="255"/>
+      <c r="W2" s="255"/>
+      <c r="X2" s="255"/>
+      <c r="Y2" s="255"/>
+      <c r="Z2" s="256"/>
+      <c r="AA2" s="297" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AA2")&lt;&gt;"",INDIRECT("'Revision history'!AA2"),"")</f>
         <v>Changes</v>
       </c>
-      <c r="AB2" s="304"/>
-      <c r="AC2" s="300" t="str">
+      <c r="AB2" s="299"/>
+      <c r="AC2" s="312" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC2")&lt;&gt;"",INDIRECT("'Revision history'!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="301"/>
-      <c r="AE2" s="301"/>
-      <c r="AF2" s="302"/>
-      <c r="AG2" s="297" t="str">
+      <c r="AD2" s="313"/>
+      <c r="AE2" s="313"/>
+      <c r="AF2" s="314"/>
+      <c r="AG2" s="309" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AG2")&lt;&gt;"",INDIRECT("'Revision history'!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="298"/>
-      <c r="AI2" s="299"/>
+      <c r="AH2" s="310"/>
+      <c r="AI2" s="311"/>
     </row>
     <row r="3" spans="1:36" s="79" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="303" t="str">
+      <c r="A3" s="297" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!A3")&lt;&gt;"",INDIRECT("'Revision history'!A3"),"")</f>
         <v>Sub-system name</v>
       </c>
-      <c r="B3" s="305"/>
-      <c r="C3" s="305"/>
-      <c r="D3" s="304"/>
-      <c r="E3" s="251" t="str">
+      <c r="B3" s="298"/>
+      <c r="C3" s="298"/>
+      <c r="D3" s="299"/>
+      <c r="E3" s="245" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E3")&lt;&gt;"",INDIRECT("'Revision history'!E3"),"")</f>
         <v>Client Management System</v>
       </c>
-      <c r="F3" s="252"/>
-      <c r="G3" s="252"/>
-      <c r="H3" s="252"/>
-      <c r="I3" s="252"/>
-      <c r="J3" s="252"/>
-      <c r="K3" s="252"/>
-      <c r="L3" s="252"/>
-      <c r="M3" s="252"/>
-      <c r="N3" s="253"/>
-      <c r="O3" s="312"/>
-      <c r="P3" s="313"/>
-      <c r="Q3" s="313"/>
-      <c r="R3" s="314"/>
-      <c r="S3" s="294"/>
-      <c r="T3" s="295"/>
-      <c r="U3" s="295"/>
-      <c r="V3" s="295"/>
-      <c r="W3" s="295"/>
-      <c r="X3" s="295"/>
-      <c r="Y3" s="295"/>
-      <c r="Z3" s="296"/>
-      <c r="AA3" s="303"/>
-      <c r="AB3" s="304"/>
-      <c r="AC3" s="300" t="str">
+      <c r="F3" s="246"/>
+      <c r="G3" s="246"/>
+      <c r="H3" s="246"/>
+      <c r="I3" s="246"/>
+      <c r="J3" s="246"/>
+      <c r="K3" s="246"/>
+      <c r="L3" s="246"/>
+      <c r="M3" s="246"/>
+      <c r="N3" s="247"/>
+      <c r="O3" s="306"/>
+      <c r="P3" s="307"/>
+      <c r="Q3" s="307"/>
+      <c r="R3" s="308"/>
+      <c r="S3" s="257"/>
+      <c r="T3" s="258"/>
+      <c r="U3" s="258"/>
+      <c r="V3" s="258"/>
+      <c r="W3" s="258"/>
+      <c r="X3" s="258"/>
+      <c r="Y3" s="258"/>
+      <c r="Z3" s="259"/>
+      <c r="AA3" s="297"/>
+      <c r="AB3" s="299"/>
+      <c r="AC3" s="312" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC3")&lt;&gt;"",INDIRECT("'Revision history'!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="301"/>
-      <c r="AE3" s="301"/>
-      <c r="AF3" s="302"/>
-      <c r="AG3" s="297" t="str">
+      <c r="AD3" s="313"/>
+      <c r="AE3" s="313"/>
+      <c r="AF3" s="314"/>
+      <c r="AG3" s="309" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AG3")&lt;&gt;"",INDIRECT("'Revision history'!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="298"/>
-      <c r="AI3" s="299"/>
+      <c r="AH3" s="310"/>
+      <c r="AI3" s="311"/>
     </row>
     <row r="4" spans="1:36" s="79" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="80"/>
@@ -11634,7 +11635,7 @@
     </row>
     <row r="6" spans="1:36" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="91" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C6" s="92"/>
     </row>
@@ -11643,461 +11644,461 @@
       <c r="C7" s="92"/>
     </row>
     <row r="8" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A8" s="419" t="s">
-        <v>78</v>
-      </c>
-      <c r="B8" s="369"/>
-      <c r="C8" s="369"/>
-      <c r="D8" s="369"/>
-      <c r="E8" s="369"/>
-      <c r="F8" s="369"/>
-      <c r="G8" s="369"/>
-      <c r="H8" s="369"/>
-      <c r="I8" s="369"/>
-      <c r="J8" s="369"/>
-      <c r="K8" s="369"/>
-      <c r="L8" s="369"/>
-      <c r="M8" s="369"/>
-      <c r="N8" s="369"/>
-      <c r="O8" s="369"/>
-      <c r="P8" s="369"/>
-      <c r="Q8" s="369"/>
-      <c r="R8" s="369"/>
-      <c r="S8" s="369"/>
-      <c r="T8" s="369"/>
-      <c r="U8" s="369"/>
-      <c r="V8" s="369"/>
-      <c r="W8" s="369"/>
-      <c r="X8" s="369"/>
-      <c r="Y8" s="369"/>
-      <c r="Z8" s="369"/>
-      <c r="AA8" s="369"/>
-      <c r="AB8" s="420"/>
-      <c r="AC8" s="368" t="s">
-        <v>39</v>
-      </c>
-      <c r="AD8" s="369"/>
-      <c r="AE8" s="370"/>
-      <c r="AF8" s="365"/>
-      <c r="AG8" s="366"/>
-      <c r="AH8" s="366"/>
-      <c r="AI8" s="367"/>
+      <c r="A8" s="371" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8" s="372"/>
+      <c r="C8" s="372"/>
+      <c r="D8" s="372"/>
+      <c r="E8" s="372"/>
+      <c r="F8" s="372"/>
+      <c r="G8" s="372"/>
+      <c r="H8" s="372"/>
+      <c r="I8" s="372"/>
+      <c r="J8" s="372"/>
+      <c r="K8" s="372"/>
+      <c r="L8" s="372"/>
+      <c r="M8" s="372"/>
+      <c r="N8" s="372"/>
+      <c r="O8" s="372"/>
+      <c r="P8" s="372"/>
+      <c r="Q8" s="372"/>
+      <c r="R8" s="372"/>
+      <c r="S8" s="372"/>
+      <c r="T8" s="372"/>
+      <c r="U8" s="372"/>
+      <c r="V8" s="372"/>
+      <c r="W8" s="372"/>
+      <c r="X8" s="372"/>
+      <c r="Y8" s="372"/>
+      <c r="Z8" s="372"/>
+      <c r="AA8" s="372"/>
+      <c r="AB8" s="373"/>
+      <c r="AC8" s="437" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD8" s="372"/>
+      <c r="AE8" s="438"/>
+      <c r="AF8" s="434"/>
+      <c r="AG8" s="435"/>
+      <c r="AH8" s="435"/>
+      <c r="AI8" s="436"/>
     </row>
     <row r="9" spans="1:36" s="94" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="93" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="356" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="270"/>
+      <c r="D9" s="270"/>
+      <c r="E9" s="270"/>
+      <c r="F9" s="271"/>
+      <c r="G9" s="356" t="s">
+        <v>39</v>
+      </c>
+      <c r="H9" s="357"/>
+      <c r="I9" s="358"/>
+      <c r="J9" s="356" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="415" t="s">
+      <c r="K9" s="357"/>
+      <c r="L9" s="357"/>
+      <c r="M9" s="357"/>
+      <c r="N9" s="357"/>
+      <c r="O9" s="357"/>
+      <c r="P9" s="358"/>
+      <c r="Q9" s="361" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="261"/>
-      <c r="D9" s="261"/>
-      <c r="E9" s="261"/>
-      <c r="F9" s="262"/>
-      <c r="G9" s="415" t="s">
+      <c r="R9" s="363"/>
+      <c r="S9" s="361" t="s">
         <v>42</v>
       </c>
-      <c r="H9" s="416"/>
-      <c r="I9" s="418"/>
-      <c r="J9" s="415" t="s">
+      <c r="T9" s="362"/>
+      <c r="U9" s="363"/>
+      <c r="V9" s="356" t="s">
         <v>43</v>
       </c>
-      <c r="K9" s="416"/>
-      <c r="L9" s="416"/>
-      <c r="M9" s="416"/>
-      <c r="N9" s="416"/>
-      <c r="O9" s="416"/>
-      <c r="P9" s="418"/>
-      <c r="Q9" s="433" t="s">
+      <c r="W9" s="357"/>
+      <c r="X9" s="357"/>
+      <c r="Y9" s="357"/>
+      <c r="Z9" s="357"/>
+      <c r="AA9" s="357"/>
+      <c r="AB9" s="370"/>
+      <c r="AC9" s="382" t="s">
         <v>44</v>
       </c>
-      <c r="R9" s="435"/>
-      <c r="S9" s="433" t="s">
-        <v>45</v>
-      </c>
-      <c r="T9" s="434"/>
-      <c r="U9" s="435"/>
-      <c r="V9" s="415" t="s">
-        <v>46</v>
-      </c>
-      <c r="W9" s="416"/>
-      <c r="X9" s="416"/>
-      <c r="Y9" s="416"/>
-      <c r="Z9" s="416"/>
-      <c r="AA9" s="416"/>
-      <c r="AB9" s="417"/>
-      <c r="AC9" s="427" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD9" s="428"/>
-      <c r="AE9" s="428"/>
-      <c r="AF9" s="428"/>
-      <c r="AG9" s="428"/>
-      <c r="AH9" s="429" t="s">
-        <v>82</v>
-      </c>
-      <c r="AI9" s="429"/>
+      <c r="AD9" s="383"/>
+      <c r="AE9" s="383"/>
+      <c r="AF9" s="383"/>
+      <c r="AG9" s="383"/>
+      <c r="AH9" s="384" t="s">
+        <v>79</v>
+      </c>
+      <c r="AI9" s="384"/>
     </row>
     <row r="10" spans="1:36" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="95">
         <v>1</v>
       </c>
-      <c r="B10" s="378" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" s="379"/>
-      <c r="D10" s="379"/>
-      <c r="E10" s="379"/>
-      <c r="F10" s="380"/>
-      <c r="G10" s="424"/>
-      <c r="H10" s="425"/>
-      <c r="I10" s="426"/>
-      <c r="J10" s="436"/>
-      <c r="K10" s="437"/>
-      <c r="L10" s="437"/>
-      <c r="M10" s="437"/>
-      <c r="N10" s="437"/>
-      <c r="O10" s="437"/>
-      <c r="P10" s="438"/>
-      <c r="Q10" s="387"/>
-      <c r="R10" s="389"/>
-      <c r="S10" s="387"/>
-      <c r="T10" s="388"/>
-      <c r="U10" s="389"/>
-      <c r="V10" s="430"/>
-      <c r="W10" s="431"/>
-      <c r="X10" s="431"/>
-      <c r="Y10" s="431"/>
-      <c r="Z10" s="431"/>
-      <c r="AA10" s="431"/>
-      <c r="AB10" s="432"/>
-      <c r="AC10" s="412"/>
-      <c r="AD10" s="356"/>
-      <c r="AE10" s="357"/>
-      <c r="AF10" s="357"/>
-      <c r="AG10" s="358"/>
-      <c r="AH10" s="376"/>
-      <c r="AI10" s="377"/>
+      <c r="B10" s="421" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="422"/>
+      <c r="D10" s="422"/>
+      <c r="E10" s="422"/>
+      <c r="F10" s="423"/>
+      <c r="G10" s="379"/>
+      <c r="H10" s="380"/>
+      <c r="I10" s="381"/>
+      <c r="J10" s="365"/>
+      <c r="K10" s="366"/>
+      <c r="L10" s="366"/>
+      <c r="M10" s="366"/>
+      <c r="N10" s="366"/>
+      <c r="O10" s="366"/>
+      <c r="P10" s="367"/>
+      <c r="Q10" s="377"/>
+      <c r="R10" s="378"/>
+      <c r="S10" s="377"/>
+      <c r="T10" s="424"/>
+      <c r="U10" s="378"/>
+      <c r="V10" s="385"/>
+      <c r="W10" s="386"/>
+      <c r="X10" s="386"/>
+      <c r="Y10" s="386"/>
+      <c r="Z10" s="386"/>
+      <c r="AA10" s="386"/>
+      <c r="AB10" s="387"/>
+      <c r="AC10" s="416"/>
+      <c r="AD10" s="428"/>
+      <c r="AE10" s="429"/>
+      <c r="AF10" s="429"/>
+      <c r="AG10" s="430"/>
+      <c r="AH10" s="419"/>
+      <c r="AI10" s="420"/>
     </row>
     <row r="11" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="96">
         <v>2</v>
       </c>
-      <c r="B11" s="381"/>
-      <c r="C11" s="382"/>
-      <c r="D11" s="382"/>
-      <c r="E11" s="382"/>
-      <c r="F11" s="383"/>
-      <c r="G11" s="421"/>
-      <c r="H11" s="422"/>
-      <c r="I11" s="423"/>
-      <c r="J11" s="381"/>
-      <c r="K11" s="382"/>
-      <c r="L11" s="382"/>
-      <c r="M11" s="382"/>
-      <c r="N11" s="382"/>
-      <c r="O11" s="382"/>
-      <c r="P11" s="383"/>
-      <c r="Q11" s="390"/>
-      <c r="R11" s="392"/>
-      <c r="S11" s="390"/>
-      <c r="T11" s="391"/>
-      <c r="U11" s="392"/>
-      <c r="V11" s="373"/>
-      <c r="W11" s="374"/>
-      <c r="X11" s="374"/>
-      <c r="Y11" s="374"/>
-      <c r="Z11" s="374"/>
-      <c r="AA11" s="374"/>
-      <c r="AB11" s="375"/>
-      <c r="AC11" s="413"/>
-      <c r="AD11" s="359"/>
-      <c r="AE11" s="360"/>
-      <c r="AF11" s="360"/>
-      <c r="AG11" s="361"/>
-      <c r="AH11" s="371"/>
-      <c r="AI11" s="372"/>
+      <c r="B11" s="353"/>
+      <c r="C11" s="354"/>
+      <c r="D11" s="354"/>
+      <c r="E11" s="354"/>
+      <c r="F11" s="355"/>
+      <c r="G11" s="374"/>
+      <c r="H11" s="375"/>
+      <c r="I11" s="376"/>
+      <c r="J11" s="353"/>
+      <c r="K11" s="354"/>
+      <c r="L11" s="354"/>
+      <c r="M11" s="354"/>
+      <c r="N11" s="354"/>
+      <c r="O11" s="354"/>
+      <c r="P11" s="355"/>
+      <c r="Q11" s="359"/>
+      <c r="R11" s="360"/>
+      <c r="S11" s="359"/>
+      <c r="T11" s="364"/>
+      <c r="U11" s="360"/>
+      <c r="V11" s="388"/>
+      <c r="W11" s="389"/>
+      <c r="X11" s="389"/>
+      <c r="Y11" s="389"/>
+      <c r="Z11" s="389"/>
+      <c r="AA11" s="389"/>
+      <c r="AB11" s="390"/>
+      <c r="AC11" s="417"/>
+      <c r="AD11" s="431"/>
+      <c r="AE11" s="432"/>
+      <c r="AF11" s="432"/>
+      <c r="AG11" s="433"/>
+      <c r="AH11" s="368"/>
+      <c r="AI11" s="369"/>
     </row>
     <row r="12" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="96">
         <v>3</v>
       </c>
-      <c r="B12" s="381"/>
-      <c r="C12" s="382"/>
-      <c r="D12" s="382"/>
-      <c r="E12" s="382"/>
-      <c r="F12" s="383"/>
-      <c r="G12" s="421"/>
-      <c r="H12" s="422"/>
-      <c r="I12" s="423"/>
-      <c r="J12" s="381"/>
-      <c r="K12" s="382"/>
-      <c r="L12" s="382"/>
-      <c r="M12" s="382"/>
-      <c r="N12" s="382"/>
-      <c r="O12" s="382"/>
-      <c r="P12" s="383"/>
-      <c r="Q12" s="390"/>
-      <c r="R12" s="392"/>
-      <c r="S12" s="390"/>
-      <c r="T12" s="391"/>
-      <c r="U12" s="392"/>
-      <c r="V12" s="373"/>
-      <c r="W12" s="374"/>
-      <c r="X12" s="374"/>
-      <c r="Y12" s="374"/>
-      <c r="Z12" s="374"/>
-      <c r="AA12" s="374"/>
-      <c r="AB12" s="375"/>
-      <c r="AC12" s="413"/>
-      <c r="AD12" s="362"/>
-      <c r="AE12" s="363"/>
-      <c r="AF12" s="363"/>
-      <c r="AG12" s="364"/>
-      <c r="AH12" s="371"/>
-      <c r="AI12" s="372"/>
+      <c r="B12" s="353"/>
+      <c r="C12" s="354"/>
+      <c r="D12" s="354"/>
+      <c r="E12" s="354"/>
+      <c r="F12" s="355"/>
+      <c r="G12" s="374"/>
+      <c r="H12" s="375"/>
+      <c r="I12" s="376"/>
+      <c r="J12" s="353"/>
+      <c r="K12" s="354"/>
+      <c r="L12" s="354"/>
+      <c r="M12" s="354"/>
+      <c r="N12" s="354"/>
+      <c r="O12" s="354"/>
+      <c r="P12" s="355"/>
+      <c r="Q12" s="359"/>
+      <c r="R12" s="360"/>
+      <c r="S12" s="359"/>
+      <c r="T12" s="364"/>
+      <c r="U12" s="360"/>
+      <c r="V12" s="388"/>
+      <c r="W12" s="389"/>
+      <c r="X12" s="389"/>
+      <c r="Y12" s="389"/>
+      <c r="Z12" s="389"/>
+      <c r="AA12" s="389"/>
+      <c r="AB12" s="390"/>
+      <c r="AC12" s="417"/>
+      <c r="AD12" s="391"/>
+      <c r="AE12" s="392"/>
+      <c r="AF12" s="392"/>
+      <c r="AG12" s="393"/>
+      <c r="AH12" s="368"/>
+      <c r="AI12" s="369"/>
     </row>
     <row r="13" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="96">
         <v>4</v>
       </c>
-      <c r="B13" s="381"/>
-      <c r="C13" s="382"/>
-      <c r="D13" s="382"/>
-      <c r="E13" s="382"/>
-      <c r="F13" s="383"/>
-      <c r="G13" s="421"/>
-      <c r="H13" s="422"/>
-      <c r="I13" s="423"/>
-      <c r="J13" s="381"/>
-      <c r="K13" s="382"/>
-      <c r="L13" s="382"/>
-      <c r="M13" s="382"/>
-      <c r="N13" s="382"/>
-      <c r="O13" s="382"/>
-      <c r="P13" s="383"/>
-      <c r="Q13" s="390"/>
-      <c r="R13" s="392"/>
-      <c r="S13" s="390"/>
-      <c r="T13" s="391"/>
-      <c r="U13" s="392"/>
-      <c r="V13" s="373"/>
-      <c r="W13" s="374"/>
-      <c r="X13" s="374"/>
-      <c r="Y13" s="374"/>
-      <c r="Z13" s="374"/>
-      <c r="AA13" s="374"/>
-      <c r="AB13" s="375"/>
-      <c r="AC13" s="413"/>
-      <c r="AD13" s="362"/>
-      <c r="AE13" s="363"/>
-      <c r="AF13" s="363"/>
-      <c r="AG13" s="364"/>
-      <c r="AH13" s="371"/>
-      <c r="AI13" s="372"/>
+      <c r="B13" s="353"/>
+      <c r="C13" s="354"/>
+      <c r="D13" s="354"/>
+      <c r="E13" s="354"/>
+      <c r="F13" s="355"/>
+      <c r="G13" s="374"/>
+      <c r="H13" s="375"/>
+      <c r="I13" s="376"/>
+      <c r="J13" s="353"/>
+      <c r="K13" s="354"/>
+      <c r="L13" s="354"/>
+      <c r="M13" s="354"/>
+      <c r="N13" s="354"/>
+      <c r="O13" s="354"/>
+      <c r="P13" s="355"/>
+      <c r="Q13" s="359"/>
+      <c r="R13" s="360"/>
+      <c r="S13" s="359"/>
+      <c r="T13" s="364"/>
+      <c r="U13" s="360"/>
+      <c r="V13" s="388"/>
+      <c r="W13" s="389"/>
+      <c r="X13" s="389"/>
+      <c r="Y13" s="389"/>
+      <c r="Z13" s="389"/>
+      <c r="AA13" s="389"/>
+      <c r="AB13" s="390"/>
+      <c r="AC13" s="417"/>
+      <c r="AD13" s="391"/>
+      <c r="AE13" s="392"/>
+      <c r="AF13" s="392"/>
+      <c r="AG13" s="393"/>
+      <c r="AH13" s="368"/>
+      <c r="AI13" s="369"/>
     </row>
     <row r="14" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="96">
         <v>5</v>
       </c>
-      <c r="B14" s="384"/>
-      <c r="C14" s="385"/>
-      <c r="D14" s="385"/>
-      <c r="E14" s="385"/>
-      <c r="F14" s="386"/>
-      <c r="G14" s="381"/>
-      <c r="H14" s="382"/>
-      <c r="I14" s="383"/>
-      <c r="J14" s="381"/>
-      <c r="K14" s="382"/>
-      <c r="L14" s="382"/>
-      <c r="M14" s="382"/>
-      <c r="N14" s="382"/>
-      <c r="O14" s="382"/>
-      <c r="P14" s="383"/>
-      <c r="Q14" s="390"/>
-      <c r="R14" s="392"/>
-      <c r="S14" s="390"/>
-      <c r="T14" s="391"/>
-      <c r="U14" s="392"/>
-      <c r="V14" s="373"/>
-      <c r="W14" s="374"/>
-      <c r="X14" s="374"/>
-      <c r="Y14" s="374"/>
-      <c r="Z14" s="374"/>
-      <c r="AA14" s="374"/>
-      <c r="AB14" s="375"/>
-      <c r="AC14" s="413"/>
-      <c r="AD14" s="362"/>
-      <c r="AE14" s="363"/>
-      <c r="AF14" s="363"/>
-      <c r="AG14" s="364"/>
-      <c r="AH14" s="371"/>
-      <c r="AI14" s="372"/>
+      <c r="B14" s="408"/>
+      <c r="C14" s="409"/>
+      <c r="D14" s="409"/>
+      <c r="E14" s="409"/>
+      <c r="F14" s="410"/>
+      <c r="G14" s="353"/>
+      <c r="H14" s="354"/>
+      <c r="I14" s="355"/>
+      <c r="J14" s="353"/>
+      <c r="K14" s="354"/>
+      <c r="L14" s="354"/>
+      <c r="M14" s="354"/>
+      <c r="N14" s="354"/>
+      <c r="O14" s="354"/>
+      <c r="P14" s="355"/>
+      <c r="Q14" s="359"/>
+      <c r="R14" s="360"/>
+      <c r="S14" s="359"/>
+      <c r="T14" s="364"/>
+      <c r="U14" s="360"/>
+      <c r="V14" s="388"/>
+      <c r="W14" s="389"/>
+      <c r="X14" s="389"/>
+      <c r="Y14" s="389"/>
+      <c r="Z14" s="389"/>
+      <c r="AA14" s="389"/>
+      <c r="AB14" s="390"/>
+      <c r="AC14" s="417"/>
+      <c r="AD14" s="391"/>
+      <c r="AE14" s="392"/>
+      <c r="AF14" s="392"/>
+      <c r="AG14" s="393"/>
+      <c r="AH14" s="368"/>
+      <c r="AI14" s="369"/>
     </row>
     <row r="15" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="96">
         <v>6</v>
       </c>
-      <c r="B15" s="384"/>
-      <c r="C15" s="385"/>
-      <c r="D15" s="385"/>
-      <c r="E15" s="385"/>
-      <c r="F15" s="386"/>
-      <c r="G15" s="381"/>
-      <c r="H15" s="382"/>
-      <c r="I15" s="383"/>
-      <c r="J15" s="381"/>
-      <c r="K15" s="382"/>
-      <c r="L15" s="382"/>
-      <c r="M15" s="382"/>
-      <c r="N15" s="382"/>
-      <c r="O15" s="382"/>
-      <c r="P15" s="383"/>
-      <c r="Q15" s="390"/>
-      <c r="R15" s="392"/>
-      <c r="S15" s="390"/>
-      <c r="T15" s="391"/>
-      <c r="U15" s="392"/>
-      <c r="V15" s="373"/>
-      <c r="W15" s="374"/>
-      <c r="X15" s="374"/>
-      <c r="Y15" s="374"/>
-      <c r="Z15" s="374"/>
-      <c r="AA15" s="374"/>
-      <c r="AB15" s="375"/>
-      <c r="AC15" s="413"/>
-      <c r="AD15" s="362"/>
-      <c r="AE15" s="363"/>
-      <c r="AF15" s="363"/>
-      <c r="AG15" s="364"/>
-      <c r="AH15" s="371"/>
-      <c r="AI15" s="372"/>
+      <c r="B15" s="408"/>
+      <c r="C15" s="409"/>
+      <c r="D15" s="409"/>
+      <c r="E15" s="409"/>
+      <c r="F15" s="410"/>
+      <c r="G15" s="353"/>
+      <c r="H15" s="354"/>
+      <c r="I15" s="355"/>
+      <c r="J15" s="353"/>
+      <c r="K15" s="354"/>
+      <c r="L15" s="354"/>
+      <c r="M15" s="354"/>
+      <c r="N15" s="354"/>
+      <c r="O15" s="354"/>
+      <c r="P15" s="355"/>
+      <c r="Q15" s="359"/>
+      <c r="R15" s="360"/>
+      <c r="S15" s="359"/>
+      <c r="T15" s="364"/>
+      <c r="U15" s="360"/>
+      <c r="V15" s="388"/>
+      <c r="W15" s="389"/>
+      <c r="X15" s="389"/>
+      <c r="Y15" s="389"/>
+      <c r="Z15" s="389"/>
+      <c r="AA15" s="389"/>
+      <c r="AB15" s="390"/>
+      <c r="AC15" s="417"/>
+      <c r="AD15" s="391"/>
+      <c r="AE15" s="392"/>
+      <c r="AF15" s="392"/>
+      <c r="AG15" s="393"/>
+      <c r="AH15" s="368"/>
+      <c r="AI15" s="369"/>
     </row>
     <row r="16" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="97">
         <v>7</v>
       </c>
-      <c r="B16" s="384"/>
-      <c r="C16" s="385"/>
-      <c r="D16" s="385"/>
-      <c r="E16" s="385"/>
-      <c r="F16" s="386"/>
-      <c r="G16" s="381"/>
-      <c r="H16" s="382"/>
-      <c r="I16" s="383"/>
-      <c r="J16" s="381"/>
-      <c r="K16" s="382"/>
-      <c r="L16" s="382"/>
-      <c r="M16" s="382"/>
-      <c r="N16" s="382"/>
-      <c r="O16" s="382"/>
-      <c r="P16" s="383"/>
-      <c r="Q16" s="390"/>
-      <c r="R16" s="392"/>
-      <c r="S16" s="390"/>
-      <c r="T16" s="391"/>
-      <c r="U16" s="392"/>
-      <c r="V16" s="373"/>
-      <c r="W16" s="374"/>
-      <c r="X16" s="374"/>
-      <c r="Y16" s="374"/>
-      <c r="Z16" s="374"/>
-      <c r="AA16" s="374"/>
-      <c r="AB16" s="375"/>
-      <c r="AC16" s="413"/>
-      <c r="AD16" s="362"/>
-      <c r="AE16" s="363"/>
-      <c r="AF16" s="363"/>
-      <c r="AG16" s="364"/>
-      <c r="AH16" s="371"/>
-      <c r="AI16" s="372"/>
+      <c r="B16" s="408"/>
+      <c r="C16" s="409"/>
+      <c r="D16" s="409"/>
+      <c r="E16" s="409"/>
+      <c r="F16" s="410"/>
+      <c r="G16" s="353"/>
+      <c r="H16" s="354"/>
+      <c r="I16" s="355"/>
+      <c r="J16" s="353"/>
+      <c r="K16" s="354"/>
+      <c r="L16" s="354"/>
+      <c r="M16" s="354"/>
+      <c r="N16" s="354"/>
+      <c r="O16" s="354"/>
+      <c r="P16" s="355"/>
+      <c r="Q16" s="359"/>
+      <c r="R16" s="360"/>
+      <c r="S16" s="359"/>
+      <c r="T16" s="364"/>
+      <c r="U16" s="360"/>
+      <c r="V16" s="388"/>
+      <c r="W16" s="389"/>
+      <c r="X16" s="389"/>
+      <c r="Y16" s="389"/>
+      <c r="Z16" s="389"/>
+      <c r="AA16" s="389"/>
+      <c r="AB16" s="390"/>
+      <c r="AC16" s="417"/>
+      <c r="AD16" s="391"/>
+      <c r="AE16" s="392"/>
+      <c r="AF16" s="392"/>
+      <c r="AG16" s="393"/>
+      <c r="AH16" s="368"/>
+      <c r="AI16" s="369"/>
     </row>
     <row r="17" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="97">
         <v>8</v>
       </c>
-      <c r="B17" s="384"/>
-      <c r="C17" s="385"/>
-      <c r="D17" s="385"/>
-      <c r="E17" s="385"/>
-      <c r="F17" s="386"/>
-      <c r="G17" s="381"/>
-      <c r="H17" s="382"/>
-      <c r="I17" s="383"/>
-      <c r="J17" s="381"/>
-      <c r="K17" s="382"/>
-      <c r="L17" s="382"/>
-      <c r="M17" s="382"/>
-      <c r="N17" s="382"/>
-      <c r="O17" s="382"/>
-      <c r="P17" s="383"/>
-      <c r="Q17" s="390"/>
-      <c r="R17" s="392"/>
-      <c r="S17" s="390"/>
-      <c r="T17" s="391"/>
-      <c r="U17" s="392"/>
-      <c r="V17" s="373"/>
-      <c r="W17" s="374"/>
-      <c r="X17" s="374"/>
-      <c r="Y17" s="374"/>
-      <c r="Z17" s="374"/>
-      <c r="AA17" s="374"/>
-      <c r="AB17" s="375"/>
-      <c r="AC17" s="413"/>
-      <c r="AD17" s="362"/>
-      <c r="AE17" s="363"/>
-      <c r="AF17" s="363"/>
-      <c r="AG17" s="364"/>
-      <c r="AH17" s="371"/>
-      <c r="AI17" s="372"/>
+      <c r="B17" s="408"/>
+      <c r="C17" s="409"/>
+      <c r="D17" s="409"/>
+      <c r="E17" s="409"/>
+      <c r="F17" s="410"/>
+      <c r="G17" s="353"/>
+      <c r="H17" s="354"/>
+      <c r="I17" s="355"/>
+      <c r="J17" s="353"/>
+      <c r="K17" s="354"/>
+      <c r="L17" s="354"/>
+      <c r="M17" s="354"/>
+      <c r="N17" s="354"/>
+      <c r="O17" s="354"/>
+      <c r="P17" s="355"/>
+      <c r="Q17" s="359"/>
+      <c r="R17" s="360"/>
+      <c r="S17" s="359"/>
+      <c r="T17" s="364"/>
+      <c r="U17" s="360"/>
+      <c r="V17" s="388"/>
+      <c r="W17" s="389"/>
+      <c r="X17" s="389"/>
+      <c r="Y17" s="389"/>
+      <c r="Z17" s="389"/>
+      <c r="AA17" s="389"/>
+      <c r="AB17" s="390"/>
+      <c r="AC17" s="417"/>
+      <c r="AD17" s="391"/>
+      <c r="AE17" s="392"/>
+      <c r="AF17" s="392"/>
+      <c r="AG17" s="393"/>
+      <c r="AH17" s="368"/>
+      <c r="AI17" s="369"/>
     </row>
     <row r="18" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="98">
         <v>9</v>
       </c>
-      <c r="B18" s="407"/>
-      <c r="C18" s="408"/>
-      <c r="D18" s="408"/>
-      <c r="E18" s="408"/>
-      <c r="F18" s="409"/>
-      <c r="G18" s="404"/>
-      <c r="H18" s="405"/>
-      <c r="I18" s="406"/>
-      <c r="J18" s="404"/>
-      <c r="K18" s="405"/>
-      <c r="L18" s="405"/>
-      <c r="M18" s="405"/>
-      <c r="N18" s="405"/>
-      <c r="O18" s="405"/>
-      <c r="P18" s="406"/>
-      <c r="Q18" s="401"/>
-      <c r="R18" s="403"/>
-      <c r="S18" s="401"/>
-      <c r="T18" s="402"/>
-      <c r="U18" s="403"/>
-      <c r="V18" s="396"/>
-      <c r="W18" s="397"/>
-      <c r="X18" s="397"/>
-      <c r="Y18" s="397"/>
-      <c r="Z18" s="397"/>
-      <c r="AA18" s="397"/>
-      <c r="AB18" s="398"/>
-      <c r="AC18" s="414"/>
-      <c r="AD18" s="353"/>
-      <c r="AE18" s="354"/>
-      <c r="AF18" s="354"/>
-      <c r="AG18" s="355"/>
-      <c r="AH18" s="410"/>
-      <c r="AI18" s="411"/>
+      <c r="B18" s="411"/>
+      <c r="C18" s="412"/>
+      <c r="D18" s="412"/>
+      <c r="E18" s="412"/>
+      <c r="F18" s="413"/>
+      <c r="G18" s="405"/>
+      <c r="H18" s="406"/>
+      <c r="I18" s="407"/>
+      <c r="J18" s="405"/>
+      <c r="K18" s="406"/>
+      <c r="L18" s="406"/>
+      <c r="M18" s="406"/>
+      <c r="N18" s="406"/>
+      <c r="O18" s="406"/>
+      <c r="P18" s="407"/>
+      <c r="Q18" s="402"/>
+      <c r="R18" s="404"/>
+      <c r="S18" s="402"/>
+      <c r="T18" s="403"/>
+      <c r="U18" s="404"/>
+      <c r="V18" s="397"/>
+      <c r="W18" s="398"/>
+      <c r="X18" s="398"/>
+      <c r="Y18" s="398"/>
+      <c r="Z18" s="398"/>
+      <c r="AA18" s="398"/>
+      <c r="AB18" s="399"/>
+      <c r="AC18" s="418"/>
+      <c r="AD18" s="425"/>
+      <c r="AE18" s="426"/>
+      <c r="AF18" s="426"/>
+      <c r="AG18" s="427"/>
+      <c r="AH18" s="414"/>
+      <c r="AI18" s="415"/>
     </row>
     <row r="19" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="399"/>
-      <c r="B19" s="400"/>
-      <c r="C19" s="400"/>
-      <c r="D19" s="400"/>
-      <c r="E19" s="400"/>
-      <c r="F19" s="400"/>
+      <c r="A19" s="400"/>
+      <c r="B19" s="401"/>
+      <c r="C19" s="401"/>
+      <c r="D19" s="401"/>
+      <c r="E19" s="401"/>
+      <c r="F19" s="401"/>
       <c r="G19" s="99"/>
       <c r="H19" s="99"/>
       <c r="I19" s="99"/>
@@ -12121,23 +12122,23 @@
       <c r="AA19" s="99"/>
       <c r="AB19" s="99"/>
       <c r="AC19" s="100"/>
-      <c r="AD19" s="395"/>
-      <c r="AE19" s="395"/>
-      <c r="AF19" s="395"/>
-      <c r="AG19" s="395"/>
-      <c r="AH19" s="395"/>
+      <c r="AD19" s="396"/>
+      <c r="AE19" s="396"/>
+      <c r="AF19" s="396"/>
+      <c r="AG19" s="396"/>
+      <c r="AH19" s="396"/>
       <c r="AI19" s="35"/>
       <c r="AJ19" s="101"/>
     </row>
     <row r="20" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="393" t="s">
-        <v>79</v>
-      </c>
-      <c r="B20" s="394"/>
-      <c r="C20" s="394"/>
-      <c r="D20" s="394"/>
-      <c r="E20" s="394"/>
-      <c r="F20" s="394"/>
+      <c r="A20" s="394" t="s">
+        <v>76</v>
+      </c>
+      <c r="B20" s="395"/>
+      <c r="C20" s="395"/>
+      <c r="D20" s="395"/>
+      <c r="E20" s="395"/>
+      <c r="F20" s="395"/>
       <c r="G20" s="102"/>
       <c r="H20" s="103"/>
       <c r="I20" s="103"/>
@@ -12684,20 +12685,72 @@
     </row>
   </sheetData>
   <mergeCells count="104">
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="S9:U9"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="S16:U16"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="AD18:AG18"/>
+    <mergeCell ref="AD10:AG10"/>
+    <mergeCell ref="AD11:AG11"/>
+    <mergeCell ref="AD12:AG12"/>
+    <mergeCell ref="AD13:AG13"/>
+    <mergeCell ref="AD14:AG14"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AC8:AE8"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AH17:AI17"/>
+    <mergeCell ref="V14:AB14"/>
+    <mergeCell ref="V15:AB15"/>
+    <mergeCell ref="AH10:AI10"/>
+    <mergeCell ref="AH11:AI11"/>
+    <mergeCell ref="AH12:AI12"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="S10:U10"/>
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="S12:U12"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="V12:AB12"/>
+    <mergeCell ref="AD15:AG15"/>
+    <mergeCell ref="AH15:AI15"/>
+    <mergeCell ref="V13:AB13"/>
+    <mergeCell ref="AD16:AG16"/>
+    <mergeCell ref="AD17:AG17"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="AD19:AH19"/>
+    <mergeCell ref="V16:AB16"/>
+    <mergeCell ref="V17:AB17"/>
+    <mergeCell ref="V18:AB18"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="S18:U18"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="AH18:AI18"/>
+    <mergeCell ref="AC10:AC18"/>
+    <mergeCell ref="AH13:AI13"/>
+    <mergeCell ref="AH14:AI14"/>
     <mergeCell ref="AH16:AI16"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="E3:N3"/>
@@ -12722,72 +12775,20 @@
     <mergeCell ref="AH9:AI9"/>
     <mergeCell ref="V10:AB10"/>
     <mergeCell ref="V11:AB11"/>
-    <mergeCell ref="AD16:AG16"/>
-    <mergeCell ref="AD17:AG17"/>
-    <mergeCell ref="A20:F20"/>
-    <mergeCell ref="AD19:AH19"/>
-    <mergeCell ref="V16:AB16"/>
-    <mergeCell ref="V17:AB17"/>
-    <mergeCell ref="V18:AB18"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="S18:U18"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="AH18:AI18"/>
-    <mergeCell ref="AC10:AC18"/>
-    <mergeCell ref="AH13:AI13"/>
-    <mergeCell ref="AH14:AI14"/>
-    <mergeCell ref="V15:AB15"/>
-    <mergeCell ref="AH10:AI10"/>
-    <mergeCell ref="AH11:AI11"/>
-    <mergeCell ref="AH12:AI12"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="S10:U10"/>
-    <mergeCell ref="S11:U11"/>
-    <mergeCell ref="S12:U12"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="V12:AB12"/>
-    <mergeCell ref="AD15:AG15"/>
-    <mergeCell ref="AH15:AI15"/>
-    <mergeCell ref="V13:AB13"/>
-    <mergeCell ref="AD18:AG18"/>
-    <mergeCell ref="AD10:AG10"/>
-    <mergeCell ref="AD11:AG11"/>
-    <mergeCell ref="AD12:AG12"/>
-    <mergeCell ref="AD13:AG13"/>
-    <mergeCell ref="AD14:AG14"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AC8:AE8"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AH17:AI17"/>
-    <mergeCell ref="V14:AB14"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="J10:P10"/>
   </mergeCells>
   <phoneticPr fontId="10"/>
   <dataValidations count="2">
@@ -12812,7 +12813,7 @@
   <sheetPr codeName="Sheet5">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:CR34"/>
+  <dimension ref="A1:CR35"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection sqref="A1:D1"/>
@@ -12828,467 +12829,366 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:96" s="31" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="303" t="str">
+      <c r="A1" s="297" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!A1")&lt;&gt;"",INDIRECT("'Revision history'!A1"),"")</f>
         <v>Project name</v>
       </c>
-      <c r="B1" s="305"/>
-      <c r="C1" s="305"/>
-      <c r="D1" s="304"/>
-      <c r="E1" s="251" t="str">
+      <c r="B1" s="298"/>
+      <c r="C1" s="298"/>
+      <c r="D1" s="299"/>
+      <c r="E1" s="245" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E1")&lt;&gt;"",INDIRECT("'Revision history'!E1"),"")</f>
         <v>Sample Project</v>
       </c>
-      <c r="F1" s="252"/>
-      <c r="G1" s="252"/>
-      <c r="H1" s="252"/>
-      <c r="I1" s="252"/>
-      <c r="J1" s="252"/>
-      <c r="K1" s="252"/>
-      <c r="L1" s="252"/>
-      <c r="M1" s="252"/>
-      <c r="N1" s="253"/>
-      <c r="O1" s="306" t="str">
+      <c r="F1" s="246"/>
+      <c r="G1" s="246"/>
+      <c r="H1" s="246"/>
+      <c r="I1" s="246"/>
+      <c r="J1" s="246"/>
+      <c r="K1" s="246"/>
+      <c r="L1" s="246"/>
+      <c r="M1" s="246"/>
+      <c r="N1" s="247"/>
+      <c r="O1" s="300" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!O1")&lt;&gt;"",INDIRECT("'Revision history'!O1"),"")</f>
         <v>Deliverable name</v>
       </c>
-      <c r="P1" s="307"/>
-      <c r="Q1" s="307"/>
-      <c r="R1" s="308"/>
-      <c r="S1" s="288" t="str">
+      <c r="P1" s="301"/>
+      <c r="Q1" s="301"/>
+      <c r="R1" s="302"/>
+      <c r="S1" s="251" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!S1")&lt;&gt;"",INDIRECT("'Revision history'!S1"),"")</f>
         <v>External Interface Design Document(JSON)</v>
       </c>
-      <c r="T1" s="289"/>
-      <c r="U1" s="289"/>
-      <c r="V1" s="289"/>
-      <c r="W1" s="289"/>
-      <c r="X1" s="289"/>
-      <c r="Y1" s="289"/>
-      <c r="Z1" s="290"/>
-      <c r="AA1" s="303" t="str">
+      <c r="T1" s="252"/>
+      <c r="U1" s="252"/>
+      <c r="V1" s="252"/>
+      <c r="W1" s="252"/>
+      <c r="X1" s="252"/>
+      <c r="Y1" s="252"/>
+      <c r="Z1" s="253"/>
+      <c r="AA1" s="297" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AA1")&lt;&gt;"",INDIRECT("'Revision history'!AA1"),"")</f>
         <v>Prepared by</v>
       </c>
-      <c r="AB1" s="304"/>
-      <c r="AC1" s="300" t="str">
+      <c r="AB1" s="299"/>
+      <c r="AC1" s="312" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC1")&lt;&gt;"",INDIRECT("'Revision history'!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="301"/>
-      <c r="AE1" s="301"/>
-      <c r="AF1" s="302"/>
-      <c r="AG1" s="297">
+      <c r="AD1" s="313"/>
+      <c r="AE1" s="313"/>
+      <c r="AF1" s="314"/>
+      <c r="AG1" s="309">
         <f ca="1">IF(INDIRECT("'Revision history'!AG1")&lt;&gt;"",INDIRECT("'Revision history'!AG1"),"")</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="298"/>
-      <c r="AI1" s="299"/>
+      <c r="AH1" s="310"/>
+      <c r="AI1" s="311"/>
     </row>
     <row r="2" spans="1:96" s="31" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="303" t="str">
+      <c r="A2" s="297" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!A2")&lt;&gt;"",INDIRECT("'Revision history'!A2"),"")</f>
         <v>System name</v>
       </c>
-      <c r="B2" s="305"/>
-      <c r="C2" s="305"/>
-      <c r="D2" s="304"/>
-      <c r="E2" s="251" t="str">
+      <c r="B2" s="298"/>
+      <c r="C2" s="298"/>
+      <c r="D2" s="299"/>
+      <c r="E2" s="245" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E2")&lt;&gt;"",INDIRECT("'Revision history'!E2"),"")</f>
         <v>Sample System</v>
       </c>
-      <c r="F2" s="252"/>
-      <c r="G2" s="252"/>
-      <c r="H2" s="252"/>
-      <c r="I2" s="252"/>
-      <c r="J2" s="252"/>
-      <c r="K2" s="252"/>
-      <c r="L2" s="252"/>
-      <c r="M2" s="252"/>
-      <c r="N2" s="253"/>
-      <c r="O2" s="309"/>
-      <c r="P2" s="310"/>
-      <c r="Q2" s="310"/>
-      <c r="R2" s="311"/>
-      <c r="S2" s="291"/>
-      <c r="T2" s="292"/>
-      <c r="U2" s="292"/>
-      <c r="V2" s="292"/>
-      <c r="W2" s="292"/>
-      <c r="X2" s="292"/>
-      <c r="Y2" s="292"/>
-      <c r="Z2" s="293"/>
-      <c r="AA2" s="303" t="str">
+      <c r="F2" s="246"/>
+      <c r="G2" s="246"/>
+      <c r="H2" s="246"/>
+      <c r="I2" s="246"/>
+      <c r="J2" s="246"/>
+      <c r="K2" s="246"/>
+      <c r="L2" s="246"/>
+      <c r="M2" s="246"/>
+      <c r="N2" s="247"/>
+      <c r="O2" s="303"/>
+      <c r="P2" s="304"/>
+      <c r="Q2" s="304"/>
+      <c r="R2" s="305"/>
+      <c r="S2" s="254"/>
+      <c r="T2" s="255"/>
+      <c r="U2" s="255"/>
+      <c r="V2" s="255"/>
+      <c r="W2" s="255"/>
+      <c r="X2" s="255"/>
+      <c r="Y2" s="255"/>
+      <c r="Z2" s="256"/>
+      <c r="AA2" s="297" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AA2")&lt;&gt;"",INDIRECT("'Revision history'!AA2"),"")</f>
         <v>Changes</v>
       </c>
-      <c r="AB2" s="304"/>
-      <c r="AC2" s="300" t="str">
+      <c r="AB2" s="299"/>
+      <c r="AC2" s="312" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC2")&lt;&gt;"",INDIRECT("'Revision history'!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="301"/>
-      <c r="AE2" s="301"/>
-      <c r="AF2" s="302"/>
-      <c r="AG2" s="297" t="str">
+      <c r="AD2" s="313"/>
+      <c r="AE2" s="313"/>
+      <c r="AF2" s="314"/>
+      <c r="AG2" s="309" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AG2")&lt;&gt;"",INDIRECT("'Revision history'!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="298"/>
-      <c r="AI2" s="299"/>
+      <c r="AH2" s="310"/>
+      <c r="AI2" s="311"/>
     </row>
     <row r="3" spans="1:96" s="31" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="303" t="str">
+      <c r="A3" s="297" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!A3")&lt;&gt;"",INDIRECT("'Revision history'!A3"),"")</f>
         <v>Sub-system name</v>
       </c>
-      <c r="B3" s="305"/>
-      <c r="C3" s="305"/>
-      <c r="D3" s="304"/>
-      <c r="E3" s="251" t="str">
+      <c r="B3" s="298"/>
+      <c r="C3" s="298"/>
+      <c r="D3" s="299"/>
+      <c r="E3" s="245" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E3")&lt;&gt;"",INDIRECT("'Revision history'!E3"),"")</f>
         <v>Client Management System</v>
       </c>
-      <c r="F3" s="252"/>
-      <c r="G3" s="252"/>
-      <c r="H3" s="252"/>
-      <c r="I3" s="252"/>
-      <c r="J3" s="252"/>
-      <c r="K3" s="252"/>
-      <c r="L3" s="252"/>
-      <c r="M3" s="252"/>
-      <c r="N3" s="253"/>
-      <c r="O3" s="312"/>
-      <c r="P3" s="313"/>
-      <c r="Q3" s="313"/>
-      <c r="R3" s="314"/>
-      <c r="S3" s="294"/>
-      <c r="T3" s="295"/>
-      <c r="U3" s="295"/>
-      <c r="V3" s="295"/>
-      <c r="W3" s="295"/>
-      <c r="X3" s="295"/>
-      <c r="Y3" s="295"/>
-      <c r="Z3" s="296"/>
-      <c r="AA3" s="303"/>
-      <c r="AB3" s="304"/>
-      <c r="AC3" s="300" t="str">
+      <c r="F3" s="246"/>
+      <c r="G3" s="246"/>
+      <c r="H3" s="246"/>
+      <c r="I3" s="246"/>
+      <c r="J3" s="246"/>
+      <c r="K3" s="246"/>
+      <c r="L3" s="246"/>
+      <c r="M3" s="246"/>
+      <c r="N3" s="247"/>
+      <c r="O3" s="306"/>
+      <c r="P3" s="307"/>
+      <c r="Q3" s="307"/>
+      <c r="R3" s="308"/>
+      <c r="S3" s="257"/>
+      <c r="T3" s="258"/>
+      <c r="U3" s="258"/>
+      <c r="V3" s="258"/>
+      <c r="W3" s="258"/>
+      <c r="X3" s="258"/>
+      <c r="Y3" s="258"/>
+      <c r="Z3" s="259"/>
+      <c r="AA3" s="297"/>
+      <c r="AB3" s="299"/>
+      <c r="AC3" s="312" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC3")&lt;&gt;"",INDIRECT("'Revision history'!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="301"/>
-      <c r="AE3" s="301"/>
-      <c r="AF3" s="302"/>
-      <c r="AG3" s="297" t="str">
+      <c r="AD3" s="313"/>
+      <c r="AE3" s="313"/>
+      <c r="AF3" s="314"/>
+      <c r="AG3" s="309" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AG3")&lt;&gt;"",INDIRECT("'Revision history'!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="298"/>
-      <c r="AI3" s="299"/>
+      <c r="AH3" s="310"/>
+      <c r="AI3" s="311"/>
     </row>
     <row r="4" spans="1:96" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="5" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:96" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="33" t="s">
-        <v>87</v>
-      </c>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
+        <v>70</v>
+      </c>
     </row>
     <row r="6" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="34"/>
+      <c r="A6" s="33" t="s">
+        <v>84</v>
+      </c>
       <c r="B6" s="34"/>
       <c r="C6" s="34"/>
       <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="34"/>
-      <c r="M6" s="34"/>
-      <c r="N6" s="34"/>
-      <c r="O6" s="34"/>
-      <c r="P6" s="34"/>
-      <c r="Q6" s="34"/>
-      <c r="R6" s="34"/>
-      <c r="S6" s="34"/>
-      <c r="T6" s="34"/>
-      <c r="U6" s="34"/>
-      <c r="V6" s="34"/>
-      <c r="W6" s="34"/>
-      <c r="X6" s="34"/>
-      <c r="Y6" s="34"/>
-      <c r="Z6" s="34"/>
-      <c r="AA6" s="34"/>
-      <c r="AB6" s="34"/>
-      <c r="AC6" s="34"/>
-    </row>
-    <row r="7" spans="1:96" s="213" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="209" t="s">
+    </row>
+    <row r="7" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="34"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="34"/>
+      <c r="M7" s="34"/>
+      <c r="N7" s="34"/>
+      <c r="O7" s="34"/>
+      <c r="P7" s="34"/>
+      <c r="Q7" s="34"/>
+      <c r="R7" s="34"/>
+      <c r="S7" s="34"/>
+      <c r="T7" s="34"/>
+      <c r="U7" s="34"/>
+      <c r="V7" s="34"/>
+      <c r="W7" s="34"/>
+      <c r="X7" s="34"/>
+      <c r="Y7" s="34"/>
+      <c r="Z7" s="34"/>
+      <c r="AA7" s="34"/>
+      <c r="AB7" s="34"/>
+      <c r="AC7" s="34"/>
+    </row>
+    <row r="8" spans="1:96" s="213" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="209" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="439" t="s">
+      <c r="B8" s="444" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="440"/>
-      <c r="D7" s="440"/>
-      <c r="E7" s="440"/>
-      <c r="F7" s="441"/>
-      <c r="G7" s="439" t="s">
+      <c r="C8" s="445"/>
+      <c r="D8" s="445"/>
+      <c r="E8" s="445"/>
+      <c r="F8" s="446"/>
+      <c r="G8" s="444" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="440"/>
-      <c r="I7" s="440"/>
-      <c r="J7" s="440"/>
-      <c r="K7" s="441"/>
-      <c r="L7" s="439" t="s">
+      <c r="H8" s="445"/>
+      <c r="I8" s="445"/>
+      <c r="J8" s="445"/>
+      <c r="K8" s="446"/>
+      <c r="L8" s="444" t="s">
         <v>23</v>
       </c>
-      <c r="M7" s="440"/>
-      <c r="N7" s="440"/>
-      <c r="O7" s="440"/>
-      <c r="P7" s="441"/>
-      <c r="Q7" s="210" t="s">
-        <v>83</v>
-      </c>
-      <c r="R7" s="462" t="s">
+      <c r="M8" s="445"/>
+      <c r="N8" s="445"/>
+      <c r="O8" s="445"/>
+      <c r="P8" s="446"/>
+      <c r="Q8" s="210" t="s">
+        <v>80</v>
+      </c>
+      <c r="R8" s="447" t="s">
         <v>24</v>
       </c>
-      <c r="S7" s="462"/>
-      <c r="T7" s="462"/>
-      <c r="U7" s="462"/>
-      <c r="V7" s="454" t="s">
+      <c r="S8" s="447"/>
+      <c r="T8" s="447"/>
+      <c r="U8" s="447"/>
+      <c r="V8" s="442" t="s">
         <v>25</v>
       </c>
-      <c r="W7" s="455"/>
-      <c r="X7" s="454" t="s">
+      <c r="W8" s="443"/>
+      <c r="X8" s="442" t="s">
         <v>26</v>
       </c>
-      <c r="Y7" s="455"/>
-      <c r="Z7" s="439" t="s">
+      <c r="Y8" s="443"/>
+      <c r="Z8" s="444" t="s">
         <v>27</v>
       </c>
-      <c r="AA7" s="440"/>
-      <c r="AB7" s="441"/>
-      <c r="AC7" s="439" t="s">
+      <c r="AA8" s="445"/>
+      <c r="AB8" s="446"/>
+      <c r="AC8" s="444" t="s">
         <v>28</v>
       </c>
-      <c r="AD7" s="440"/>
-      <c r="AE7" s="440"/>
-      <c r="AF7" s="440"/>
-      <c r="AG7" s="440"/>
-      <c r="AH7" s="440"/>
-      <c r="AI7" s="440"/>
-      <c r="AJ7" s="440"/>
-      <c r="AK7" s="441"/>
-      <c r="AL7" s="211"/>
-      <c r="AM7" s="211"/>
-      <c r="AN7" s="211"/>
-      <c r="AO7" s="211"/>
-      <c r="AP7" s="211"/>
-      <c r="AQ7" s="211"/>
-      <c r="AR7" s="211"/>
-      <c r="AS7" s="211"/>
-      <c r="AT7" s="211"/>
-      <c r="AU7" s="211"/>
-      <c r="AV7" s="211"/>
-      <c r="AW7" s="211"/>
-      <c r="AX7" s="211"/>
-      <c r="AY7" s="211"/>
-      <c r="AZ7" s="211"/>
-      <c r="BA7" s="211"/>
-      <c r="BB7" s="211"/>
-      <c r="BC7" s="211"/>
-      <c r="BD7" s="211"/>
-      <c r="BE7" s="211"/>
-      <c r="BF7" s="211"/>
-      <c r="BG7" s="211"/>
-      <c r="BH7" s="211"/>
-      <c r="BI7" s="211"/>
-      <c r="BJ7" s="211"/>
-      <c r="BK7" s="211"/>
-      <c r="BL7" s="211"/>
-      <c r="BM7" s="211"/>
-      <c r="BN7" s="211"/>
-      <c r="BO7" s="211"/>
-      <c r="BP7" s="211"/>
-      <c r="BQ7" s="211"/>
-      <c r="BR7" s="211"/>
-      <c r="BS7" s="211"/>
-      <c r="BT7" s="211"/>
-      <c r="BU7" s="211"/>
-      <c r="BV7" s="211"/>
-      <c r="BW7" s="211"/>
-      <c r="BX7" s="211"/>
-      <c r="BY7" s="211"/>
-      <c r="BZ7" s="211"/>
-      <c r="CA7" s="211"/>
-      <c r="CB7" s="211"/>
-      <c r="CC7" s="212"/>
-      <c r="CD7" s="212"/>
-      <c r="CE7" s="212"/>
-      <c r="CF7" s="212"/>
-      <c r="CG7" s="212"/>
-      <c r="CH7" s="212"/>
-      <c r="CI7" s="212"/>
-      <c r="CJ7" s="212"/>
-      <c r="CK7" s="212"/>
-      <c r="CL7" s="212"/>
-      <c r="CM7" s="212"/>
-    </row>
-    <row r="8" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="37">
-        <v>1</v>
-      </c>
-      <c r="B8" s="442" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="443"/>
-      <c r="D8" s="443"/>
-      <c r="E8" s="443"/>
-      <c r="F8" s="444"/>
-      <c r="G8" s="451" t="s">
-        <v>30</v>
-      </c>
-      <c r="H8" s="452"/>
-      <c r="I8" s="452"/>
-      <c r="J8" s="452"/>
-      <c r="K8" s="453"/>
-      <c r="L8" s="442"/>
-      <c r="M8" s="443"/>
-      <c r="N8" s="443"/>
-      <c r="O8" s="443"/>
-      <c r="P8" s="444"/>
-      <c r="Q8" s="38"/>
-      <c r="R8" s="442"/>
-      <c r="S8" s="443"/>
-      <c r="T8" s="443"/>
-      <c r="U8" s="444"/>
-      <c r="V8" s="447"/>
-      <c r="W8" s="448"/>
-      <c r="X8" s="445"/>
-      <c r="Y8" s="446"/>
-      <c r="Z8" s="442"/>
-      <c r="AA8" s="443"/>
-      <c r="AB8" s="444"/>
-      <c r="AC8" s="442"/>
-      <c r="AD8" s="443"/>
-      <c r="AE8" s="443"/>
-      <c r="AF8" s="443"/>
-      <c r="AG8" s="443"/>
-      <c r="AH8" s="443"/>
-      <c r="AI8" s="443"/>
-      <c r="AJ8" s="443"/>
-      <c r="AK8" s="444"/>
-      <c r="AL8" s="36"/>
-      <c r="AM8" s="36"/>
-      <c r="AN8" s="36"/>
-      <c r="AP8" s="36"/>
-      <c r="AQ8" s="36"/>
-      <c r="AR8" s="36"/>
-      <c r="AS8" s="36"/>
-      <c r="AT8" s="36"/>
-      <c r="AU8" s="36"/>
-      <c r="AV8" s="36"/>
-      <c r="AW8" s="36"/>
-      <c r="AX8" s="35"/>
-      <c r="AY8" s="35"/>
-      <c r="AZ8" s="35"/>
-      <c r="BA8" s="35"/>
-      <c r="BB8" s="35"/>
-      <c r="BC8" s="35"/>
-      <c r="BD8" s="35"/>
-      <c r="BE8" s="35"/>
-      <c r="BF8" s="35"/>
-      <c r="BG8" s="35"/>
-      <c r="BH8" s="35"/>
-      <c r="BI8" s="35"/>
-      <c r="BJ8" s="35"/>
-      <c r="BK8" s="35"/>
-      <c r="BL8" s="35"/>
-      <c r="BM8" s="35"/>
-      <c r="BN8" s="35"/>
-      <c r="BO8" s="35"/>
-      <c r="BP8" s="35"/>
-      <c r="BQ8" s="35"/>
-      <c r="BR8" s="35"/>
-      <c r="BS8" s="35"/>
-      <c r="BT8" s="35"/>
-      <c r="BU8" s="35"/>
-      <c r="BV8" s="35"/>
-      <c r="BW8" s="35"/>
-      <c r="BX8" s="35"/>
-      <c r="BY8" s="35"/>
-      <c r="BZ8" s="35"/>
-      <c r="CA8" s="35"/>
-      <c r="CB8" s="35"/>
-      <c r="CC8" s="36"/>
-      <c r="CD8" s="36"/>
-      <c r="CE8" s="36"/>
-      <c r="CF8" s="36"/>
-      <c r="CG8" s="36"/>
-      <c r="CH8" s="36"/>
-      <c r="CI8" s="36"/>
-      <c r="CJ8" s="36"/>
-      <c r="CK8" s="36"/>
-      <c r="CL8" s="36"/>
-      <c r="CM8" s="36"/>
+      <c r="AD8" s="445"/>
+      <c r="AE8" s="445"/>
+      <c r="AF8" s="445"/>
+      <c r="AG8" s="445"/>
+      <c r="AH8" s="445"/>
+      <c r="AI8" s="445"/>
+      <c r="AJ8" s="445"/>
+      <c r="AK8" s="446"/>
+      <c r="AL8" s="211"/>
+      <c r="AM8" s="211"/>
+      <c r="AN8" s="211"/>
+      <c r="AO8" s="211"/>
+      <c r="AP8" s="211"/>
+      <c r="AQ8" s="211"/>
+      <c r="AR8" s="211"/>
+      <c r="AS8" s="211"/>
+      <c r="AT8" s="211"/>
+      <c r="AU8" s="211"/>
+      <c r="AV8" s="211"/>
+      <c r="AW8" s="211"/>
+      <c r="AX8" s="211"/>
+      <c r="AY8" s="211"/>
+      <c r="AZ8" s="211"/>
+      <c r="BA8" s="211"/>
+      <c r="BB8" s="211"/>
+      <c r="BC8" s="211"/>
+      <c r="BD8" s="211"/>
+      <c r="BE8" s="211"/>
+      <c r="BF8" s="211"/>
+      <c r="BG8" s="211"/>
+      <c r="BH8" s="211"/>
+      <c r="BI8" s="211"/>
+      <c r="BJ8" s="211"/>
+      <c r="BK8" s="211"/>
+      <c r="BL8" s="211"/>
+      <c r="BM8" s="211"/>
+      <c r="BN8" s="211"/>
+      <c r="BO8" s="211"/>
+      <c r="BP8" s="211"/>
+      <c r="BQ8" s="211"/>
+      <c r="BR8" s="211"/>
+      <c r="BS8" s="211"/>
+      <c r="BT8" s="211"/>
+      <c r="BU8" s="211"/>
+      <c r="BV8" s="211"/>
+      <c r="BW8" s="211"/>
+      <c r="BX8" s="211"/>
+      <c r="BY8" s="211"/>
+      <c r="BZ8" s="211"/>
+      <c r="CA8" s="211"/>
+      <c r="CB8" s="211"/>
+      <c r="CC8" s="212"/>
+      <c r="CD8" s="212"/>
+      <c r="CE8" s="212"/>
+      <c r="CF8" s="212"/>
+      <c r="CG8" s="212"/>
+      <c r="CH8" s="212"/>
+      <c r="CI8" s="212"/>
+      <c r="CJ8" s="212"/>
+      <c r="CK8" s="212"/>
+      <c r="CL8" s="212"/>
+      <c r="CM8" s="212"/>
     </row>
     <row r="9" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="37">
-        <v>2</v>
-      </c>
-      <c r="B9" s="442" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="443"/>
-      <c r="D9" s="443"/>
-      <c r="E9" s="443"/>
-      <c r="F9" s="444"/>
-      <c r="G9" s="451" t="s">
-        <v>32</v>
-      </c>
-      <c r="H9" s="452"/>
-      <c r="I9" s="452"/>
-      <c r="J9" s="452"/>
-      <c r="K9" s="453"/>
-      <c r="L9" s="442" t="s">
-        <v>31</v>
-      </c>
-      <c r="M9" s="443"/>
-      <c r="N9" s="443"/>
-      <c r="O9" s="443"/>
-      <c r="P9" s="444"/>
-      <c r="Q9" s="38" t="s">
-        <v>88</v>
-      </c>
-      <c r="R9" s="442" t="s">
-        <v>33</v>
-      </c>
-      <c r="S9" s="443"/>
-      <c r="T9" s="443"/>
-      <c r="U9" s="444"/>
-      <c r="V9" s="447">
         <v>1</v>
       </c>
-      <c r="W9" s="448"/>
-      <c r="X9" s="445"/>
-      <c r="Y9" s="446"/>
-      <c r="Z9" s="442"/>
-      <c r="AA9" s="443"/>
-      <c r="AB9" s="444"/>
-      <c r="AC9" s="442"/>
-      <c r="AD9" s="443"/>
-      <c r="AE9" s="443"/>
-      <c r="AF9" s="443"/>
-      <c r="AG9" s="443"/>
-      <c r="AH9" s="443"/>
-      <c r="AI9" s="443"/>
-      <c r="AJ9" s="443"/>
-      <c r="AK9" s="444"/>
+      <c r="B9" s="439" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="440"/>
+      <c r="D9" s="440"/>
+      <c r="E9" s="440"/>
+      <c r="F9" s="441"/>
+      <c r="G9" s="458" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="459"/>
+      <c r="I9" s="459"/>
+      <c r="J9" s="459"/>
+      <c r="K9" s="460"/>
+      <c r="L9" s="439"/>
+      <c r="M9" s="440"/>
+      <c r="N9" s="440"/>
+      <c r="O9" s="440"/>
+      <c r="P9" s="441"/>
+      <c r="Q9" s="38"/>
+      <c r="R9" s="439"/>
+      <c r="S9" s="440"/>
+      <c r="T9" s="440"/>
+      <c r="U9" s="441"/>
+      <c r="V9" s="448"/>
+      <c r="W9" s="449"/>
+      <c r="X9" s="461"/>
+      <c r="Y9" s="462"/>
+      <c r="Z9" s="439"/>
+      <c r="AA9" s="440"/>
+      <c r="AB9" s="441"/>
+      <c r="AC9" s="439"/>
+      <c r="AD9" s="440"/>
+      <c r="AE9" s="440"/>
+      <c r="AF9" s="440"/>
+      <c r="AG9" s="440"/>
+      <c r="AH9" s="440"/>
+      <c r="AI9" s="440"/>
+      <c r="AJ9" s="440"/>
+      <c r="AK9" s="441"/>
       <c r="AL9" s="36"/>
       <c r="AM9" s="36"/>
       <c r="AN9" s="36"/>
@@ -13345,56 +13245,56 @@
     </row>
     <row r="10" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="37">
-        <v>3</v>
-      </c>
-      <c r="B10" s="442" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="443"/>
-      <c r="D10" s="443"/>
-      <c r="E10" s="443"/>
-      <c r="F10" s="444"/>
-      <c r="G10" s="451" t="s">
-        <v>35</v>
-      </c>
-      <c r="H10" s="452"/>
-      <c r="I10" s="452"/>
-      <c r="J10" s="452"/>
-      <c r="K10" s="453"/>
-      <c r="L10" s="442" t="s">
-        <v>34</v>
-      </c>
-      <c r="M10" s="443"/>
-      <c r="N10" s="443"/>
-      <c r="O10" s="443"/>
-      <c r="P10" s="444"/>
+        <v>2</v>
+      </c>
+      <c r="B10" s="439" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="440"/>
+      <c r="D10" s="440"/>
+      <c r="E10" s="440"/>
+      <c r="F10" s="441"/>
+      <c r="G10" s="458" t="s">
+        <v>106</v>
+      </c>
+      <c r="H10" s="459"/>
+      <c r="I10" s="459"/>
+      <c r="J10" s="459"/>
+      <c r="K10" s="460"/>
+      <c r="L10" s="439" t="s">
+        <v>31</v>
+      </c>
+      <c r="M10" s="440"/>
+      <c r="N10" s="440"/>
+      <c r="O10" s="440"/>
+      <c r="P10" s="441"/>
       <c r="Q10" s="38" t="s">
-        <v>88</v>
-      </c>
-      <c r="R10" s="442" t="s">
-        <v>36</v>
-      </c>
-      <c r="S10" s="443"/>
-      <c r="T10" s="443"/>
-      <c r="U10" s="444"/>
-      <c r="V10" s="447">
+        <v>85</v>
+      </c>
+      <c r="R10" s="439" t="s">
+        <v>32</v>
+      </c>
+      <c r="S10" s="440"/>
+      <c r="T10" s="440"/>
+      <c r="U10" s="441"/>
+      <c r="V10" s="448">
         <v>1</v>
       </c>
-      <c r="W10" s="448"/>
-      <c r="X10" s="449"/>
-      <c r="Y10" s="450"/>
-      <c r="Z10" s="442"/>
-      <c r="AA10" s="443"/>
-      <c r="AB10" s="444"/>
-      <c r="AC10" s="442"/>
-      <c r="AD10" s="443"/>
-      <c r="AE10" s="443"/>
-      <c r="AF10" s="443"/>
-      <c r="AG10" s="443"/>
-      <c r="AH10" s="443"/>
-      <c r="AI10" s="443"/>
-      <c r="AJ10" s="443"/>
-      <c r="AK10" s="444"/>
+      <c r="W10" s="449"/>
+      <c r="X10" s="461"/>
+      <c r="Y10" s="462"/>
+      <c r="Z10" s="439"/>
+      <c r="AA10" s="440"/>
+      <c r="AB10" s="441"/>
+      <c r="AC10" s="439"/>
+      <c r="AD10" s="440"/>
+      <c r="AE10" s="440"/>
+      <c r="AF10" s="440"/>
+      <c r="AG10" s="440"/>
+      <c r="AH10" s="440"/>
+      <c r="AI10" s="440"/>
+      <c r="AJ10" s="440"/>
+      <c r="AK10" s="441"/>
       <c r="AL10" s="36"/>
       <c r="AM10" s="36"/>
       <c r="AN10" s="36"/>
@@ -13451,56 +13351,56 @@
     </row>
     <row r="11" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="37">
-        <v>4</v>
-      </c>
-      <c r="B11" s="442" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="443"/>
-      <c r="D11" s="443"/>
-      <c r="E11" s="443"/>
-      <c r="F11" s="444"/>
-      <c r="G11" s="451" t="s">
-        <v>38</v>
-      </c>
-      <c r="H11" s="452"/>
-      <c r="I11" s="452"/>
-      <c r="J11" s="452"/>
-      <c r="K11" s="453"/>
-      <c r="L11" s="442" t="s">
-        <v>37</v>
-      </c>
-      <c r="M11" s="443"/>
-      <c r="N11" s="443"/>
-      <c r="O11" s="443"/>
-      <c r="P11" s="444"/>
+        <v>3</v>
+      </c>
+      <c r="B11" s="439" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="440"/>
+      <c r="D11" s="440"/>
+      <c r="E11" s="440"/>
+      <c r="F11" s="441"/>
+      <c r="G11" s="458" t="s">
+        <v>107</v>
+      </c>
+      <c r="H11" s="459"/>
+      <c r="I11" s="459"/>
+      <c r="J11" s="459"/>
+      <c r="K11" s="460"/>
+      <c r="L11" s="439" t="s">
+        <v>33</v>
+      </c>
+      <c r="M11" s="440"/>
+      <c r="N11" s="440"/>
+      <c r="O11" s="440"/>
+      <c r="P11" s="441"/>
       <c r="Q11" s="38" t="s">
-        <v>88</v>
-      </c>
-      <c r="R11" s="442" t="s">
-        <v>33</v>
-      </c>
-      <c r="S11" s="443"/>
-      <c r="T11" s="443"/>
-      <c r="U11" s="444"/>
-      <c r="V11" s="447">
+        <v>85</v>
+      </c>
+      <c r="R11" s="439" t="s">
+        <v>34</v>
+      </c>
+      <c r="S11" s="440"/>
+      <c r="T11" s="440"/>
+      <c r="U11" s="441"/>
+      <c r="V11" s="448">
         <v>1</v>
       </c>
-      <c r="W11" s="448"/>
-      <c r="X11" s="39"/>
-      <c r="Y11" s="40"/>
-      <c r="Z11" s="41"/>
-      <c r="AA11" s="42"/>
-      <c r="AB11" s="43"/>
-      <c r="AC11" s="41"/>
-      <c r="AD11" s="42"/>
-      <c r="AE11" s="42"/>
-      <c r="AF11" s="42"/>
-      <c r="AG11" s="42"/>
-      <c r="AH11" s="42"/>
-      <c r="AI11" s="42"/>
-      <c r="AJ11" s="42"/>
-      <c r="AK11" s="43"/>
+      <c r="W11" s="449"/>
+      <c r="X11" s="455"/>
+      <c r="Y11" s="457"/>
+      <c r="Z11" s="439"/>
+      <c r="AA11" s="440"/>
+      <c r="AB11" s="441"/>
+      <c r="AC11" s="439"/>
+      <c r="AD11" s="440"/>
+      <c r="AE11" s="440"/>
+      <c r="AF11" s="440"/>
+      <c r="AG11" s="440"/>
+      <c r="AH11" s="440"/>
+      <c r="AI11" s="440"/>
+      <c r="AJ11" s="440"/>
+      <c r="AK11" s="441"/>
       <c r="AL11" s="36"/>
       <c r="AM11" s="36"/>
       <c r="AN11" s="36"/>
@@ -13555,30 +13455,44 @@
       <c r="CL11" s="36"/>
       <c r="CM11" s="36"/>
     </row>
-    <row r="12" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="37"/>
-      <c r="B12" s="442"/>
-      <c r="C12" s="443"/>
-      <c r="D12" s="443"/>
-      <c r="E12" s="443"/>
-      <c r="F12" s="444"/>
-      <c r="G12" s="449"/>
-      <c r="H12" s="461"/>
-      <c r="I12" s="461"/>
-      <c r="J12" s="461"/>
-      <c r="K12" s="450"/>
-      <c r="L12" s="449"/>
-      <c r="M12" s="461"/>
-      <c r="N12" s="461"/>
-      <c r="O12" s="461"/>
-      <c r="P12" s="450"/>
-      <c r="Q12" s="38"/>
-      <c r="R12" s="442"/>
-      <c r="S12" s="443"/>
-      <c r="T12" s="443"/>
-      <c r="U12" s="444"/>
-      <c r="V12" s="447"/>
-      <c r="W12" s="448"/>
+    <row r="12" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="37">
+        <v>4</v>
+      </c>
+      <c r="B12" s="439" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="440"/>
+      <c r="D12" s="440"/>
+      <c r="E12" s="440"/>
+      <c r="F12" s="441"/>
+      <c r="G12" s="458" t="s">
+        <v>108</v>
+      </c>
+      <c r="H12" s="459"/>
+      <c r="I12" s="459"/>
+      <c r="J12" s="459"/>
+      <c r="K12" s="460"/>
+      <c r="L12" s="439" t="s">
+        <v>35</v>
+      </c>
+      <c r="M12" s="440"/>
+      <c r="N12" s="440"/>
+      <c r="O12" s="440"/>
+      <c r="P12" s="441"/>
+      <c r="Q12" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="R12" s="439" t="s">
+        <v>32</v>
+      </c>
+      <c r="S12" s="440"/>
+      <c r="T12" s="440"/>
+      <c r="U12" s="441"/>
+      <c r="V12" s="448">
+        <v>1</v>
+      </c>
+      <c r="W12" s="449"/>
       <c r="X12" s="39"/>
       <c r="Y12" s="40"/>
       <c r="Z12" s="41"/>
@@ -13647,92 +13561,133 @@
       <c r="CL12" s="36"/>
       <c r="CM12" s="36"/>
     </row>
-    <row r="13" spans="1:96" s="49" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="44"/>
-      <c r="B13" s="44"/>
-      <c r="C13" s="44"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="45"/>
-      <c r="I13" s="45"/>
-      <c r="J13" s="45"/>
-      <c r="K13" s="45"/>
-      <c r="L13" s="45"/>
-      <c r="M13" s="45"/>
-      <c r="N13" s="45"/>
-      <c r="O13" s="45"/>
-      <c r="P13" s="45"/>
-      <c r="Q13" s="45"/>
-      <c r="R13" s="45"/>
-      <c r="S13" s="46"/>
-      <c r="T13" s="46"/>
-      <c r="U13" s="46"/>
-      <c r="V13" s="47"/>
-      <c r="W13" s="47"/>
-      <c r="X13" s="48"/>
-      <c r="Y13" s="48"/>
-      <c r="Z13" s="45"/>
-      <c r="AA13" s="45"/>
-      <c r="AB13" s="45"/>
-      <c r="AC13" s="44"/>
-      <c r="AD13" s="44"/>
-      <c r="AE13" s="44"/>
-      <c r="AF13" s="44"/>
-      <c r="AG13" s="45"/>
-      <c r="AH13" s="44"/>
-      <c r="CD13" s="50"/>
-      <c r="CE13" s="50"/>
-      <c r="CF13" s="50"/>
-      <c r="CG13" s="50"/>
-      <c r="CH13" s="51"/>
-      <c r="CI13" s="51"/>
-      <c r="CJ13" s="51"/>
-      <c r="CK13" s="51"/>
-      <c r="CL13" s="51"/>
-      <c r="CM13" s="51"/>
-      <c r="CN13" s="51"/>
-      <c r="CO13" s="51"/>
-      <c r="CP13" s="51"/>
-      <c r="CQ13" s="51"/>
-      <c r="CR13" s="51"/>
+    <row r="13" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="37"/>
+      <c r="B13" s="439"/>
+      <c r="C13" s="440"/>
+      <c r="D13" s="440"/>
+      <c r="E13" s="440"/>
+      <c r="F13" s="441"/>
+      <c r="G13" s="455"/>
+      <c r="H13" s="456"/>
+      <c r="I13" s="456"/>
+      <c r="J13" s="456"/>
+      <c r="K13" s="457"/>
+      <c r="L13" s="455"/>
+      <c r="M13" s="456"/>
+      <c r="N13" s="456"/>
+      <c r="O13" s="456"/>
+      <c r="P13" s="457"/>
+      <c r="Q13" s="38"/>
+      <c r="R13" s="439"/>
+      <c r="S13" s="440"/>
+      <c r="T13" s="440"/>
+      <c r="U13" s="441"/>
+      <c r="V13" s="448"/>
+      <c r="W13" s="449"/>
+      <c r="X13" s="39"/>
+      <c r="Y13" s="40"/>
+      <c r="Z13" s="41"/>
+      <c r="AA13" s="42"/>
+      <c r="AB13" s="43"/>
+      <c r="AC13" s="41"/>
+      <c r="AD13" s="42"/>
+      <c r="AE13" s="42"/>
+      <c r="AF13" s="42"/>
+      <c r="AG13" s="42"/>
+      <c r="AH13" s="42"/>
+      <c r="AI13" s="42"/>
+      <c r="AJ13" s="42"/>
+      <c r="AK13" s="43"/>
+      <c r="AL13" s="36"/>
+      <c r="AM13" s="36"/>
+      <c r="AN13" s="36"/>
+      <c r="AP13" s="36"/>
+      <c r="AQ13" s="36"/>
+      <c r="AR13" s="36"/>
+      <c r="AS13" s="36"/>
+      <c r="AT13" s="36"/>
+      <c r="AU13" s="36"/>
+      <c r="AV13" s="36"/>
+      <c r="AW13" s="36"/>
+      <c r="AX13" s="35"/>
+      <c r="AY13" s="35"/>
+      <c r="AZ13" s="35"/>
+      <c r="BA13" s="35"/>
+      <c r="BB13" s="35"/>
+      <c r="BC13" s="35"/>
+      <c r="BD13" s="35"/>
+      <c r="BE13" s="35"/>
+      <c r="BF13" s="35"/>
+      <c r="BG13" s="35"/>
+      <c r="BH13" s="35"/>
+      <c r="BI13" s="35"/>
+      <c r="BJ13" s="35"/>
+      <c r="BK13" s="35"/>
+      <c r="BL13" s="35"/>
+      <c r="BM13" s="35"/>
+      <c r="BN13" s="35"/>
+      <c r="BO13" s="35"/>
+      <c r="BP13" s="35"/>
+      <c r="BQ13" s="35"/>
+      <c r="BR13" s="35"/>
+      <c r="BS13" s="35"/>
+      <c r="BT13" s="35"/>
+      <c r="BU13" s="35"/>
+      <c r="BV13" s="35"/>
+      <c r="BW13" s="35"/>
+      <c r="BX13" s="35"/>
+      <c r="BY13" s="35"/>
+      <c r="BZ13" s="35"/>
+      <c r="CA13" s="35"/>
+      <c r="CB13" s="35"/>
+      <c r="CC13" s="36"/>
+      <c r="CD13" s="36"/>
+      <c r="CE13" s="36"/>
+      <c r="CF13" s="36"/>
+      <c r="CG13" s="36"/>
+      <c r="CH13" s="36"/>
+      <c r="CI13" s="36"/>
+      <c r="CJ13" s="36"/>
+      <c r="CK13" s="36"/>
+      <c r="CL13" s="36"/>
+      <c r="CM13" s="36"/>
     </row>
     <row r="14" spans="1:96" s="49" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="51"/>
-      <c r="B14" s="51"/>
-      <c r="C14" s="51"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="52"/>
-      <c r="I14" s="52"/>
-      <c r="J14" s="52"/>
-      <c r="K14" s="52"/>
-      <c r="L14" s="52"/>
-      <c r="M14" s="52"/>
-      <c r="N14" s="52"/>
-      <c r="O14" s="52"/>
-      <c r="P14" s="52"/>
-      <c r="Q14" s="52"/>
-      <c r="R14" s="52"/>
-      <c r="S14" s="53"/>
-      <c r="T14" s="53"/>
-      <c r="U14" s="53"/>
-      <c r="V14" s="50"/>
-      <c r="W14" s="50"/>
-      <c r="X14" s="54"/>
-      <c r="Y14" s="54"/>
-      <c r="Z14" s="52"/>
-      <c r="AA14" s="52"/>
-      <c r="AB14" s="52"/>
-      <c r="AC14" s="51"/>
-      <c r="AD14" s="51"/>
-      <c r="AE14" s="51"/>
-      <c r="AF14" s="51"/>
-      <c r="AG14" s="52"/>
-      <c r="AH14" s="51"/>
+      <c r="A14" s="44"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="45"/>
+      <c r="I14" s="45"/>
+      <c r="J14" s="45"/>
+      <c r="K14" s="45"/>
+      <c r="L14" s="45"/>
+      <c r="M14" s="45"/>
+      <c r="N14" s="45"/>
+      <c r="O14" s="45"/>
+      <c r="P14" s="45"/>
+      <c r="Q14" s="45"/>
+      <c r="R14" s="45"/>
+      <c r="S14" s="46"/>
+      <c r="T14" s="46"/>
+      <c r="U14" s="46"/>
+      <c r="V14" s="47"/>
+      <c r="W14" s="47"/>
+      <c r="X14" s="48"/>
+      <c r="Y14" s="48"/>
+      <c r="Z14" s="45"/>
+      <c r="AA14" s="45"/>
+      <c r="AB14" s="45"/>
+      <c r="AC14" s="44"/>
+      <c r="AD14" s="44"/>
+      <c r="AE14" s="44"/>
+      <c r="AF14" s="44"/>
+      <c r="AG14" s="45"/>
+      <c r="AH14" s="44"/>
       <c r="CD14" s="50"/>
       <c r="CE14" s="50"/>
       <c r="CF14" s="50"/>
@@ -13801,19 +13756,19 @@
       <c r="CR15" s="51"/>
     </row>
     <row r="16" spans="1:96" s="49" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="55"/>
-      <c r="B16" s="55"/>
-      <c r="C16" s="55"/>
-      <c r="D16" s="55"/>
-      <c r="E16" s="55"/>
-      <c r="F16" s="55"/>
-      <c r="G16" s="55"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="56"/>
-      <c r="M16" s="56"/>
+      <c r="A16" s="51"/>
+      <c r="B16" s="51"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="52"/>
+      <c r="I16" s="52"/>
+      <c r="J16" s="52"/>
+      <c r="K16" s="52"/>
+      <c r="L16" s="52"/>
+      <c r="M16" s="52"/>
       <c r="N16" s="52"/>
       <c r="O16" s="52"/>
       <c r="P16" s="52"/>
@@ -13851,141 +13806,153 @@
       <c r="CQ16" s="51"/>
       <c r="CR16" s="51"/>
     </row>
-    <row r="17" spans="1:96" s="57" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="456" t="s">
-        <v>80</v>
-      </c>
-      <c r="B17" s="457"/>
-      <c r="C17" s="457"/>
-      <c r="D17" s="457"/>
-      <c r="E17" s="457"/>
-      <c r="F17" s="457"/>
-      <c r="G17" s="457"/>
-      <c r="H17" s="457"/>
-      <c r="I17" s="457"/>
-      <c r="J17" s="457"/>
-      <c r="K17" s="457"/>
-      <c r="L17" s="457"/>
-      <c r="M17" s="457"/>
-      <c r="N17" s="457"/>
-      <c r="O17" s="457"/>
-      <c r="P17" s="457"/>
-      <c r="Q17" s="457"/>
-      <c r="R17" s="457"/>
-      <c r="S17" s="457"/>
-      <c r="T17" s="457"/>
-      <c r="U17" s="457"/>
-      <c r="V17" s="457"/>
-      <c r="W17" s="457"/>
-      <c r="X17" s="457"/>
-      <c r="Y17" s="458" t="s">
-        <v>81</v>
-      </c>
-      <c r="Z17" s="459"/>
-      <c r="AA17" s="459"/>
-      <c r="AB17" s="459"/>
-      <c r="AC17" s="459"/>
-      <c r="AD17" s="459"/>
-      <c r="AE17" s="459"/>
-      <c r="AF17" s="459"/>
-      <c r="AG17" s="459"/>
-      <c r="AH17" s="459"/>
-      <c r="AI17" s="459"/>
-      <c r="AJ17" s="459"/>
-      <c r="AK17" s="460"/>
-    </row>
-    <row r="18" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="58"/>
-      <c r="B18" s="59"/>
-      <c r="C18" s="59"/>
-      <c r="D18" s="59"/>
-      <c r="E18" s="59"/>
-      <c r="F18" s="59"/>
-      <c r="G18" s="59"/>
-      <c r="H18" s="59"/>
-      <c r="I18" s="59"/>
-      <c r="J18" s="59"/>
-      <c r="K18" s="59"/>
-      <c r="L18" s="59"/>
-      <c r="M18" s="59"/>
-      <c r="N18" s="59"/>
-      <c r="O18" s="59"/>
-      <c r="P18" s="59"/>
-      <c r="Q18" s="59"/>
-      <c r="R18" s="59"/>
-      <c r="S18" s="59"/>
-      <c r="T18" s="59"/>
-      <c r="U18" s="59"/>
-      <c r="V18" s="59"/>
-      <c r="W18" s="60"/>
-      <c r="X18" s="61"/>
-      <c r="Y18" s="62"/>
-      <c r="Z18" s="63"/>
-      <c r="AA18" s="63"/>
-      <c r="AB18" s="63"/>
-      <c r="AC18" s="63"/>
-      <c r="AD18" s="63"/>
-      <c r="AE18" s="63"/>
-      <c r="AF18" s="63"/>
-      <c r="AG18" s="63"/>
-      <c r="AH18" s="63"/>
-      <c r="AI18" s="63"/>
-      <c r="AJ18" s="63"/>
-      <c r="AK18" s="64"/>
-      <c r="CD18" s="35"/>
-      <c r="CE18" s="35"/>
-      <c r="CF18" s="35"/>
-      <c r="CG18" s="35"/>
-      <c r="CH18" s="36"/>
-      <c r="CI18" s="36"/>
-      <c r="CJ18" s="36"/>
-      <c r="CK18" s="36"/>
-      <c r="CL18" s="36"/>
-      <c r="CM18" s="36"/>
-      <c r="CN18" s="36"/>
-      <c r="CO18" s="36"/>
-      <c r="CP18" s="36"/>
-      <c r="CQ18" s="36"/>
-      <c r="CR18" s="36"/>
+    <row r="17" spans="1:96" s="49" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="55"/>
+      <c r="B17" s="55"/>
+      <c r="C17" s="55"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="55"/>
+      <c r="G17" s="55"/>
+      <c r="H17" s="56"/>
+      <c r="I17" s="56"/>
+      <c r="J17" s="56"/>
+      <c r="K17" s="56"/>
+      <c r="L17" s="56"/>
+      <c r="M17" s="56"/>
+      <c r="N17" s="52"/>
+      <c r="O17" s="52"/>
+      <c r="P17" s="52"/>
+      <c r="Q17" s="52"/>
+      <c r="R17" s="52"/>
+      <c r="S17" s="53"/>
+      <c r="T17" s="53"/>
+      <c r="U17" s="53"/>
+      <c r="V17" s="50"/>
+      <c r="W17" s="50"/>
+      <c r="X17" s="54"/>
+      <c r="Y17" s="54"/>
+      <c r="Z17" s="52"/>
+      <c r="AA17" s="52"/>
+      <c r="AB17" s="52"/>
+      <c r="AC17" s="51"/>
+      <c r="AD17" s="51"/>
+      <c r="AE17" s="51"/>
+      <c r="AF17" s="51"/>
+      <c r="AG17" s="52"/>
+      <c r="AH17" s="51"/>
+      <c r="CD17" s="50"/>
+      <c r="CE17" s="50"/>
+      <c r="CF17" s="50"/>
+      <c r="CG17" s="50"/>
+      <c r="CH17" s="51"/>
+      <c r="CI17" s="51"/>
+      <c r="CJ17" s="51"/>
+      <c r="CK17" s="51"/>
+      <c r="CL17" s="51"/>
+      <c r="CM17" s="51"/>
+      <c r="CN17" s="51"/>
+      <c r="CO17" s="51"/>
+      <c r="CP17" s="51"/>
+      <c r="CQ17" s="51"/>
+      <c r="CR17" s="51"/>
+    </row>
+    <row r="18" spans="1:96" s="57" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="450" t="s">
+        <v>77</v>
+      </c>
+      <c r="B18" s="451"/>
+      <c r="C18" s="451"/>
+      <c r="D18" s="451"/>
+      <c r="E18" s="451"/>
+      <c r="F18" s="451"/>
+      <c r="G18" s="451"/>
+      <c r="H18" s="451"/>
+      <c r="I18" s="451"/>
+      <c r="J18" s="451"/>
+      <c r="K18" s="451"/>
+      <c r="L18" s="451"/>
+      <c r="M18" s="451"/>
+      <c r="N18" s="451"/>
+      <c r="O18" s="451"/>
+      <c r="P18" s="451"/>
+      <c r="Q18" s="451"/>
+      <c r="R18" s="451"/>
+      <c r="S18" s="451"/>
+      <c r="T18" s="451"/>
+      <c r="U18" s="451"/>
+      <c r="V18" s="451"/>
+      <c r="W18" s="451"/>
+      <c r="X18" s="451"/>
+      <c r="Y18" s="452" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z18" s="453"/>
+      <c r="AA18" s="453"/>
+      <c r="AB18" s="453"/>
+      <c r="AC18" s="453"/>
+      <c r="AD18" s="453"/>
+      <c r="AE18" s="453"/>
+      <c r="AF18" s="453"/>
+      <c r="AG18" s="453"/>
+      <c r="AH18" s="453"/>
+      <c r="AI18" s="453"/>
+      <c r="AJ18" s="453"/>
+      <c r="AK18" s="454"/>
     </row>
     <row r="19" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="65"/>
-      <c r="B19" s="66"/>
-      <c r="C19" s="66"/>
-      <c r="D19" s="66"/>
-      <c r="E19" s="66"/>
-      <c r="F19" s="66"/>
-      <c r="G19" s="66"/>
-      <c r="H19" s="66"/>
-      <c r="I19" s="66"/>
-      <c r="J19" s="66"/>
-      <c r="K19" s="66"/>
-      <c r="L19" s="66"/>
-      <c r="M19" s="66"/>
-      <c r="N19" s="66"/>
-      <c r="O19" s="66"/>
-      <c r="P19" s="66"/>
-      <c r="Q19" s="66"/>
-      <c r="R19" s="66"/>
-      <c r="S19" s="66"/>
-      <c r="T19" s="66"/>
-      <c r="U19" s="66"/>
-      <c r="V19" s="66"/>
-      <c r="W19" s="36"/>
-      <c r="X19" s="67"/>
-      <c r="Y19" s="68"/>
-      <c r="Z19" s="69"/>
-      <c r="AA19" s="69"/>
-      <c r="AB19" s="69"/>
-      <c r="AC19" s="69"/>
-      <c r="AD19" s="69"/>
-      <c r="AE19" s="69"/>
-      <c r="AF19" s="69"/>
-      <c r="AG19" s="69"/>
-      <c r="AH19" s="69"/>
-      <c r="AI19" s="69"/>
-      <c r="AJ19" s="69"/>
-      <c r="AK19" s="70"/>
+      <c r="A19" s="58"/>
+      <c r="B19" s="59"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="59"/>
+      <c r="J19" s="59"/>
+      <c r="K19" s="59"/>
+      <c r="L19" s="59"/>
+      <c r="M19" s="59"/>
+      <c r="N19" s="59"/>
+      <c r="O19" s="59"/>
+      <c r="P19" s="59"/>
+      <c r="Q19" s="59"/>
+      <c r="R19" s="59"/>
+      <c r="S19" s="59"/>
+      <c r="T19" s="59"/>
+      <c r="U19" s="59"/>
+      <c r="V19" s="59"/>
+      <c r="W19" s="60"/>
+      <c r="X19" s="61"/>
+      <c r="Y19" s="62"/>
+      <c r="Z19" s="63"/>
+      <c r="AA19" s="63"/>
+      <c r="AB19" s="63"/>
+      <c r="AC19" s="63"/>
+      <c r="AD19" s="63"/>
+      <c r="AE19" s="63"/>
+      <c r="AF19" s="63"/>
+      <c r="AG19" s="63"/>
+      <c r="AH19" s="63"/>
+      <c r="AI19" s="63"/>
+      <c r="AJ19" s="63"/>
+      <c r="AK19" s="64"/>
+      <c r="CD19" s="35"/>
+      <c r="CE19" s="35"/>
+      <c r="CF19" s="35"/>
+      <c r="CG19" s="35"/>
+      <c r="CH19" s="36"/>
+      <c r="CI19" s="36"/>
+      <c r="CJ19" s="36"/>
+      <c r="CK19" s="36"/>
+      <c r="CL19" s="36"/>
+      <c r="CM19" s="36"/>
+      <c r="CN19" s="36"/>
+      <c r="CO19" s="36"/>
+      <c r="CP19" s="36"/>
+      <c r="CQ19" s="36"/>
+      <c r="CR19" s="36"/>
     </row>
     <row r="20" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="65"/>
@@ -14495,90 +14462,94 @@
       <c r="AK32" s="70"/>
     </row>
     <row r="33" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="71"/>
-      <c r="B33" s="72"/>
-      <c r="C33" s="72"/>
-      <c r="D33" s="72"/>
-      <c r="E33" s="72"/>
-      <c r="F33" s="72"/>
-      <c r="G33" s="72"/>
-      <c r="H33" s="72"/>
-      <c r="I33" s="72"/>
-      <c r="J33" s="72"/>
-      <c r="K33" s="72"/>
-      <c r="L33" s="72"/>
-      <c r="M33" s="72"/>
-      <c r="N33" s="72"/>
-      <c r="O33" s="72"/>
-      <c r="P33" s="72"/>
-      <c r="Q33" s="72"/>
-      <c r="R33" s="72"/>
-      <c r="S33" s="72"/>
-      <c r="T33" s="72"/>
-      <c r="U33" s="72"/>
-      <c r="V33" s="72"/>
-      <c r="W33" s="73"/>
-      <c r="X33" s="74"/>
-      <c r="Y33" s="75"/>
-      <c r="Z33" s="76"/>
-      <c r="AA33" s="76"/>
-      <c r="AB33" s="76"/>
-      <c r="AC33" s="76"/>
-      <c r="AD33" s="76"/>
-      <c r="AE33" s="76"/>
-      <c r="AF33" s="76"/>
-      <c r="AG33" s="76"/>
-      <c r="AH33" s="76"/>
-      <c r="AI33" s="76"/>
-      <c r="AJ33" s="76"/>
-      <c r="AK33" s="77"/>
+      <c r="A33" s="65"/>
+      <c r="B33" s="66"/>
+      <c r="C33" s="66"/>
+      <c r="D33" s="66"/>
+      <c r="E33" s="66"/>
+      <c r="F33" s="66"/>
+      <c r="G33" s="66"/>
+      <c r="H33" s="66"/>
+      <c r="I33" s="66"/>
+      <c r="J33" s="66"/>
+      <c r="K33" s="66"/>
+      <c r="L33" s="66"/>
+      <c r="M33" s="66"/>
+      <c r="N33" s="66"/>
+      <c r="O33" s="66"/>
+      <c r="P33" s="66"/>
+      <c r="Q33" s="66"/>
+      <c r="R33" s="66"/>
+      <c r="S33" s="66"/>
+      <c r="T33" s="66"/>
+      <c r="U33" s="66"/>
+      <c r="V33" s="66"/>
+      <c r="W33" s="36"/>
+      <c r="X33" s="67"/>
+      <c r="Y33" s="68"/>
+      <c r="Z33" s="69"/>
+      <c r="AA33" s="69"/>
+      <c r="AB33" s="69"/>
+      <c r="AC33" s="69"/>
+      <c r="AD33" s="69"/>
+      <c r="AE33" s="69"/>
+      <c r="AF33" s="69"/>
+      <c r="AG33" s="69"/>
+      <c r="AH33" s="69"/>
+      <c r="AI33" s="69"/>
+      <c r="AJ33" s="69"/>
+      <c r="AK33" s="70"/>
     </row>
     <row r="34" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D34" s="78"/>
-      <c r="X34" s="78"/>
+      <c r="A34" s="71"/>
+      <c r="B34" s="72"/>
+      <c r="C34" s="72"/>
+      <c r="D34" s="72"/>
+      <c r="E34" s="72"/>
+      <c r="F34" s="72"/>
+      <c r="G34" s="72"/>
+      <c r="H34" s="72"/>
+      <c r="I34" s="72"/>
+      <c r="J34" s="72"/>
+      <c r="K34" s="72"/>
+      <c r="L34" s="72"/>
+      <c r="M34" s="72"/>
+      <c r="N34" s="72"/>
+      <c r="O34" s="72"/>
+      <c r="P34" s="72"/>
+      <c r="Q34" s="72"/>
+      <c r="R34" s="72"/>
+      <c r="S34" s="72"/>
+      <c r="T34" s="72"/>
+      <c r="U34" s="72"/>
+      <c r="V34" s="72"/>
+      <c r="W34" s="73"/>
+      <c r="X34" s="74"/>
+      <c r="Y34" s="75"/>
+      <c r="Z34" s="76"/>
+      <c r="AA34" s="76"/>
+      <c r="AB34" s="76"/>
+      <c r="AC34" s="76"/>
+      <c r="AD34" s="76"/>
+      <c r="AE34" s="76"/>
+      <c r="AF34" s="76"/>
+      <c r="AG34" s="76"/>
+      <c r="AH34" s="76"/>
+      <c r="AI34" s="76"/>
+      <c r="AJ34" s="76"/>
+      <c r="AK34" s="77"/>
+    </row>
+    <row r="35" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D35" s="78"/>
+      <c r="X35" s="78"/>
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="R8:U8"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="G7:K7"/>
-    <mergeCell ref="L7:P7"/>
-    <mergeCell ref="R7:U7"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="A17:X17"/>
-    <mergeCell ref="Y17:AK17"/>
-    <mergeCell ref="B12:F12"/>
     <mergeCell ref="AC8:AK8"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="L12:P12"/>
-    <mergeCell ref="V11:W11"/>
-    <mergeCell ref="V12:W12"/>
-    <mergeCell ref="R11:U11"/>
-    <mergeCell ref="R12:U12"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="L11:P11"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="Z9:AB9"/>
-    <mergeCell ref="R9:U9"/>
-    <mergeCell ref="R10:U10"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="X8:Y8"/>
+    <mergeCell ref="AC10:AK10"/>
+    <mergeCell ref="AC11:AK11"/>
+    <mergeCell ref="Z11:AB11"/>
     <mergeCell ref="Z8:AB8"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="L10:P10"/>
-    <mergeCell ref="V10:W10"/>
-    <mergeCell ref="X10:Y10"/>
-    <mergeCell ref="L9:P9"/>
-    <mergeCell ref="V9:W9"/>
-    <mergeCell ref="X9:Y9"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="L8:P8"/>
-    <mergeCell ref="X7:Y7"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AC2:AF2"/>
     <mergeCell ref="AG2:AI2"/>
@@ -14595,15 +14566,50 @@
     <mergeCell ref="AA2:AB2"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC7:AK7"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="X9:Y9"/>
+    <mergeCell ref="Z9:AB9"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="L11:P11"/>
+    <mergeCell ref="V11:W11"/>
+    <mergeCell ref="X11:Y11"/>
+    <mergeCell ref="L10:P10"/>
+    <mergeCell ref="V10:W10"/>
+    <mergeCell ref="X10:Y10"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="L9:P9"/>
+    <mergeCell ref="X8:Y8"/>
+    <mergeCell ref="A18:X18"/>
+    <mergeCell ref="Y18:AK18"/>
+    <mergeCell ref="B13:F13"/>
     <mergeCell ref="AC9:AK9"/>
-    <mergeCell ref="AC10:AK10"/>
+    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="L13:P13"/>
+    <mergeCell ref="V12:W12"/>
+    <mergeCell ref="V13:W13"/>
+    <mergeCell ref="R12:U12"/>
+    <mergeCell ref="R13:U13"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="L12:P12"/>
+    <mergeCell ref="G11:K11"/>
     <mergeCell ref="Z10:AB10"/>
-    <mergeCell ref="Z7:AB7"/>
+    <mergeCell ref="R10:U10"/>
+    <mergeCell ref="R11:U11"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="R9:U9"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="L8:P8"/>
+    <mergeCell ref="R8:U8"/>
+    <mergeCell ref="V9:W9"/>
   </mergeCells>
   <phoneticPr fontId="12"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R8:R12" xr:uid="{00000000-0002-0000-0500-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R9:R13" xr:uid="{00000000-0002-0000-0500-000001000000}">
       <formula1>データ型</formula1>
     </dataValidation>
   </dataValidations>
@@ -14614,7 +14620,7 @@
     <oddFooter>&amp;C- &amp;P -</oddFooter>
   </headerFooter>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="15" max="37" man="1"/>
+    <brk id="16" max="37" man="1"/>
   </rowBreaks>
   <drawing r:id="rId2"/>
 </worksheet>
